--- a/Ionocyte/All 10mm ionocyte data.xlsx
+++ b/Ionocyte/All 10mm ionocyte data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{429F2875-A721-4ABF-A9F9-CF885AA29350}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5277D24D-A7C6-4AAC-BD79-24D0A0CC3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
@@ -1607,9 +1607,10 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -1967,17 +1968,36 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
-      <selection activeCell="B346" sqref="B346"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A311" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J337" sqref="J337:P337"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.33203125" customWidth="1"/>
+    <col min="2" max="2" width="10.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="11.109375" customWidth="1"/>
+    <col min="4" max="4" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="13.77734375" customWidth="1"/>
+    <col min="6" max="6" width="10.33203125" customWidth="1"/>
+    <col min="7" max="7" width="11.5546875" customWidth="1"/>
+    <col min="8" max="8" width="13.21875" customWidth="1"/>
+    <col min="9" max="9" width="16" customWidth="1"/>
+    <col min="10" max="11" width="12" customWidth="1"/>
+    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="13" max="13" width="11" customWidth="1"/>
+    <col min="14" max="14" width="11.77734375" customWidth="1"/>
+    <col min="15" max="15" width="12.77734375" customWidth="1"/>
+    <col min="16" max="16" width="16.77734375" customWidth="1"/>
+    <col min="17" max="17" width="16.109375" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
@@ -2045,7 +2065,7 @@
       <c r="A2" t="s">
         <v>22</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="2" t="s">
         <v>24</v>
       </c>
       <c r="C2">
@@ -2113,7 +2133,7 @@
       <c r="A3" t="s">
         <v>22</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>25</v>
       </c>
       <c r="C3">
@@ -2181,7 +2201,7 @@
       <c r="A4" t="s">
         <v>22</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>26</v>
       </c>
       <c r="C4">
@@ -2249,7 +2269,7 @@
       <c r="A5" t="s">
         <v>22</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="2" t="s">
         <v>27</v>
       </c>
       <c r="C5">
@@ -2317,7 +2337,7 @@
       <c r="A6" t="s">
         <v>22</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="2" t="s">
         <v>28</v>
       </c>
       <c r="C6">
@@ -2385,7 +2405,7 @@
       <c r="A7" t="s">
         <v>22</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="2" t="s">
         <v>29</v>
       </c>
       <c r="C7">
@@ -2453,7 +2473,7 @@
       <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="2" t="s">
         <v>30</v>
       </c>
       <c r="C8">
@@ -2521,7 +2541,7 @@
       <c r="A9" t="s">
         <v>22</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="2" t="s">
         <v>31</v>
       </c>
       <c r="C9">
@@ -2589,7 +2609,7 @@
       <c r="A10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="2" t="s">
         <v>32</v>
       </c>
       <c r="C10">
@@ -2657,7 +2677,7 @@
       <c r="A11" t="s">
         <v>22</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="2" t="s">
         <v>33</v>
       </c>
       <c r="C11">
@@ -2725,7 +2745,7 @@
       <c r="A12" t="s">
         <v>22</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="C12">
@@ -2793,7 +2813,7 @@
       <c r="A13" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="2" t="s">
         <v>35</v>
       </c>
       <c r="C13">
@@ -2861,7 +2881,7 @@
       <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="2" t="s">
         <v>36</v>
       </c>
       <c r="C14">
@@ -2929,7 +2949,7 @@
       <c r="A15" t="s">
         <v>22</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="2" t="s">
         <v>37</v>
       </c>
       <c r="C15">
@@ -2997,7 +3017,7 @@
       <c r="A16" t="s">
         <v>22</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="2" t="s">
         <v>38</v>
       </c>
       <c r="C16">
@@ -3065,7 +3085,7 @@
       <c r="A17" t="s">
         <v>22</v>
       </c>
-      <c r="B17" t="s">
+      <c r="B17" s="2" t="s">
         <v>39</v>
       </c>
       <c r="C17">
@@ -3133,7 +3153,7 @@
       <c r="A18" t="s">
         <v>22</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="C18">
@@ -3201,7 +3221,7 @@
       <c r="A19" t="s">
         <v>22</v>
       </c>
-      <c r="B19" t="s">
+      <c r="B19" s="2" t="s">
         <v>41</v>
       </c>
       <c r="C19">
@@ -3269,7 +3289,7 @@
       <c r="A20" t="s">
         <v>22</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
       <c r="C20">
@@ -3337,7 +3357,7 @@
       <c r="A21" t="s">
         <v>22</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="2" t="s">
         <v>43</v>
       </c>
       <c r="C21">
@@ -3405,7 +3425,7 @@
       <c r="A22" t="s">
         <v>22</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B22" s="2" t="s">
         <v>44</v>
       </c>
       <c r="C22">
@@ -3473,7 +3493,7 @@
       <c r="A23" t="s">
         <v>22</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="2" t="s">
         <v>45</v>
       </c>
       <c r="C23">
@@ -3541,7 +3561,7 @@
       <c r="A24" t="s">
         <v>22</v>
       </c>
-      <c r="B24" t="s">
+      <c r="B24" s="2" t="s">
         <v>46</v>
       </c>
       <c r="C24">
@@ -3609,7 +3629,7 @@
       <c r="A25" t="s">
         <v>22</v>
       </c>
-      <c r="B25" t="s">
+      <c r="B25" s="2" t="s">
         <v>47</v>
       </c>
       <c r="C25">
@@ -3677,7 +3697,7 @@
       <c r="A26" t="s">
         <v>22</v>
       </c>
-      <c r="B26" t="s">
+      <c r="B26" s="2" t="s">
         <v>48</v>
       </c>
       <c r="C26">
@@ -3745,7 +3765,7 @@
       <c r="A27" t="s">
         <v>22</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="2" t="s">
         <v>49</v>
       </c>
       <c r="C27">
@@ -3813,7 +3833,7 @@
       <c r="A28" t="s">
         <v>22</v>
       </c>
-      <c r="B28" t="s">
+      <c r="B28" s="2" t="s">
         <v>50</v>
       </c>
       <c r="C28">
@@ -3881,7 +3901,7 @@
       <c r="A29" t="s">
         <v>22</v>
       </c>
-      <c r="B29" t="s">
+      <c r="B29" s="2" t="s">
         <v>51</v>
       </c>
       <c r="C29">
@@ -3949,7 +3969,7 @@
       <c r="A30" t="s">
         <v>22</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="2" t="s">
         <v>52</v>
       </c>
       <c r="C30">
@@ -4017,7 +4037,7 @@
       <c r="A31" t="s">
         <v>22</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="2" t="s">
         <v>53</v>
       </c>
       <c r="C31">
@@ -4085,7 +4105,7 @@
       <c r="A32" t="s">
         <v>22</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="2" t="s">
         <v>54</v>
       </c>
       <c r="C32">
@@ -4153,7 +4173,7 @@
       <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="B33" t="s">
+      <c r="B33" s="2" t="s">
         <v>55</v>
       </c>
       <c r="C33">
@@ -4221,7 +4241,7 @@
       <c r="A34" t="s">
         <v>22</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="2" t="s">
         <v>56</v>
       </c>
       <c r="C34">
@@ -4289,7 +4309,7 @@
       <c r="A35" t="s">
         <v>22</v>
       </c>
-      <c r="B35" t="s">
+      <c r="B35" s="2" t="s">
         <v>57</v>
       </c>
       <c r="C35">
@@ -4357,7 +4377,7 @@
       <c r="A36" t="s">
         <v>22</v>
       </c>
-      <c r="B36" t="s">
+      <c r="B36" s="2" t="s">
         <v>58</v>
       </c>
       <c r="C36">
@@ -4425,7 +4445,7 @@
       <c r="A37" t="s">
         <v>22</v>
       </c>
-      <c r="B37" t="s">
+      <c r="B37" s="2" t="s">
         <v>59</v>
       </c>
       <c r="C37">
@@ -4493,7 +4513,7 @@
       <c r="A38" t="s">
         <v>22</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="2" t="s">
         <v>60</v>
       </c>
       <c r="C38">
@@ -4561,7 +4581,7 @@
       <c r="A39" t="s">
         <v>22</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B39" s="2" t="s">
         <v>61</v>
       </c>
       <c r="C39">
@@ -4629,7 +4649,7 @@
       <c r="A40" t="s">
         <v>22</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B40" s="2" t="s">
         <v>62</v>
       </c>
       <c r="C40">
@@ -4697,7 +4717,7 @@
       <c r="A41" t="s">
         <v>22</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="2" t="s">
         <v>63</v>
       </c>
       <c r="C41">
@@ -4765,7 +4785,7 @@
       <c r="A42" t="s">
         <v>22</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="2" t="s">
         <v>64</v>
       </c>
       <c r="C42">
@@ -4833,7 +4853,7 @@
       <c r="A43" t="s">
         <v>22</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="2" t="s">
         <v>65</v>
       </c>
       <c r="C43">
@@ -4901,7 +4921,7 @@
       <c r="A44" t="s">
         <v>22</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="2" t="s">
         <v>66</v>
       </c>
       <c r="C44">
@@ -4969,7 +4989,7 @@
       <c r="A45" t="s">
         <v>22</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="2" t="s">
         <v>67</v>
       </c>
       <c r="C45">
@@ -5037,7 +5057,7 @@
       <c r="A46" t="s">
         <v>22</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="2" t="s">
         <v>68</v>
       </c>
       <c r="C46">
@@ -5105,7 +5125,7 @@
       <c r="A47" t="s">
         <v>22</v>
       </c>
-      <c r="B47" t="s">
+      <c r="B47" s="2" t="s">
         <v>69</v>
       </c>
       <c r="C47">
@@ -5173,7 +5193,7 @@
       <c r="A48" t="s">
         <v>22</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B48" s="2" t="s">
         <v>70</v>
       </c>
       <c r="C48">
@@ -5241,7 +5261,7 @@
       <c r="A49" t="s">
         <v>22</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="2" t="s">
         <v>71</v>
       </c>
       <c r="C49">
@@ -5309,7 +5329,7 @@
       <c r="A50" t="s">
         <v>22</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="2" t="s">
         <v>72</v>
       </c>
       <c r="C50">
@@ -5377,7 +5397,7 @@
       <c r="A51" t="s">
         <v>22</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="2" t="s">
         <v>73</v>
       </c>
       <c r="C51">
@@ -5445,7 +5465,7 @@
       <c r="A52" t="s">
         <v>22</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="2" t="s">
         <v>74</v>
       </c>
       <c r="C52">
@@ -5513,7 +5533,7 @@
       <c r="A53" t="s">
         <v>22</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="2" t="s">
         <v>75</v>
       </c>
       <c r="C53">
@@ -5581,7 +5601,7 @@
       <c r="A54" t="s">
         <v>22</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="2" t="s">
         <v>76</v>
       </c>
       <c r="C54">
@@ -5649,7 +5669,7 @@
       <c r="A55" t="s">
         <v>22</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="2" t="s">
         <v>77</v>
       </c>
       <c r="C55">
@@ -5717,7 +5737,7 @@
       <c r="A56" t="s">
         <v>22</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B56" s="2" t="s">
         <v>78</v>
       </c>
       <c r="C56">
@@ -5785,7 +5805,7 @@
       <c r="A57" t="s">
         <v>22</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="2" t="s">
         <v>79</v>
       </c>
       <c r="C57">
@@ -5853,7 +5873,7 @@
       <c r="A58" t="s">
         <v>22</v>
       </c>
-      <c r="B58" t="s">
+      <c r="B58" s="2" t="s">
         <v>80</v>
       </c>
       <c r="C58">
@@ -5921,7 +5941,7 @@
       <c r="A59" t="s">
         <v>22</v>
       </c>
-      <c r="B59" t="s">
+      <c r="B59" s="2" t="s">
         <v>81</v>
       </c>
       <c r="C59">
@@ -5989,7 +6009,7 @@
       <c r="A60" t="s">
         <v>22</v>
       </c>
-      <c r="B60" t="s">
+      <c r="B60" s="2" t="s">
         <v>82</v>
       </c>
       <c r="C60">
@@ -6057,7 +6077,7 @@
       <c r="A61" t="s">
         <v>22</v>
       </c>
-      <c r="B61" t="s">
+      <c r="B61" s="2" t="s">
         <v>83</v>
       </c>
       <c r="C61">
@@ -6125,7 +6145,7 @@
       <c r="A62" t="s">
         <v>22</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="2" t="s">
         <v>84</v>
       </c>
       <c r="C62">
@@ -6193,7 +6213,7 @@
       <c r="A63" t="s">
         <v>22</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="2" t="s">
         <v>85</v>
       </c>
       <c r="C63">
@@ -6261,7 +6281,7 @@
       <c r="A64" t="s">
         <v>22</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="2" t="s">
         <v>86</v>
       </c>
       <c r="C64">
@@ -6329,7 +6349,7 @@
       <c r="A65" t="s">
         <v>22</v>
       </c>
-      <c r="B65" t="s">
+      <c r="B65" s="2" t="s">
         <v>87</v>
       </c>
       <c r="C65">
@@ -6397,7 +6417,7 @@
       <c r="A66" t="s">
         <v>22</v>
       </c>
-      <c r="B66" t="s">
+      <c r="B66" s="2" t="s">
         <v>88</v>
       </c>
       <c r="C66">
@@ -6465,7 +6485,7 @@
       <c r="A67" t="s">
         <v>22</v>
       </c>
-      <c r="B67" t="s">
+      <c r="B67" s="2" t="s">
         <v>89</v>
       </c>
       <c r="C67">
@@ -6533,7 +6553,7 @@
       <c r="A68" t="s">
         <v>22</v>
       </c>
-      <c r="B68" t="s">
+      <c r="B68" s="2" t="s">
         <v>90</v>
       </c>
       <c r="C68">
@@ -6601,7 +6621,7 @@
       <c r="A69" t="s">
         <v>22</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="2" t="s">
         <v>91</v>
       </c>
       <c r="C69">
@@ -6669,7 +6689,7 @@
       <c r="A70" t="s">
         <v>22</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="2" t="s">
         <v>92</v>
       </c>
       <c r="C70">
@@ -6737,7 +6757,7 @@
       <c r="A71" t="s">
         <v>22</v>
       </c>
-      <c r="B71" t="s">
+      <c r="B71" s="2" t="s">
         <v>93</v>
       </c>
       <c r="C71">
@@ -6805,7 +6825,7 @@
       <c r="A72" t="s">
         <v>22</v>
       </c>
-      <c r="B72" t="s">
+      <c r="B72" s="2" t="s">
         <v>94</v>
       </c>
       <c r="C72">
@@ -6873,7 +6893,7 @@
       <c r="A73" t="s">
         <v>22</v>
       </c>
-      <c r="B73" t="s">
+      <c r="B73" s="2" t="s">
         <v>95</v>
       </c>
       <c r="C73">
@@ -6941,7 +6961,7 @@
       <c r="A74" t="s">
         <v>22</v>
       </c>
-      <c r="B74" t="s">
+      <c r="B74" s="2" t="s">
         <v>96</v>
       </c>
       <c r="C74">
@@ -7009,7 +7029,7 @@
       <c r="A75" t="s">
         <v>22</v>
       </c>
-      <c r="B75" t="s">
+      <c r="B75" s="2" t="s">
         <v>97</v>
       </c>
       <c r="C75">
@@ -7077,7 +7097,7 @@
       <c r="A76" t="s">
         <v>22</v>
       </c>
-      <c r="B76" t="s">
+      <c r="B76" s="2" t="s">
         <v>98</v>
       </c>
       <c r="C76">
@@ -7145,7 +7165,7 @@
       <c r="A77" t="s">
         <v>22</v>
       </c>
-      <c r="B77" t="s">
+      <c r="B77" s="2" t="s">
         <v>99</v>
       </c>
       <c r="C77">
@@ -7213,7 +7233,7 @@
       <c r="A78" t="s">
         <v>22</v>
       </c>
-      <c r="B78" t="s">
+      <c r="B78" s="2" t="s">
         <v>100</v>
       </c>
       <c r="C78">
@@ -7281,7 +7301,7 @@
       <c r="A79" t="s">
         <v>22</v>
       </c>
-      <c r="B79" t="s">
+      <c r="B79" s="2" t="s">
         <v>101</v>
       </c>
       <c r="C79">
@@ -7349,7 +7369,7 @@
       <c r="A80" t="s">
         <v>22</v>
       </c>
-      <c r="B80" t="s">
+      <c r="B80" s="2" t="s">
         <v>102</v>
       </c>
       <c r="C80">
@@ -7417,7 +7437,7 @@
       <c r="A81" t="s">
         <v>22</v>
       </c>
-      <c r="B81" t="s">
+      <c r="B81" s="2" t="s">
         <v>103</v>
       </c>
       <c r="C81">
@@ -7485,7 +7505,7 @@
       <c r="A82" t="s">
         <v>22</v>
       </c>
-      <c r="B82" t="s">
+      <c r="B82" s="2" t="s">
         <v>104</v>
       </c>
       <c r="C82">
@@ -7553,7 +7573,7 @@
       <c r="A83" t="s">
         <v>22</v>
       </c>
-      <c r="B83" t="s">
+      <c r="B83" s="2" t="s">
         <v>105</v>
       </c>
       <c r="C83">
@@ -7621,7 +7641,7 @@
       <c r="A84" t="s">
         <v>22</v>
       </c>
-      <c r="B84" t="s">
+      <c r="B84" s="2" t="s">
         <v>106</v>
       </c>
       <c r="C84">
@@ -7689,7 +7709,7 @@
       <c r="A85" t="s">
         <v>22</v>
       </c>
-      <c r="B85" t="s">
+      <c r="B85" s="2" t="s">
         <v>107</v>
       </c>
       <c r="C85">
@@ -7757,7 +7777,7 @@
       <c r="A86" t="s">
         <v>22</v>
       </c>
-      <c r="B86" t="s">
+      <c r="B86" s="2" t="s">
         <v>108</v>
       </c>
       <c r="C86">
@@ -7825,7 +7845,7 @@
       <c r="A87" t="s">
         <v>22</v>
       </c>
-      <c r="B87" t="s">
+      <c r="B87" s="2" t="s">
         <v>109</v>
       </c>
       <c r="C87">
@@ -7893,7 +7913,7 @@
       <c r="A88" t="s">
         <v>22</v>
       </c>
-      <c r="B88" t="s">
+      <c r="B88" s="2" t="s">
         <v>110</v>
       </c>
       <c r="C88">
@@ -7961,7 +7981,7 @@
       <c r="A89" t="s">
         <v>22</v>
       </c>
-      <c r="B89" t="s">
+      <c r="B89" s="2" t="s">
         <v>111</v>
       </c>
       <c r="C89">
@@ -8029,7 +8049,7 @@
       <c r="A90" t="s">
         <v>22</v>
       </c>
-      <c r="B90" t="s">
+      <c r="B90" s="2" t="s">
         <v>112</v>
       </c>
       <c r="C90">
@@ -8097,7 +8117,7 @@
       <c r="A91" t="s">
         <v>22</v>
       </c>
-      <c r="B91" t="s">
+      <c r="B91" s="2" t="s">
         <v>113</v>
       </c>
       <c r="C91">
@@ -8165,7 +8185,7 @@
       <c r="A92" t="s">
         <v>22</v>
       </c>
-      <c r="B92" t="s">
+      <c r="B92" s="2" t="s">
         <v>114</v>
       </c>
       <c r="C92">
@@ -8233,7 +8253,7 @@
       <c r="A93" t="s">
         <v>22</v>
       </c>
-      <c r="B93" t="s">
+      <c r="B93" s="2" t="s">
         <v>115</v>
       </c>
       <c r="C93">
@@ -8301,7 +8321,7 @@
       <c r="A94" t="s">
         <v>22</v>
       </c>
-      <c r="B94" t="s">
+      <c r="B94" s="2" t="s">
         <v>116</v>
       </c>
       <c r="C94">
@@ -8369,7 +8389,7 @@
       <c r="A95" t="s">
         <v>22</v>
       </c>
-      <c r="B95" t="s">
+      <c r="B95" s="2" t="s">
         <v>117</v>
       </c>
       <c r="C95">
@@ -8437,7 +8457,7 @@
       <c r="A96" t="s">
         <v>22</v>
       </c>
-      <c r="B96" t="s">
+      <c r="B96" s="2" t="s">
         <v>118</v>
       </c>
       <c r="C96">
@@ -8505,7 +8525,7 @@
       <c r="A97" t="s">
         <v>22</v>
       </c>
-      <c r="B97" t="s">
+      <c r="B97" s="2" t="s">
         <v>119</v>
       </c>
       <c r="C97">
@@ -8573,7 +8593,7 @@
       <c r="A98" t="s">
         <v>22</v>
       </c>
-      <c r="B98" t="s">
+      <c r="B98" s="2" t="s">
         <v>120</v>
       </c>
       <c r="C98">
@@ -8641,7 +8661,7 @@
       <c r="A99" t="s">
         <v>22</v>
       </c>
-      <c r="B99" t="s">
+      <c r="B99" s="2" t="s">
         <v>121</v>
       </c>
       <c r="C99">
@@ -8709,7 +8729,7 @@
       <c r="A100" t="s">
         <v>22</v>
       </c>
-      <c r="B100" t="s">
+      <c r="B100" s="2" t="s">
         <v>122</v>
       </c>
       <c r="C100">
@@ -8777,7 +8797,7 @@
       <c r="A101" t="s">
         <v>22</v>
       </c>
-      <c r="B101" t="s">
+      <c r="B101" s="2" t="s">
         <v>123</v>
       </c>
       <c r="C101">
@@ -8845,7 +8865,7 @@
       <c r="A102" t="s">
         <v>22</v>
       </c>
-      <c r="B102" t="s">
+      <c r="B102" s="2" t="s">
         <v>124</v>
       </c>
       <c r="C102">
@@ -8913,7 +8933,7 @@
       <c r="A103" t="s">
         <v>22</v>
       </c>
-      <c r="B103" t="s">
+      <c r="B103" s="2" t="s">
         <v>125</v>
       </c>
       <c r="C103">
@@ -8981,7 +9001,7 @@
       <c r="A104" t="s">
         <v>22</v>
       </c>
-      <c r="B104" t="s">
+      <c r="B104" s="2" t="s">
         <v>126</v>
       </c>
       <c r="C104">
@@ -9049,7 +9069,7 @@
       <c r="A105" t="s">
         <v>22</v>
       </c>
-      <c r="B105" t="s">
+      <c r="B105" s="2" t="s">
         <v>127</v>
       </c>
       <c r="C105">
@@ -9117,7 +9137,7 @@
       <c r="A106" t="s">
         <v>22</v>
       </c>
-      <c r="B106" t="s">
+      <c r="B106" s="2" t="s">
         <v>128</v>
       </c>
       <c r="C106">
@@ -9185,7 +9205,7 @@
       <c r="A107" t="s">
         <v>22</v>
       </c>
-      <c r="B107" t="s">
+      <c r="B107" s="2" t="s">
         <v>129</v>
       </c>
       <c r="C107">
@@ -9253,7 +9273,7 @@
       <c r="A108" t="s">
         <v>22</v>
       </c>
-      <c r="B108" t="s">
+      <c r="B108" s="2" t="s">
         <v>130</v>
       </c>
       <c r="C108">
@@ -9321,7 +9341,7 @@
       <c r="A109" t="s">
         <v>22</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B109" s="2" t="s">
         <v>131</v>
       </c>
       <c r="C109">
@@ -9389,7 +9409,7 @@
       <c r="A110" t="s">
         <v>22</v>
       </c>
-      <c r="B110" t="s">
+      <c r="B110" s="2" t="s">
         <v>132</v>
       </c>
       <c r="C110">
@@ -9457,7 +9477,7 @@
       <c r="A111" t="s">
         <v>22</v>
       </c>
-      <c r="B111" t="s">
+      <c r="B111" s="2" t="s">
         <v>133</v>
       </c>
       <c r="C111">
@@ -9525,7 +9545,7 @@
       <c r="A112" t="s">
         <v>22</v>
       </c>
-      <c r="B112" t="s">
+      <c r="B112" s="2" t="s">
         <v>134</v>
       </c>
       <c r="C112">
@@ -9593,7 +9613,7 @@
       <c r="A113" t="s">
         <v>22</v>
       </c>
-      <c r="B113" t="s">
+      <c r="B113" s="2" t="s">
         <v>135</v>
       </c>
       <c r="C113">
@@ -9661,7 +9681,7 @@
       <c r="A114" t="s">
         <v>22</v>
       </c>
-      <c r="B114" t="s">
+      <c r="B114" s="2" t="s">
         <v>136</v>
       </c>
       <c r="C114">
@@ -9729,7 +9749,7 @@
       <c r="A115" t="s">
         <v>22</v>
       </c>
-      <c r="B115" t="s">
+      <c r="B115" s="2" t="s">
         <v>137</v>
       </c>
       <c r="C115">
@@ -9797,7 +9817,7 @@
       <c r="A116" t="s">
         <v>22</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116" s="2" t="s">
         <v>138</v>
       </c>
       <c r="C116">
@@ -9865,7 +9885,7 @@
       <c r="A117" t="s">
         <v>22</v>
       </c>
-      <c r="B117" t="s">
+      <c r="B117" s="2" t="s">
         <v>139</v>
       </c>
       <c r="C117">
@@ -9933,7 +9953,7 @@
       <c r="A118" t="s">
         <v>22</v>
       </c>
-      <c r="B118" t="s">
+      <c r="B118" s="2" t="s">
         <v>140</v>
       </c>
       <c r="C118">
@@ -10001,7 +10021,7 @@
       <c r="A119" t="s">
         <v>22</v>
       </c>
-      <c r="B119" t="s">
+      <c r="B119" s="2" t="s">
         <v>141</v>
       </c>
       <c r="C119">
@@ -10069,7 +10089,7 @@
       <c r="A120" t="s">
         <v>22</v>
       </c>
-      <c r="B120" t="s">
+      <c r="B120" s="2" t="s">
         <v>142</v>
       </c>
       <c r="C120">
@@ -10137,7 +10157,7 @@
       <c r="A121" t="s">
         <v>22</v>
       </c>
-      <c r="B121" t="s">
+      <c r="B121" s="2" t="s">
         <v>143</v>
       </c>
       <c r="C121">
@@ -10205,7 +10225,7 @@
       <c r="A122" t="s">
         <v>22</v>
       </c>
-      <c r="B122" t="s">
+      <c r="B122" s="2" t="s">
         <v>144</v>
       </c>
       <c r="C122">
@@ -10273,7 +10293,7 @@
       <c r="A123" t="s">
         <v>22</v>
       </c>
-      <c r="B123" t="s">
+      <c r="B123" s="2" t="s">
         <v>145</v>
       </c>
       <c r="C123">
@@ -10341,7 +10361,7 @@
       <c r="A124" t="s">
         <v>22</v>
       </c>
-      <c r="B124" t="s">
+      <c r="B124" s="2" t="s">
         <v>146</v>
       </c>
       <c r="C124">
@@ -10409,7 +10429,7 @@
       <c r="A125" t="s">
         <v>22</v>
       </c>
-      <c r="B125" t="s">
+      <c r="B125" s="2" t="s">
         <v>147</v>
       </c>
       <c r="C125">
@@ -10477,7 +10497,7 @@
       <c r="A126" t="s">
         <v>22</v>
       </c>
-      <c r="B126" t="s">
+      <c r="B126" s="2" t="s">
         <v>148</v>
       </c>
       <c r="C126">
@@ -10545,7 +10565,7 @@
       <c r="A127" t="s">
         <v>22</v>
       </c>
-      <c r="B127" t="s">
+      <c r="B127" s="2" t="s">
         <v>149</v>
       </c>
       <c r="C127">
@@ -10613,7 +10633,7 @@
       <c r="A128" t="s">
         <v>22</v>
       </c>
-      <c r="B128" t="s">
+      <c r="B128" s="2" t="s">
         <v>150</v>
       </c>
       <c r="C128">
@@ -10681,7 +10701,7 @@
       <c r="A129" t="s">
         <v>22</v>
       </c>
-      <c r="B129" t="s">
+      <c r="B129" s="2" t="s">
         <v>151</v>
       </c>
       <c r="C129">
@@ -10749,7 +10769,7 @@
       <c r="A130" t="s">
         <v>22</v>
       </c>
-      <c r="B130" t="s">
+      <c r="B130" s="2" t="s">
         <v>152</v>
       </c>
       <c r="C130">
@@ -10817,7 +10837,7 @@
       <c r="A131" t="s">
         <v>22</v>
       </c>
-      <c r="B131" t="s">
+      <c r="B131" s="2" t="s">
         <v>153</v>
       </c>
       <c r="C131">
@@ -10885,7 +10905,7 @@
       <c r="A132" t="s">
         <v>22</v>
       </c>
-      <c r="B132" t="s">
+      <c r="B132" s="2" t="s">
         <v>154</v>
       </c>
       <c r="C132">
@@ -10953,7 +10973,7 @@
       <c r="A133" t="s">
         <v>22</v>
       </c>
-      <c r="B133" t="s">
+      <c r="B133" s="2" t="s">
         <v>155</v>
       </c>
       <c r="C133">
@@ -11021,7 +11041,7 @@
       <c r="A134" t="s">
         <v>22</v>
       </c>
-      <c r="B134" t="s">
+      <c r="B134" s="2" t="s">
         <v>156</v>
       </c>
       <c r="C134">
@@ -11089,7 +11109,7 @@
       <c r="A135" t="s">
         <v>22</v>
       </c>
-      <c r="B135" t="s">
+      <c r="B135" s="2" t="s">
         <v>157</v>
       </c>
       <c r="C135">
@@ -11157,7 +11177,7 @@
       <c r="A136" t="s">
         <v>22</v>
       </c>
-      <c r="B136" t="s">
+      <c r="B136" s="2" t="s">
         <v>158</v>
       </c>
       <c r="C136">
@@ -11225,7 +11245,7 @@
       <c r="A137" t="s">
         <v>22</v>
       </c>
-      <c r="B137" t="s">
+      <c r="B137" s="2" t="s">
         <v>159</v>
       </c>
       <c r="C137">
@@ -11293,7 +11313,7 @@
       <c r="A138" t="s">
         <v>22</v>
       </c>
-      <c r="B138" t="s">
+      <c r="B138" s="2" t="s">
         <v>160</v>
       </c>
       <c r="C138">
@@ -11361,7 +11381,7 @@
       <c r="A139" t="s">
         <v>22</v>
       </c>
-      <c r="B139" t="s">
+      <c r="B139" s="2" t="s">
         <v>161</v>
       </c>
       <c r="C139">
@@ -11429,7 +11449,7 @@
       <c r="A140" t="s">
         <v>22</v>
       </c>
-      <c r="B140" t="s">
+      <c r="B140" s="2" t="s">
         <v>162</v>
       </c>
       <c r="C140">
@@ -11497,7 +11517,7 @@
       <c r="A141" t="s">
         <v>22</v>
       </c>
-      <c r="B141" t="s">
+      <c r="B141" s="2" t="s">
         <v>163</v>
       </c>
       <c r="C141">
@@ -11565,7 +11585,7 @@
       <c r="A142" t="s">
         <v>22</v>
       </c>
-      <c r="B142" t="s">
+      <c r="B142" s="2" t="s">
         <v>164</v>
       </c>
       <c r="C142">
@@ -11633,7 +11653,7 @@
       <c r="A143" t="s">
         <v>22</v>
       </c>
-      <c r="B143" t="s">
+      <c r="B143" s="2" t="s">
         <v>165</v>
       </c>
       <c r="C143">
@@ -11701,7 +11721,7 @@
       <c r="A144" t="s">
         <v>22</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144" s="2" t="s">
         <v>166</v>
       </c>
       <c r="C144">
@@ -11769,7 +11789,7 @@
       <c r="A145" t="s">
         <v>22</v>
       </c>
-      <c r="B145" t="s">
+      <c r="B145" s="2" t="s">
         <v>167</v>
       </c>
       <c r="C145">
@@ -11837,7 +11857,7 @@
       <c r="A146" t="s">
         <v>22</v>
       </c>
-      <c r="B146" t="s">
+      <c r="B146" s="2" t="s">
         <v>168</v>
       </c>
       <c r="C146">
@@ -11905,7 +11925,7 @@
       <c r="A147" t="s">
         <v>22</v>
       </c>
-      <c r="B147" t="s">
+      <c r="B147" s="2" t="s">
         <v>169</v>
       </c>
       <c r="C147">
@@ -11973,7 +11993,7 @@
       <c r="A148" t="s">
         <v>22</v>
       </c>
-      <c r="B148" t="s">
+      <c r="B148" s="2" t="s">
         <v>170</v>
       </c>
       <c r="C148">
@@ -12041,7 +12061,7 @@
       <c r="A149" t="s">
         <v>22</v>
       </c>
-      <c r="B149" t="s">
+      <c r="B149" s="2" t="s">
         <v>171</v>
       </c>
       <c r="C149">
@@ -12109,7 +12129,7 @@
       <c r="A150" t="s">
         <v>22</v>
       </c>
-      <c r="B150" t="s">
+      <c r="B150" s="2" t="s">
         <v>172</v>
       </c>
       <c r="C150">
@@ -12177,7 +12197,7 @@
       <c r="A151" t="s">
         <v>22</v>
       </c>
-      <c r="B151" t="s">
+      <c r="B151" s="2" t="s">
         <v>173</v>
       </c>
       <c r="C151">
@@ -12245,7 +12265,7 @@
       <c r="A152" t="s">
         <v>22</v>
       </c>
-      <c r="B152" t="s">
+      <c r="B152" s="2" t="s">
         <v>174</v>
       </c>
       <c r="C152">
@@ -12313,7 +12333,7 @@
       <c r="A153" t="s">
         <v>22</v>
       </c>
-      <c r="B153" t="s">
+      <c r="B153" s="2" t="s">
         <v>175</v>
       </c>
       <c r="C153">
@@ -12381,7 +12401,7 @@
       <c r="A154" t="s">
         <v>22</v>
       </c>
-      <c r="B154" t="s">
+      <c r="B154" s="2" t="s">
         <v>176</v>
       </c>
       <c r="C154">
@@ -12449,7 +12469,7 @@
       <c r="A155" t="s">
         <v>22</v>
       </c>
-      <c r="B155" t="s">
+      <c r="B155" s="2" t="s">
         <v>177</v>
       </c>
       <c r="C155">
@@ -12517,7 +12537,7 @@
       <c r="A156" t="s">
         <v>22</v>
       </c>
-      <c r="B156" t="s">
+      <c r="B156" s="2" t="s">
         <v>178</v>
       </c>
       <c r="C156">
@@ -12585,7 +12605,7 @@
       <c r="A157" t="s">
         <v>22</v>
       </c>
-      <c r="B157" t="s">
+      <c r="B157" s="2" t="s">
         <v>179</v>
       </c>
       <c r="C157">
@@ -12653,7 +12673,7 @@
       <c r="A158" t="s">
         <v>22</v>
       </c>
-      <c r="B158" t="s">
+      <c r="B158" s="2" t="s">
         <v>180</v>
       </c>
       <c r="C158">
@@ -12721,7 +12741,7 @@
       <c r="A159" t="s">
         <v>22</v>
       </c>
-      <c r="B159" t="s">
+      <c r="B159" s="2" t="s">
         <v>181</v>
       </c>
       <c r="C159">
@@ -12789,7 +12809,7 @@
       <c r="A160" t="s">
         <v>22</v>
       </c>
-      <c r="B160" t="s">
+      <c r="B160" s="2" t="s">
         <v>182</v>
       </c>
       <c r="C160">
@@ -12857,7 +12877,7 @@
       <c r="A161" t="s">
         <v>22</v>
       </c>
-      <c r="B161" t="s">
+      <c r="B161" s="2" t="s">
         <v>183</v>
       </c>
       <c r="C161">
@@ -12925,7 +12945,7 @@
       <c r="A162" t="s">
         <v>22</v>
       </c>
-      <c r="B162" t="s">
+      <c r="B162" s="2" t="s">
         <v>184</v>
       </c>
       <c r="C162">
@@ -12993,7 +13013,7 @@
       <c r="A163" t="s">
         <v>22</v>
       </c>
-      <c r="B163" t="s">
+      <c r="B163" s="2" t="s">
         <v>185</v>
       </c>
       <c r="C163">
@@ -13061,7 +13081,7 @@
       <c r="A164" t="s">
         <v>22</v>
       </c>
-      <c r="B164" t="s">
+      <c r="B164" s="2" t="s">
         <v>186</v>
       </c>
       <c r="C164">
@@ -13129,7 +13149,7 @@
       <c r="A165" t="s">
         <v>22</v>
       </c>
-      <c r="B165" t="s">
+      <c r="B165" s="2" t="s">
         <v>187</v>
       </c>
       <c r="C165">
@@ -13197,7 +13217,7 @@
       <c r="A166" t="s">
         <v>22</v>
       </c>
-      <c r="B166" t="s">
+      <c r="B166" s="2" t="s">
         <v>188</v>
       </c>
       <c r="C166">
@@ -13265,7 +13285,7 @@
       <c r="A167" t="s">
         <v>22</v>
       </c>
-      <c r="B167" t="s">
+      <c r="B167" s="2" t="s">
         <v>189</v>
       </c>
       <c r="C167">
@@ -13333,7 +13353,7 @@
       <c r="A168" t="s">
         <v>22</v>
       </c>
-      <c r="B168" t="s">
+      <c r="B168" s="2" t="s">
         <v>190</v>
       </c>
       <c r="C168">
@@ -13401,7 +13421,7 @@
       <c r="A169" t="s">
         <v>22</v>
       </c>
-      <c r="B169" t="s">
+      <c r="B169" s="2" t="s">
         <v>191</v>
       </c>
       <c r="C169">
@@ -13469,7 +13489,7 @@
       <c r="A170" t="s">
         <v>23</v>
       </c>
-      <c r="B170" t="s">
+      <c r="B170" s="2" t="s">
         <v>192</v>
       </c>
       <c r="C170">
@@ -13492,13 +13512,34 @@
       </c>
       <c r="I170">
         <v>1.0193599999999999E-4</v>
+      </c>
+      <c r="J170">
+        <v>2858480</v>
+      </c>
+      <c r="K170">
+        <v>329</v>
+      </c>
+      <c r="L170">
+        <v>1.15096135E-4</v>
+      </c>
+      <c r="M170">
+        <v>1308333</v>
+      </c>
+      <c r="N170">
+        <v>128</v>
+      </c>
+      <c r="O170">
+        <v>9.7834419830000001E-5</v>
+      </c>
+      <c r="P170">
+        <v>1.064652774E-4</v>
       </c>
     </row>
     <row r="171" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
         <v>23</v>
       </c>
-      <c r="B171" t="s">
+      <c r="B171" s="2" t="s">
         <v>193</v>
       </c>
       <c r="C171">
@@ -13521,13 +13562,34 @@
       </c>
       <c r="I171">
         <v>2.11165E-4</v>
+      </c>
+      <c r="J171">
+        <v>2053288</v>
+      </c>
+      <c r="K171">
+        <v>503</v>
+      </c>
+      <c r="L171">
+        <v>2.4497294100000002E-4</v>
+      </c>
+      <c r="M171">
+        <v>1024299</v>
+      </c>
+      <c r="N171">
+        <v>241</v>
+      </c>
+      <c r="O171">
+        <v>2.352828617E-4</v>
+      </c>
+      <c r="P171">
+        <v>2.401279014E-4</v>
       </c>
     </row>
     <row r="172" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
         <v>23</v>
       </c>
-      <c r="B172" t="s">
+      <c r="B172" s="2" t="s">
         <v>194</v>
       </c>
       <c r="C172">
@@ -13550,13 +13612,34 @@
       </c>
       <c r="I172">
         <v>3.3463200000000002E-4</v>
+      </c>
+      <c r="J172">
+        <v>1586423</v>
+      </c>
+      <c r="K172">
+        <v>395</v>
+      </c>
+      <c r="L172">
+        <v>2.4898781719999999E-4</v>
+      </c>
+      <c r="M172">
+        <v>992247</v>
+      </c>
+      <c r="N172">
+        <v>431</v>
+      </c>
+      <c r="O172">
+        <v>4.3436765239999997E-4</v>
+      </c>
+      <c r="P172">
+        <v>3.4167773480000001E-4</v>
       </c>
     </row>
     <row r="173" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
         <v>23</v>
       </c>
-      <c r="B173" t="s">
+      <c r="B173" s="2" t="s">
         <v>195</v>
       </c>
       <c r="C173">
@@ -13579,13 +13662,34 @@
       </c>
       <c r="I173">
         <v>2.42012E-4</v>
+      </c>
+      <c r="J173">
+        <v>1748071</v>
+      </c>
+      <c r="K173">
+        <v>371</v>
+      </c>
+      <c r="L173">
+        <v>2.1223394240000001E-4</v>
+      </c>
+      <c r="M173">
+        <v>1028046</v>
+      </c>
+      <c r="N173">
+        <v>263</v>
+      </c>
+      <c r="O173">
+        <v>2.5582512839999999E-4</v>
+      </c>
+      <c r="P173">
+        <v>2.3402953539999999E-4</v>
       </c>
     </row>
     <row r="174" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
         <v>23</v>
       </c>
-      <c r="B174" t="s">
+      <c r="B174" s="2" t="s">
         <v>196</v>
       </c>
       <c r="C174">
@@ -13608,13 +13712,34 @@
       </c>
       <c r="I174">
         <v>1.9112E-4</v>
+      </c>
+      <c r="J174">
+        <v>1219499</v>
+      </c>
+      <c r="K174">
+        <v>292</v>
+      </c>
+      <c r="L174">
+        <v>2.3944259079999999E-4</v>
+      </c>
+      <c r="M174">
+        <v>834604</v>
+      </c>
+      <c r="N174">
+        <v>91</v>
+      </c>
+      <c r="O174">
+        <v>1.090337453E-4</v>
+      </c>
+      <c r="P174">
+        <v>1.7423816809999999E-4</v>
       </c>
     </row>
     <row r="175" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
         <v>23</v>
       </c>
-      <c r="B175" t="s">
+      <c r="B175" s="2" t="s">
         <v>197</v>
       </c>
       <c r="C175">
@@ -13637,13 +13762,34 @@
       </c>
       <c r="I175">
         <v>1.9737699999999999E-4</v>
+      </c>
+      <c r="J175">
+        <v>1676210</v>
+      </c>
+      <c r="K175">
+        <v>221</v>
+      </c>
+      <c r="L175">
+        <v>1.3184505519999999E-4</v>
+      </c>
+      <c r="M175">
+        <v>938163</v>
+      </c>
+      <c r="N175">
+        <v>310</v>
+      </c>
+      <c r="O175">
+        <v>3.3043298449999999E-4</v>
+      </c>
+      <c r="P175">
+        <v>2.3113901979999999E-4</v>
       </c>
     </row>
     <row r="176" spans="1:22" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
         <v>23</v>
       </c>
-      <c r="B176" t="s">
+      <c r="B176" s="2" t="s">
         <v>198</v>
       </c>
       <c r="C176">
@@ -13667,12 +13813,33 @@
       <c r="I176">
         <v>3.4077100000000002E-4</v>
       </c>
-    </row>
-    <row r="177" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J176">
+        <v>1456823</v>
+      </c>
+      <c r="K176">
+        <v>454</v>
+      </c>
+      <c r="L176">
+        <v>3.1163703479999998E-4</v>
+      </c>
+      <c r="M176">
+        <v>1171758</v>
+      </c>
+      <c r="N176">
+        <v>581</v>
+      </c>
+      <c r="O176">
+        <v>4.9583617090000003E-4</v>
+      </c>
+      <c r="P176">
+        <v>4.0373660290000002E-4</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
         <v>23</v>
       </c>
-      <c r="B177" t="s">
+      <c r="B177" s="2" t="s">
         <v>199</v>
       </c>
       <c r="C177">
@@ -13696,12 +13863,33 @@
       <c r="I177" s="1">
         <v>9.6472900000000003E-5</v>
       </c>
-    </row>
-    <row r="178" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J177">
+        <v>1001059</v>
+      </c>
+      <c r="K177">
+        <v>73</v>
+      </c>
+      <c r="L177">
+        <v>7.2922774779999994E-5</v>
+      </c>
+      <c r="M177">
+        <v>929336</v>
+      </c>
+      <c r="N177">
+        <v>80</v>
+      </c>
+      <c r="O177">
+        <v>8.6082966759999996E-5</v>
+      </c>
+      <c r="P177">
+        <v>7.9502870769999995E-5</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
         <v>23</v>
       </c>
-      <c r="B178" t="s">
+      <c r="B178" s="2" t="s">
         <v>200</v>
       </c>
       <c r="C178">
@@ -13725,12 +13913,33 @@
       <c r="I178">
         <v>2.4921200000000001E-4</v>
       </c>
-    </row>
-    <row r="179" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J178">
+        <v>1413566</v>
+      </c>
+      <c r="K178">
+        <v>299</v>
+      </c>
+      <c r="L178">
+        <v>2.1152178249999999E-4</v>
+      </c>
+      <c r="M178">
+        <v>960320</v>
+      </c>
+      <c r="N178">
+        <v>184</v>
+      </c>
+      <c r="O178">
+        <v>1.9160279910000001E-4</v>
+      </c>
+      <c r="P178">
+        <v>2.0156229080000001E-4</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
         <v>23</v>
       </c>
-      <c r="B179" t="s">
+      <c r="B179" s="2" t="s">
         <v>201</v>
       </c>
       <c r="C179">
@@ -13754,12 +13963,33 @@
       <c r="I179">
         <v>2.67042E-4</v>
       </c>
-    </row>
-    <row r="180" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J179">
+        <v>1203503</v>
+      </c>
+      <c r="K179">
+        <v>206</v>
+      </c>
+      <c r="L179">
+        <v>1.7116700169999999E-4</v>
+      </c>
+      <c r="M179">
+        <v>859597</v>
+      </c>
+      <c r="N179">
+        <v>264</v>
+      </c>
+      <c r="O179">
+        <v>3.071206624E-4</v>
+      </c>
+      <c r="P179">
+        <v>2.3914383199999999E-4</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
         <v>23</v>
       </c>
-      <c r="B180" t="s">
+      <c r="B180" s="2" t="s">
         <v>202</v>
       </c>
       <c r="C180">
@@ -13783,12 +14013,33 @@
       <c r="I180">
         <v>1.6382699999999999E-4</v>
       </c>
-    </row>
-    <row r="181" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J180">
+        <v>966299</v>
+      </c>
+      <c r="K180">
+        <v>174</v>
+      </c>
+      <c r="L180">
+        <v>1.800684881E-4</v>
+      </c>
+      <c r="M180">
+        <v>558654</v>
+      </c>
+      <c r="N180">
+        <v>109</v>
+      </c>
+      <c r="O180">
+        <v>1.9511182229999999E-4</v>
+      </c>
+      <c r="P180">
+        <v>1.875901552E-4</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
         <v>23</v>
       </c>
-      <c r="B181" t="s">
+      <c r="B181" s="2" t="s">
         <v>203</v>
       </c>
       <c r="C181">
@@ -13812,12 +14063,33 @@
       <c r="I181">
         <v>3.05118E-4</v>
       </c>
-    </row>
-    <row r="182" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J181">
+        <v>1733998</v>
+      </c>
+      <c r="K181">
+        <v>572</v>
+      </c>
+      <c r="L181">
+        <v>3.298735062E-4</v>
+      </c>
+      <c r="M181">
+        <v>1159576</v>
+      </c>
+      <c r="N181">
+        <v>331</v>
+      </c>
+      <c r="O181">
+        <v>2.8544916420000002E-4</v>
+      </c>
+      <c r="P181">
+        <v>3.0766133520000001E-4</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
         <v>23</v>
       </c>
-      <c r="B182" t="s">
+      <c r="B182" s="2" t="s">
         <v>204</v>
       </c>
       <c r="C182">
@@ -13841,12 +14113,33 @@
       <c r="I182">
         <v>1.3717300000000001E-4</v>
       </c>
-    </row>
-    <row r="183" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J182">
+        <v>1509011</v>
+      </c>
+      <c r="K182">
+        <v>182</v>
+      </c>
+      <c r="L182">
+        <v>1.206087961E-4</v>
+      </c>
+      <c r="M182">
+        <v>902847</v>
+      </c>
+      <c r="N182">
+        <v>110</v>
+      </c>
+      <c r="O182">
+        <v>1.218368118E-4</v>
+      </c>
+      <c r="P182">
+        <v>1.2122280389999999E-4</v>
+      </c>
+    </row>
+    <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
         <v>23</v>
       </c>
-      <c r="B183" t="s">
+      <c r="B183" s="2" t="s">
         <v>205</v>
       </c>
       <c r="C183">
@@ -13870,12 +14163,33 @@
       <c r="I183">
         <v>2.8784600000000002E-4</v>
       </c>
-    </row>
-    <row r="184" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J183">
+        <v>1727890</v>
+      </c>
+      <c r="K183">
+        <v>531</v>
+      </c>
+      <c r="L183">
+        <v>3.0731122929999999E-4</v>
+      </c>
+      <c r="M183">
+        <v>983157</v>
+      </c>
+      <c r="N183">
+        <v>250</v>
+      </c>
+      <c r="O183">
+        <v>2.5428288669999998E-4</v>
+      </c>
+      <c r="P183">
+        <v>2.8079705799999999E-4</v>
+      </c>
+    </row>
+    <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
         <v>23</v>
       </c>
-      <c r="B184" t="s">
+      <c r="B184" s="2" t="s">
         <v>206</v>
       </c>
       <c r="C184">
@@ -13899,12 +14213,33 @@
       <c r="I184">
         <v>2.0862499999999999E-4</v>
       </c>
-    </row>
-    <row r="185" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J184">
+        <v>1413290</v>
+      </c>
+      <c r="K184">
+        <v>291</v>
+      </c>
+      <c r="L184">
+        <v>2.0590253950000001E-4</v>
+      </c>
+      <c r="M184">
+        <v>881713</v>
+      </c>
+      <c r="N184">
+        <v>215</v>
+      </c>
+      <c r="O184">
+        <v>2.4384351819999999E-4</v>
+      </c>
+      <c r="P184">
+        <v>2.2487302889999999E-4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
         <v>23</v>
       </c>
-      <c r="B185" t="s">
+      <c r="B185" s="2" t="s">
         <v>207</v>
       </c>
       <c r="C185">
@@ -13928,12 +14263,33 @@
       <c r="I185">
         <v>2.30518E-4</v>
       </c>
-    </row>
-    <row r="186" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J185">
+        <v>1786637</v>
+      </c>
+      <c r="K185">
+        <v>348</v>
+      </c>
+      <c r="L185">
+        <v>1.9477935359999999E-4</v>
+      </c>
+      <c r="M185">
+        <v>1183619</v>
+      </c>
+      <c r="N185">
+        <v>360</v>
+      </c>
+      <c r="O185">
+        <v>3.0415192729999998E-4</v>
+      </c>
+      <c r="P185">
+        <v>2.4946564039999999E-4</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
         <v>23</v>
       </c>
-      <c r="B186" t="s">
+      <c r="B186" s="2" t="s">
         <v>208</v>
       </c>
       <c r="C186">
@@ -13957,12 +14313,33 @@
       <c r="I186">
         <v>1.4999699999999999E-4</v>
       </c>
-    </row>
-    <row r="187" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J186">
+        <v>1373014</v>
+      </c>
+      <c r="K186">
+        <v>240</v>
+      </c>
+      <c r="L186">
+        <v>1.747979263E-4</v>
+      </c>
+      <c r="M186">
+        <v>746843</v>
+      </c>
+      <c r="N186">
+        <v>91</v>
+      </c>
+      <c r="O186">
+        <v>1.2184622470000001E-4</v>
+      </c>
+      <c r="P186">
+        <v>1.4832207549999999E-4</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
         <v>23</v>
       </c>
-      <c r="B187" t="s">
+      <c r="B187" s="2" t="s">
         <v>209</v>
       </c>
       <c r="C187">
@@ -13986,12 +14363,33 @@
       <c r="I187">
         <v>2.7054800000000001E-4</v>
       </c>
-    </row>
-    <row r="188" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J187">
+        <v>1489545</v>
+      </c>
+      <c r="K187">
+        <v>513</v>
+      </c>
+      <c r="L187">
+        <v>3.4440047130000003E-4</v>
+      </c>
+      <c r="M187">
+        <v>1035336</v>
+      </c>
+      <c r="N187">
+        <v>268</v>
+      </c>
+      <c r="O187">
+        <v>2.5885316459999999E-4</v>
+      </c>
+      <c r="P187">
+        <v>3.0162681789999999E-4</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
         <v>23</v>
       </c>
-      <c r="B188" t="s">
+      <c r="B188" s="2" t="s">
         <v>210</v>
       </c>
       <c r="C188">
@@ -14015,12 +14413,33 @@
       <c r="I188">
         <v>2.7514599999999998E-4</v>
       </c>
-    </row>
-    <row r="189" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J188">
+        <v>1591751</v>
+      </c>
+      <c r="K188">
+        <v>464</v>
+      </c>
+      <c r="L188">
+        <v>2.9150287950000002E-4</v>
+      </c>
+      <c r="M188">
+        <v>1072040</v>
+      </c>
+      <c r="N188">
+        <v>313</v>
+      </c>
+      <c r="O188">
+        <v>2.9196671770000002E-4</v>
+      </c>
+      <c r="P188">
+        <v>2.9173479860000002E-4</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
         <v>23</v>
       </c>
-      <c r="B189" t="s">
+      <c r="B189" s="2" t="s">
         <v>211</v>
       </c>
       <c r="C189">
@@ -14044,12 +14463,33 @@
       <c r="I189">
         <v>1.6076999999999999E-4</v>
       </c>
-    </row>
-    <row r="190" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J189">
+        <v>770371</v>
+      </c>
+      <c r="K189">
+        <v>113</v>
+      </c>
+      <c r="L189">
+        <v>1.4668257239999999E-4</v>
+      </c>
+      <c r="M189">
+        <v>734256</v>
+      </c>
+      <c r="N189">
+        <v>132</v>
+      </c>
+      <c r="O189">
+        <v>1.7977381189999999E-4</v>
+      </c>
+      <c r="P189">
+        <v>1.6322819210000001E-4</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
         <v>23</v>
       </c>
-      <c r="B190" t="s">
+      <c r="B190" s="2" t="s">
         <v>212</v>
       </c>
       <c r="C190">
@@ -14073,12 +14513,33 @@
       <c r="I190">
         <v>2.1910899999999999E-4</v>
       </c>
-    </row>
-    <row r="191" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J190">
+        <v>1203552</v>
+      </c>
+      <c r="K190">
+        <v>280</v>
+      </c>
+      <c r="L190">
+        <v>2.3264470500000001E-4</v>
+      </c>
+      <c r="M190">
+        <v>1010748</v>
+      </c>
+      <c r="N190">
+        <v>159</v>
+      </c>
+      <c r="O190">
+        <v>1.5730924030000001E-4</v>
+      </c>
+      <c r="P190">
+        <v>1.9497697259999999E-4</v>
+      </c>
+    </row>
+    <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
         <v>23</v>
       </c>
-      <c r="B191" t="s">
+      <c r="B191" s="2" t="s">
         <v>213</v>
       </c>
       <c r="C191">
@@ -14102,12 +14563,33 @@
       <c r="I191">
         <v>2.2628700000000001E-4</v>
       </c>
-    </row>
-    <row r="192" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J191">
+        <v>1906693</v>
+      </c>
+      <c r="K191">
+        <v>510</v>
+      </c>
+      <c r="L191">
+        <v>2.6747882329999998E-4</v>
+      </c>
+      <c r="M191">
+        <v>1249844</v>
+      </c>
+      <c r="N191">
+        <v>329</v>
+      </c>
+      <c r="O191">
+        <v>2.6323285149999998E-4</v>
+      </c>
+      <c r="P191">
+        <v>2.6535583739999998E-4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
         <v>23</v>
       </c>
-      <c r="B192" t="s">
+      <c r="B192" s="2" t="s">
         <v>214</v>
       </c>
       <c r="C192">
@@ -14131,12 +14613,33 @@
       <c r="I192">
         <v>1.5688400000000001E-4</v>
       </c>
-    </row>
-    <row r="193" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J192">
+        <v>1882195</v>
+      </c>
+      <c r="K192">
+        <v>509</v>
+      </c>
+      <c r="L192">
+        <v>2.7042894070000001E-4</v>
+      </c>
+      <c r="M192">
+        <v>1271308</v>
+      </c>
+      <c r="N192">
+        <v>56</v>
+      </c>
+      <c r="O192">
+        <v>4.4049121060000001E-5</v>
+      </c>
+      <c r="P192">
+        <v>1.572390309E-4</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
         <v>23</v>
       </c>
-      <c r="B193" t="s">
+      <c r="B193" s="2" t="s">
         <v>215</v>
       </c>
       <c r="C193">
@@ -14160,12 +14663,33 @@
       <c r="I193">
         <v>2.3621800000000001E-4</v>
       </c>
-    </row>
-    <row r="194" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J193">
+        <v>1168234</v>
+      </c>
+      <c r="K193">
+        <v>308</v>
+      </c>
+      <c r="L193">
+        <v>2.6364581069999998E-4</v>
+      </c>
+      <c r="M193">
+        <v>1010769</v>
+      </c>
+      <c r="N193">
+        <v>194</v>
+      </c>
+      <c r="O193">
+        <v>1.919330727E-4</v>
+      </c>
+      <c r="P193">
+        <v>2.277894417E-4</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
         <v>23</v>
       </c>
-      <c r="B194" t="s">
+      <c r="B194" s="2" t="s">
         <v>216</v>
       </c>
       <c r="C194">
@@ -14189,12 +14713,33 @@
       <c r="I194">
         <v>1.3464099999999999E-4</v>
       </c>
-    </row>
-    <row r="195" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J194">
+        <v>1400978</v>
+      </c>
+      <c r="K194">
+        <v>199</v>
+      </c>
+      <c r="L194">
+        <v>1.4204362949999999E-4</v>
+      </c>
+      <c r="M194">
+        <v>954711</v>
+      </c>
+      <c r="N194">
+        <v>164</v>
+      </c>
+      <c r="O194">
+        <v>1.7177973229999999E-4</v>
+      </c>
+      <c r="P194">
+        <v>1.5691168089999999E-4</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
         <v>23</v>
       </c>
-      <c r="B195" t="s">
+      <c r="B195" s="2" t="s">
         <v>217</v>
       </c>
       <c r="C195">
@@ -14218,12 +14763,33 @@
       <c r="I195">
         <v>2.0178700000000001E-4</v>
       </c>
-    </row>
-    <row r="196" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J195">
+        <v>971704</v>
+      </c>
+      <c r="K195">
+        <v>290</v>
+      </c>
+      <c r="L195">
+        <v>2.9844479390000002E-4</v>
+      </c>
+      <c r="M195">
+        <v>852758</v>
+      </c>
+      <c r="N195">
+        <v>111</v>
+      </c>
+      <c r="O195">
+        <v>1.3016588529999999E-4</v>
+      </c>
+      <c r="P195">
+        <v>2.1430533960000001E-4</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
         <v>23</v>
       </c>
-      <c r="B196" t="s">
+      <c r="B196" s="2" t="s">
         <v>218</v>
       </c>
       <c r="C196">
@@ -14247,12 +14813,33 @@
       <c r="I196">
         <v>1.50696E-4</v>
       </c>
-    </row>
-    <row r="197" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J196">
+        <v>1291212</v>
+      </c>
+      <c r="K196">
+        <v>294</v>
+      </c>
+      <c r="L196">
+        <v>2.276930512E-4</v>
+      </c>
+      <c r="M196">
+        <v>980905</v>
+      </c>
+      <c r="N196">
+        <v>105</v>
+      </c>
+      <c r="O196">
+        <v>1.070440053E-4</v>
+      </c>
+      <c r="P196">
+        <v>1.673685282E-4</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
         <v>23</v>
       </c>
-      <c r="B197" t="s">
+      <c r="B197" s="2" t="s">
         <v>219</v>
       </c>
       <c r="C197">
@@ -14276,12 +14863,33 @@
       <c r="I197">
         <v>2.7271199999999999E-4</v>
       </c>
-    </row>
-    <row r="198" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J197">
+        <v>2210365</v>
+      </c>
+      <c r="K197">
+        <v>853</v>
+      </c>
+      <c r="L197">
+        <v>3.8590911459999999E-4</v>
+      </c>
+      <c r="M197">
+        <v>1323570</v>
+      </c>
+      <c r="N197">
+        <v>257</v>
+      </c>
+      <c r="O197">
+        <v>1.9417182320000001E-4</v>
+      </c>
+      <c r="P197">
+        <v>2.9004046890000003E-4</v>
+      </c>
+    </row>
+    <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
         <v>23</v>
       </c>
-      <c r="B198" t="s">
+      <c r="B198" s="2" t="s">
         <v>220</v>
       </c>
       <c r="C198">
@@ -14305,12 +14913,33 @@
       <c r="I198">
         <v>1.6887099999999999E-4</v>
       </c>
-    </row>
-    <row r="199" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J198">
+        <v>753223</v>
+      </c>
+      <c r="K198">
+        <v>155</v>
+      </c>
+      <c r="L198">
+        <v>2.057823513E-4</v>
+      </c>
+      <c r="M198">
+        <v>708899</v>
+      </c>
+      <c r="N198">
+        <v>76</v>
+      </c>
+      <c r="O198">
+        <v>1.072085022E-4</v>
+      </c>
+      <c r="P198">
+        <v>1.564954268E-4</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
         <v>23</v>
       </c>
-      <c r="B199" t="s">
+      <c r="B199" s="2" t="s">
         <v>221</v>
       </c>
       <c r="C199">
@@ -14334,12 +14963,33 @@
       <c r="I199">
         <v>2.3737899999999999E-4</v>
       </c>
-    </row>
-    <row r="200" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J199">
+        <v>873956</v>
+      </c>
+      <c r="K199">
+        <v>224</v>
+      </c>
+      <c r="L199">
+        <v>2.5630580940000001E-4</v>
+      </c>
+      <c r="M199">
+        <v>705636</v>
+      </c>
+      <c r="N199">
+        <v>131</v>
+      </c>
+      <c r="O199">
+        <v>1.856481245E-4</v>
+      </c>
+      <c r="P199">
+        <v>2.2097696699999999E-4</v>
+      </c>
+    </row>
+    <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
         <v>23</v>
       </c>
-      <c r="B200" t="s">
+      <c r="B200" s="2" t="s">
         <v>222</v>
       </c>
       <c r="C200">
@@ -14363,12 +15013,33 @@
       <c r="I200">
         <v>2.60122E-4</v>
       </c>
-    </row>
-    <row r="201" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J200">
+        <v>1941734</v>
+      </c>
+      <c r="K200">
+        <v>543</v>
+      </c>
+      <c r="L200">
+        <v>2.7964695469999998E-4</v>
+      </c>
+      <c r="M200">
+        <v>1232285</v>
+      </c>
+      <c r="N200">
+        <v>331</v>
+      </c>
+      <c r="O200">
+        <v>2.6860669409999998E-4</v>
+      </c>
+      <c r="P200">
+        <v>2.741268244E-4</v>
+      </c>
+    </row>
+    <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
         <v>23</v>
       </c>
-      <c r="B201" t="s">
+      <c r="B201" s="2" t="s">
         <v>223</v>
       </c>
       <c r="C201">
@@ -14392,12 +15063,33 @@
       <c r="I201">
         <v>2.2911900000000001E-4</v>
       </c>
-    </row>
-    <row r="202" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J201">
+        <v>1606226</v>
+      </c>
+      <c r="K201">
+        <v>381</v>
+      </c>
+      <c r="L201">
+        <v>2.3720198780000001E-4</v>
+      </c>
+      <c r="M201">
+        <v>1143975</v>
+      </c>
+      <c r="N201">
+        <v>305</v>
+      </c>
+      <c r="O201">
+        <v>2.6661421799999997E-4</v>
+      </c>
+      <c r="P201">
+        <v>2.519081029E-4</v>
+      </c>
+    </row>
+    <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
         <v>23</v>
       </c>
-      <c r="B202" t="s">
+      <c r="B202" s="2" t="s">
         <v>224</v>
       </c>
       <c r="C202">
@@ -14421,12 +15113,33 @@
       <c r="I202">
         <v>3.3796E-4</v>
       </c>
-    </row>
-    <row r="203" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J202">
+        <v>1713127</v>
+      </c>
+      <c r="K202">
+        <v>529</v>
+      </c>
+      <c r="L202">
+        <v>3.0879205100000002E-4</v>
+      </c>
+      <c r="M202">
+        <v>1051438</v>
+      </c>
+      <c r="N202">
+        <v>441</v>
+      </c>
+      <c r="O202">
+        <v>4.1942558670000001E-4</v>
+      </c>
+      <c r="P202">
+        <v>3.641088188E-4</v>
+      </c>
+    </row>
+    <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
         <v>23</v>
       </c>
-      <c r="B203" t="s">
+      <c r="B203" s="2" t="s">
         <v>225</v>
       </c>
       <c r="C203">
@@ -14450,12 +15163,33 @@
       <c r="I203">
         <v>1.87515E-4</v>
       </c>
-    </row>
-    <row r="204" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J203">
+        <v>1257894</v>
+      </c>
+      <c r="K203">
+        <v>230</v>
+      </c>
+      <c r="L203">
+        <v>1.8284529540000001E-4</v>
+      </c>
+      <c r="M203">
+        <v>974631</v>
+      </c>
+      <c r="N203">
+        <v>176</v>
+      </c>
+      <c r="O203">
+        <v>1.805811635E-4</v>
+      </c>
+      <c r="P203">
+        <v>1.8171322949999999E-4</v>
+      </c>
+    </row>
+    <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
         <v>23</v>
       </c>
-      <c r="B204" t="s">
+      <c r="B204" s="2" t="s">
         <v>226</v>
       </c>
       <c r="C204">
@@ -14479,12 +15213,33 @@
       <c r="I204">
         <v>1.96033E-4</v>
       </c>
-    </row>
-    <row r="205" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J204">
+        <v>1229627</v>
+      </c>
+      <c r="K204">
+        <v>406</v>
+      </c>
+      <c r="L204">
+        <v>3.30181429E-4</v>
+      </c>
+      <c r="M204">
+        <v>959336</v>
+      </c>
+      <c r="N204">
+        <v>121</v>
+      </c>
+      <c r="O204">
+        <v>1.2612890580000001E-4</v>
+      </c>
+      <c r="P204">
+        <v>2.2815516739999999E-4</v>
+      </c>
+    </row>
+    <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
         <v>23</v>
       </c>
-      <c r="B205" t="s">
+      <c r="B205" s="2" t="s">
         <v>227</v>
       </c>
       <c r="C205">
@@ -14508,12 +15263,33 @@
       <c r="I205">
         <v>2.11635E-4</v>
       </c>
-    </row>
-    <row r="206" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J205">
+        <v>1737686</v>
+      </c>
+      <c r="K205">
+        <v>452</v>
+      </c>
+      <c r="L205">
+        <v>2.6011603939999999E-4</v>
+      </c>
+      <c r="M205">
+        <v>1146473</v>
+      </c>
+      <c r="N205">
+        <v>228</v>
+      </c>
+      <c r="O205">
+        <v>1.9887079769999999E-4</v>
+      </c>
+      <c r="P205">
+        <v>2.294934185E-4</v>
+      </c>
+    </row>
+    <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
         <v>23</v>
       </c>
-      <c r="B206" t="s">
+      <c r="B206" s="2" t="s">
         <v>228</v>
       </c>
       <c r="C206">
@@ -14537,12 +15313,33 @@
       <c r="I206">
         <v>1.90094E-4</v>
       </c>
-    </row>
-    <row r="207" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J206">
+        <v>1546694</v>
+      </c>
+      <c r="K206">
+        <v>357</v>
+      </c>
+      <c r="L206">
+        <v>2.3081488650000001E-4</v>
+      </c>
+      <c r="M206">
+        <v>1226184</v>
+      </c>
+      <c r="N206">
+        <v>207</v>
+      </c>
+      <c r="O206">
+        <v>1.688164256E-4</v>
+      </c>
+      <c r="P206">
+        <v>1.99815656E-4</v>
+      </c>
+    </row>
+    <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
         <v>23</v>
       </c>
-      <c r="B207" t="s">
+      <c r="B207" s="2" t="s">
         <v>229</v>
       </c>
       <c r="C207">
@@ -14566,12 +15363,33 @@
       <c r="I207">
         <v>2.0179400000000001E-4</v>
       </c>
-    </row>
-    <row r="208" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J207">
+        <v>1701690</v>
+      </c>
+      <c r="K207">
+        <v>253</v>
+      </c>
+      <c r="L207">
+        <v>1.486757282E-4</v>
+      </c>
+      <c r="M207">
+        <v>1127894</v>
+      </c>
+      <c r="N207">
+        <v>320</v>
+      </c>
+      <c r="O207">
+        <v>2.8371460440000001E-4</v>
+      </c>
+      <c r="P207">
+        <v>2.161951663E-4</v>
+      </c>
+    </row>
+    <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
         <v>23</v>
       </c>
-      <c r="B208" t="s">
+      <c r="B208" s="2" t="s">
         <v>230</v>
       </c>
       <c r="C208">
@@ -14595,12 +15413,33 @@
       <c r="I208">
         <v>2.3212600000000001E-4</v>
       </c>
-    </row>
-    <row r="209" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J208">
+        <v>1237871</v>
+      </c>
+      <c r="K208">
+        <v>442</v>
+      </c>
+      <c r="L208">
+        <v>3.5706466989999998E-4</v>
+      </c>
+      <c r="M208">
+        <v>912784</v>
+      </c>
+      <c r="N208">
+        <v>169</v>
+      </c>
+      <c r="O208">
+        <v>1.851478554E-4</v>
+      </c>
+      <c r="P208">
+        <v>2.7110626259999998E-4</v>
+      </c>
+    </row>
+    <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
         <v>23</v>
       </c>
-      <c r="B209" t="s">
+      <c r="B209" s="2" t="s">
         <v>231</v>
       </c>
       <c r="C209">
@@ -14624,12 +15463,33 @@
       <c r="I209">
         <v>2.6054799999999999E-4</v>
       </c>
-    </row>
-    <row r="210" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J209">
+        <v>1969831</v>
+      </c>
+      <c r="K209">
+        <v>592</v>
+      </c>
+      <c r="L209">
+        <v>3.0053339600000001E-4</v>
+      </c>
+      <c r="M209">
+        <v>1325209</v>
+      </c>
+      <c r="N209">
+        <v>380</v>
+      </c>
+      <c r="O209">
+        <v>2.8674722249999999E-4</v>
+      </c>
+      <c r="P209">
+        <v>2.9364030930000001E-4</v>
+      </c>
+    </row>
+    <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
         <v>23</v>
       </c>
-      <c r="B210" t="s">
+      <c r="B210" s="2" t="s">
         <v>232</v>
       </c>
       <c r="C210">
@@ -14653,12 +15513,33 @@
       <c r="I210">
         <v>2.2065E-4</v>
       </c>
-    </row>
-    <row r="211" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J210">
+        <v>2193537</v>
+      </c>
+      <c r="K210">
+        <v>620</v>
+      </c>
+      <c r="L210">
+        <v>2.8264852610000003E-4</v>
+      </c>
+      <c r="M210">
+        <v>1182352</v>
+      </c>
+      <c r="N210">
+        <v>185</v>
+      </c>
+      <c r="O210">
+        <v>1.5646778619999999E-4</v>
+      </c>
+      <c r="P210">
+        <v>2.195581562E-4</v>
+      </c>
+    </row>
+    <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
         <v>23</v>
       </c>
-      <c r="B211" t="s">
+      <c r="B211" s="2" t="s">
         <v>233</v>
       </c>
       <c r="C211">
@@ -14682,12 +15563,33 @@
       <c r="I211">
         <v>2.26889E-4</v>
       </c>
-    </row>
-    <row r="212" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J211">
+        <v>2796397</v>
+      </c>
+      <c r="K211">
+        <v>636</v>
+      </c>
+      <c r="L211">
+        <v>2.2743551789999999E-4</v>
+      </c>
+      <c r="M211">
+        <v>1441685</v>
+      </c>
+      <c r="N211">
+        <v>283</v>
+      </c>
+      <c r="O211">
+        <v>1.9629808180000001E-4</v>
+      </c>
+      <c r="P211">
+        <v>2.118667998E-4</v>
+      </c>
+    </row>
+    <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
         <v>23</v>
       </c>
-      <c r="B212" t="s">
+      <c r="B212" s="2" t="s">
         <v>234</v>
       </c>
       <c r="C212">
@@ -14711,12 +15613,33 @@
       <c r="I212">
         <v>2.9409800000000002E-4</v>
       </c>
-    </row>
-    <row r="213" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J212">
+        <v>1799022</v>
+      </c>
+      <c r="K212">
+        <v>604</v>
+      </c>
+      <c r="L212">
+        <v>3.3573797319999999E-4</v>
+      </c>
+      <c r="M212">
+        <v>1026153</v>
+      </c>
+      <c r="N212">
+        <v>264</v>
+      </c>
+      <c r="O212">
+        <v>2.5727157650000002E-4</v>
+      </c>
+      <c r="P212">
+        <v>2.9650477479999999E-4</v>
+      </c>
+    </row>
+    <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
         <v>23</v>
       </c>
-      <c r="B213" t="s">
+      <c r="B213" s="2" t="s">
         <v>235</v>
       </c>
       <c r="C213">
@@ -14740,12 +15663,33 @@
       <c r="I213">
         <v>2.9743499999999997E-4</v>
       </c>
-    </row>
-    <row r="214" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J213">
+        <v>970134</v>
+      </c>
+      <c r="K213">
+        <v>371</v>
+      </c>
+      <c r="L213">
+        <v>3.8242139750000001E-4</v>
+      </c>
+      <c r="M213">
+        <v>891109</v>
+      </c>
+      <c r="N213">
+        <v>250</v>
+      </c>
+      <c r="O213">
+        <v>2.805492931E-4</v>
+      </c>
+      <c r="P213">
+        <v>3.3148534529999998E-4</v>
+      </c>
+    </row>
+    <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
         <v>23</v>
       </c>
-      <c r="B214" t="s">
+      <c r="B214" s="2" t="s">
         <v>236</v>
       </c>
       <c r="C214">
@@ -14769,12 +15713,33 @@
       <c r="I214">
         <v>1.82055E-4</v>
       </c>
-    </row>
-    <row r="215" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J214">
+        <v>1647187</v>
+      </c>
+      <c r="K214">
+        <v>347</v>
+      </c>
+      <c r="L214">
+        <v>2.1066217739999999E-4</v>
+      </c>
+      <c r="M214">
+        <v>1354453</v>
+      </c>
+      <c r="N214">
+        <v>216</v>
+      </c>
+      <c r="O214">
+        <v>1.5947397210000001E-4</v>
+      </c>
+      <c r="P214">
+        <v>1.850680748E-4</v>
+      </c>
+    </row>
+    <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
         <v>23</v>
       </c>
-      <c r="B215" t="s">
+      <c r="B215" s="2" t="s">
         <v>237</v>
       </c>
       <c r="C215">
@@ -14798,12 +15763,33 @@
       <c r="I215">
         <v>2.5909499999999999E-4</v>
       </c>
-    </row>
-    <row r="216" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J215">
+        <v>1688284</v>
+      </c>
+      <c r="K215">
+        <v>501</v>
+      </c>
+      <c r="L215">
+        <v>2.967510206E-4</v>
+      </c>
+      <c r="M215">
+        <v>1229469</v>
+      </c>
+      <c r="N215">
+        <v>295</v>
+      </c>
+      <c r="O215">
+        <v>2.399409827E-4</v>
+      </c>
+      <c r="P215">
+        <v>2.6834600160000001E-4</v>
+      </c>
+    </row>
+    <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
         <v>23</v>
       </c>
-      <c r="B216" t="s">
+      <c r="B216" s="2" t="s">
         <v>238</v>
       </c>
       <c r="C216">
@@ -14827,12 +15813,33 @@
       <c r="I216">
         <v>1.9224800000000001E-4</v>
       </c>
-    </row>
-    <row r="217" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J216">
+        <v>901563</v>
+      </c>
+      <c r="K216">
+        <v>183</v>
+      </c>
+      <c r="L216">
+        <v>2.0298082329999999E-4</v>
+      </c>
+      <c r="M216">
+        <v>802371</v>
+      </c>
+      <c r="N216">
+        <v>88</v>
+      </c>
+      <c r="O216">
+        <v>1.096749509E-4</v>
+      </c>
+      <c r="P216">
+        <v>1.5632788710000001E-4</v>
+      </c>
+    </row>
+    <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
         <v>23</v>
       </c>
-      <c r="B217" t="s">
+      <c r="B217" s="2" t="s">
         <v>239</v>
       </c>
       <c r="C217">
@@ -14856,12 +15863,33 @@
       <c r="I217">
         <v>1.5306200000000001E-4</v>
       </c>
-    </row>
-    <row r="218" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J217">
+        <v>1712906</v>
+      </c>
+      <c r="K217">
+        <v>317</v>
+      </c>
+      <c r="L217">
+        <v>1.8506561360000001E-4</v>
+      </c>
+      <c r="M217">
+        <v>1205998</v>
+      </c>
+      <c r="N217">
+        <v>137</v>
+      </c>
+      <c r="O217">
+        <v>1.135988617E-4</v>
+      </c>
+      <c r="P217">
+        <v>1.493322377E-4</v>
+      </c>
+    </row>
+    <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
         <v>23</v>
       </c>
-      <c r="B218" t="s">
+      <c r="B218" s="2" t="s">
         <v>240</v>
       </c>
       <c r="C218">
@@ -14885,12 +15913,33 @@
       <c r="I218">
         <v>2.4958700000000001E-4</v>
       </c>
-    </row>
-    <row r="219" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J218">
+        <v>2228801</v>
+      </c>
+      <c r="K218">
+        <v>447</v>
+      </c>
+      <c r="L218">
+        <v>2.005562632E-4</v>
+      </c>
+      <c r="M218">
+        <v>1489644</v>
+      </c>
+      <c r="N218">
+        <v>436</v>
+      </c>
+      <c r="O218">
+        <v>2.9268738030000001E-4</v>
+      </c>
+      <c r="P218">
+        <v>2.4662182179999999E-4</v>
+      </c>
+    </row>
+    <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
         <v>23</v>
       </c>
-      <c r="B219" t="s">
+      <c r="B219" s="2" t="s">
         <v>241</v>
       </c>
       <c r="C219">
@@ -14914,12 +15963,33 @@
       <c r="I219">
         <v>1.60605E-4</v>
       </c>
-    </row>
-    <row r="220" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J219">
+        <v>2088966</v>
+      </c>
+      <c r="K219">
+        <v>475</v>
+      </c>
+      <c r="L219">
+        <v>2.2738522309999999E-4</v>
+      </c>
+      <c r="M219">
+        <v>1445442</v>
+      </c>
+      <c r="N219">
+        <v>140</v>
+      </c>
+      <c r="O219">
+        <v>9.6856186549999998E-5</v>
+      </c>
+      <c r="P219">
+        <v>1.6212070479999999E-4</v>
+      </c>
+    </row>
+    <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
         <v>23</v>
       </c>
-      <c r="B220" t="s">
+      <c r="B220" s="2" t="s">
         <v>242</v>
       </c>
       <c r="C220">
@@ -14943,12 +16013,33 @@
       <c r="I220">
         <v>1.7081799999999999E-4</v>
       </c>
-    </row>
-    <row r="221" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J220">
+        <v>1688239</v>
+      </c>
+      <c r="K220">
+        <v>455</v>
+      </c>
+      <c r="L220">
+        <v>2.6951160349999998E-4</v>
+      </c>
+      <c r="M220">
+        <v>1075472</v>
+      </c>
+      <c r="N220">
+        <v>158</v>
+      </c>
+      <c r="O220">
+        <v>1.4691223950000001E-4</v>
+      </c>
+      <c r="P220">
+        <v>2.0821192150000001E-4</v>
+      </c>
+    </row>
+    <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
         <v>23</v>
       </c>
-      <c r="B221" t="s">
+      <c r="B221" s="2" t="s">
         <v>243</v>
       </c>
       <c r="C221">
@@ -14972,12 +16063,33 @@
       <c r="I221">
         <v>2.30032E-4</v>
       </c>
-    </row>
-    <row r="222" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J221">
+        <v>1438131</v>
+      </c>
+      <c r="K221">
+        <v>340</v>
+      </c>
+      <c r="L221">
+        <v>2.364179619E-4</v>
+      </c>
+      <c r="M221">
+        <v>1024438</v>
+      </c>
+      <c r="N221">
+        <v>248</v>
+      </c>
+      <c r="O221">
+        <v>2.4208395239999999E-4</v>
+      </c>
+      <c r="P221">
+        <v>2.3925095709999999E-4</v>
+      </c>
+    </row>
+    <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
         <v>23</v>
       </c>
-      <c r="B222" t="s">
+      <c r="B222" s="2" t="s">
         <v>244</v>
       </c>
       <c r="C222">
@@ -15001,12 +16113,33 @@
       <c r="I222">
         <v>2.5108800000000001E-4</v>
       </c>
-    </row>
-    <row r="223" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J222">
+        <v>2023614</v>
+      </c>
+      <c r="K222">
+        <v>465</v>
+      </c>
+      <c r="L222">
+        <v>2.2978690600000001E-4</v>
+      </c>
+      <c r="M222">
+        <v>1265750</v>
+      </c>
+      <c r="N222">
+        <v>374</v>
+      </c>
+      <c r="O222">
+        <v>2.954769899E-4</v>
+      </c>
+      <c r="P222">
+        <v>2.6263194799999999E-4</v>
+      </c>
+    </row>
+    <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
         <v>23</v>
       </c>
-      <c r="B223" t="s">
+      <c r="B223" s="2" t="s">
         <v>245</v>
       </c>
       <c r="C223">
@@ -15030,12 +16163,33 @@
       <c r="I223">
         <v>2.5541600000000001E-4</v>
       </c>
-    </row>
-    <row r="224" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J223">
+        <v>2207338</v>
+      </c>
+      <c r="K223">
+        <v>511</v>
+      </c>
+      <c r="L223">
+        <v>2.3150056770000001E-4</v>
+      </c>
+      <c r="M223">
+        <v>1341326</v>
+      </c>
+      <c r="N223">
+        <v>390</v>
+      </c>
+      <c r="O223">
+        <v>2.9075705679999997E-4</v>
+      </c>
+      <c r="P223">
+        <v>2.6112881219999997E-4</v>
+      </c>
+    </row>
+    <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
         <v>23</v>
       </c>
-      <c r="B224" t="s">
+      <c r="B224" s="2" t="s">
         <v>246</v>
       </c>
       <c r="C224">
@@ -15059,12 +16213,33 @@
       <c r="I224">
         <v>1.5861599999999999E-4</v>
       </c>
-    </row>
-    <row r="225" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J224">
+        <v>1354166</v>
+      </c>
+      <c r="K224">
+        <v>167</v>
+      </c>
+      <c r="L224">
+        <v>1.233231376E-4</v>
+      </c>
+      <c r="M224">
+        <v>840232</v>
+      </c>
+      <c r="N224">
+        <v>112</v>
+      </c>
+      <c r="O224">
+        <v>1.332965181E-4</v>
+      </c>
+      <c r="P224">
+        <v>1.283098279E-4</v>
+      </c>
+    </row>
+    <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
         <v>23</v>
       </c>
-      <c r="B225" t="s">
+      <c r="B225" s="2" t="s">
         <v>247</v>
       </c>
       <c r="C225">
@@ -15088,12 +16263,33 @@
       <c r="I225">
         <v>2.6331500000000002E-4</v>
       </c>
-    </row>
-    <row r="226" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J225">
+        <v>984107</v>
+      </c>
+      <c r="K225">
+        <v>299</v>
+      </c>
+      <c r="L225">
+        <v>3.0382875029999999E-4</v>
+      </c>
+      <c r="M225">
+        <v>808011</v>
+      </c>
+      <c r="N225">
+        <v>175</v>
+      </c>
+      <c r="O225">
+        <v>2.165812099E-4</v>
+      </c>
+      <c r="P225">
+        <v>2.6020498010000001E-4</v>
+      </c>
+    </row>
+    <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
         <v>23</v>
       </c>
-      <c r="B226" t="s">
+      <c r="B226" s="2" t="s">
         <v>248</v>
       </c>
       <c r="C226">
@@ -15117,12 +16313,33 @@
       <c r="I226">
         <v>1.8904600000000001E-4</v>
       </c>
-    </row>
-    <row r="227" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J226">
+        <v>2680554</v>
+      </c>
+      <c r="K226">
+        <v>537</v>
+      </c>
+      <c r="L226">
+        <v>2.003317225E-4</v>
+      </c>
+      <c r="M226">
+        <v>2100984</v>
+      </c>
+      <c r="N226">
+        <v>250</v>
+      </c>
+      <c r="O226">
+        <v>1.189918629E-4</v>
+      </c>
+      <c r="P226">
+        <v>1.596617927E-4</v>
+      </c>
+    </row>
+    <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
         <v>23</v>
       </c>
-      <c r="B227" t="s">
+      <c r="B227" s="2" t="s">
         <v>249</v>
       </c>
       <c r="C227">
@@ -15146,12 +16363,33 @@
       <c r="I227">
         <v>1.20363E-4</v>
       </c>
-    </row>
-    <row r="228" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J227">
+        <v>1335074</v>
+      </c>
+      <c r="K227">
+        <v>130</v>
+      </c>
+      <c r="L227">
+        <v>9.7372879709999998E-5</v>
+      </c>
+      <c r="M227">
+        <v>994212</v>
+      </c>
+      <c r="N227">
+        <v>119</v>
+      </c>
+      <c r="O227">
+        <v>1.196927818E-4</v>
+      </c>
+      <c r="P227">
+        <v>1.085328308E-4</v>
+      </c>
+    </row>
+    <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
         <v>23</v>
       </c>
-      <c r="B228" t="s">
+      <c r="B228" s="2" t="s">
         <v>250</v>
       </c>
       <c r="C228">
@@ -15175,12 +16413,33 @@
       <c r="I228">
         <v>2.7536299999999999E-4</v>
       </c>
-    </row>
-    <row r="229" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J228">
+        <v>1731028</v>
+      </c>
+      <c r="K228">
+        <v>686</v>
+      </c>
+      <c r="L228">
+        <v>3.9629630490000002E-4</v>
+      </c>
+      <c r="M228">
+        <v>1288505</v>
+      </c>
+      <c r="N228">
+        <v>219</v>
+      </c>
+      <c r="O228">
+        <v>1.6996441610000001E-4</v>
+      </c>
+      <c r="P228">
+        <v>2.831303605E-4</v>
+      </c>
+    </row>
+    <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
         <v>23</v>
       </c>
-      <c r="B229" t="s">
+      <c r="B229" s="2" t="s">
         <v>251</v>
       </c>
       <c r="C229">
@@ -15204,12 +16463,33 @@
       <c r="I229">
         <v>1.11761E-4</v>
       </c>
-    </row>
-    <row r="230" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J229">
+        <v>1641099</v>
+      </c>
+      <c r="K229">
+        <v>195</v>
+      </c>
+      <c r="L229">
+        <v>1.188228132E-4</v>
+      </c>
+      <c r="M229">
+        <v>1199005</v>
+      </c>
+      <c r="N229">
+        <v>131</v>
+      </c>
+      <c r="O229">
+        <v>1.092572591E-4</v>
+      </c>
+      <c r="P229">
+        <v>1.140400362E-4</v>
+      </c>
+    </row>
+    <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
         <v>23</v>
       </c>
-      <c r="B230" t="s">
+      <c r="B230" s="2" t="s">
         <v>252</v>
       </c>
       <c r="C230">
@@ -15233,12 +16513,33 @@
       <c r="I230">
         <v>1.92723E-4</v>
       </c>
-    </row>
-    <row r="231" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J230">
+        <v>2410929</v>
+      </c>
+      <c r="K230">
+        <v>562</v>
+      </c>
+      <c r="L230">
+        <v>2.3310516399999999E-4</v>
+      </c>
+      <c r="M230">
+        <v>1923891</v>
+      </c>
+      <c r="N230">
+        <v>160</v>
+      </c>
+      <c r="O230">
+        <v>8.3164794680000006E-5</v>
+      </c>
+      <c r="P230">
+        <v>1.581349794E-4</v>
+      </c>
+    </row>
+    <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
         <v>23</v>
       </c>
-      <c r="B231" t="s">
+      <c r="B231" s="2" t="s">
         <v>253</v>
       </c>
       <c r="C231">
@@ -15262,12 +16563,33 @@
       <c r="I231">
         <v>2.0797900000000001E-4</v>
       </c>
-    </row>
-    <row r="232" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J231">
+        <v>2490867</v>
+      </c>
+      <c r="K231">
+        <v>648</v>
+      </c>
+      <c r="L231">
+        <v>2.6015038140000002E-4</v>
+      </c>
+      <c r="M231">
+        <v>2013079</v>
+      </c>
+      <c r="N231">
+        <v>322</v>
+      </c>
+      <c r="O231">
+        <v>1.5995398090000001E-4</v>
+      </c>
+      <c r="P231">
+        <v>2.1005218120000001E-4</v>
+      </c>
+    </row>
+    <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
         <v>23</v>
       </c>
-      <c r="B232" t="s">
+      <c r="B232" s="2" t="s">
         <v>254</v>
       </c>
       <c r="C232">
@@ -15291,12 +16613,33 @@
       <c r="I232">
         <v>2.1436400000000001E-4</v>
       </c>
-    </row>
-    <row r="233" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J232">
+        <v>2598132</v>
+      </c>
+      <c r="K232">
+        <v>638</v>
+      </c>
+      <c r="L232">
+        <v>2.4556104149999999E-4</v>
+      </c>
+      <c r="M232">
+        <v>1646177</v>
+      </c>
+      <c r="N232">
+        <v>254</v>
+      </c>
+      <c r="O232">
+        <v>1.5429689520000001E-4</v>
+      </c>
+      <c r="P232">
+        <v>1.9992896839999999E-4</v>
+      </c>
+    </row>
+    <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
         <v>23</v>
       </c>
-      <c r="B233" t="s">
+      <c r="B233" s="2" t="s">
         <v>255</v>
       </c>
       <c r="C233">
@@ -15320,12 +16663,33 @@
       <c r="I233">
         <v>2.6040599999999997E-4</v>
       </c>
-    </row>
-    <row r="234" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J233">
+        <v>2715467</v>
+      </c>
+      <c r="K233">
+        <v>695</v>
+      </c>
+      <c r="L233">
+        <v>2.5594124329999997E-4</v>
+      </c>
+      <c r="M233">
+        <v>1496063</v>
+      </c>
+      <c r="N233">
+        <v>366</v>
+      </c>
+      <c r="O233">
+        <v>2.4464210400000001E-4</v>
+      </c>
+      <c r="P233">
+        <v>2.5029167359999998E-4</v>
+      </c>
+    </row>
+    <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
         <v>23</v>
       </c>
-      <c r="B234" t="s">
+      <c r="B234" s="2" t="s">
         <v>256</v>
       </c>
       <c r="C234">
@@ -15349,12 +16713,33 @@
       <c r="I234">
         <v>1.78419E-4</v>
       </c>
-    </row>
-    <row r="235" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J234">
+        <v>2443752</v>
+      </c>
+      <c r="K234">
+        <v>459</v>
+      </c>
+      <c r="L234">
+        <v>1.8782593319999999E-4</v>
+      </c>
+      <c r="M234">
+        <v>1535331</v>
+      </c>
+      <c r="N234">
+        <v>289</v>
+      </c>
+      <c r="O234">
+        <v>1.88233026E-4</v>
+      </c>
+      <c r="P234">
+        <v>1.880294796E-4</v>
+      </c>
+    </row>
+    <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
         <v>23</v>
       </c>
-      <c r="B235" t="s">
+      <c r="B235" s="2" t="s">
         <v>257</v>
       </c>
       <c r="C235">
@@ -15378,12 +16763,33 @@
       <c r="I235">
         <v>2.1227099999999999E-4</v>
       </c>
-    </row>
-    <row r="236" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J235">
+        <v>2928652</v>
+      </c>
+      <c r="K235">
+        <v>626</v>
+      </c>
+      <c r="L235">
+        <v>2.1375021680000001E-4</v>
+      </c>
+      <c r="M235">
+        <v>1598823</v>
+      </c>
+      <c r="N235">
+        <v>357</v>
+      </c>
+      <c r="O235">
+        <v>2.2328925720000001E-4</v>
+      </c>
+      <c r="P235">
+        <v>2.1851973700000001E-4</v>
+      </c>
+    </row>
+    <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
         <v>23</v>
       </c>
-      <c r="B236" t="s">
+      <c r="B236" s="2" t="s">
         <v>258</v>
       </c>
       <c r="C236">
@@ -15407,12 +16813,33 @@
       <c r="I236">
         <v>1.078E-4</v>
       </c>
-    </row>
-    <row r="237" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J236">
+        <v>1478094</v>
+      </c>
+      <c r="K236">
+        <v>162</v>
+      </c>
+      <c r="L236">
+        <v>1.096006073E-4</v>
+      </c>
+      <c r="M236">
+        <v>1154901</v>
+      </c>
+      <c r="N236">
+        <v>77</v>
+      </c>
+      <c r="O236">
+        <v>6.6672381440000003E-5</v>
+      </c>
+      <c r="P236">
+        <v>8.8136494359999996E-5</v>
+      </c>
+    </row>
+    <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
         <v>23</v>
       </c>
-      <c r="B237" t="s">
+      <c r="B237" s="2" t="s">
         <v>259</v>
       </c>
       <c r="C237">
@@ -15436,12 +16863,33 @@
       <c r="I237">
         <v>1.96386E-4</v>
       </c>
-    </row>
-    <row r="238" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J237">
+        <v>2878440</v>
+      </c>
+      <c r="K237">
+        <v>733</v>
+      </c>
+      <c r="L237">
+        <v>2.546518253E-4</v>
+      </c>
+      <c r="M237">
+        <v>1746496</v>
+      </c>
+      <c r="N237">
+        <v>246</v>
+      </c>
+      <c r="O237">
+        <v>1.4085345740000001E-4</v>
+      </c>
+      <c r="P237">
+        <v>1.9775264139999999E-4</v>
+      </c>
+    </row>
+    <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
         <v>23</v>
       </c>
-      <c r="B238" t="s">
+      <c r="B238" s="2" t="s">
         <v>260</v>
       </c>
       <c r="C238">
@@ -15465,12 +16913,33 @@
       <c r="I238">
         <v>1.99574E-4</v>
       </c>
-    </row>
-    <row r="239" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J238">
+        <v>2698830</v>
+      </c>
+      <c r="K238">
+        <v>712</v>
+      </c>
+      <c r="L238">
+        <v>2.6381802480000003E-4</v>
+      </c>
+      <c r="M238">
+        <v>1529291</v>
+      </c>
+      <c r="N238">
+        <v>213</v>
+      </c>
+      <c r="O238">
+        <v>1.3928022859999999E-4</v>
+      </c>
+      <c r="P238">
+        <v>2.015491267E-4</v>
+      </c>
+    </row>
+    <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
         <v>23</v>
       </c>
-      <c r="B239" t="s">
+      <c r="B239" s="2" t="s">
         <v>261</v>
       </c>
       <c r="C239">
@@ -15494,12 +16963,33 @@
       <c r="I239">
         <v>1.6349999999999999E-4</v>
       </c>
-    </row>
-    <row r="240" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J239">
+        <v>1896693</v>
+      </c>
+      <c r="K239">
+        <v>339</v>
+      </c>
+      <c r="L239">
+        <v>1.7873214060000001E-4</v>
+      </c>
+      <c r="M239">
+        <v>1302814</v>
+      </c>
+      <c r="N239">
+        <v>208</v>
+      </c>
+      <c r="O239">
+        <v>1.5965440960000001E-4</v>
+      </c>
+      <c r="P239">
+        <v>1.6919327510000001E-4</v>
+      </c>
+    </row>
+    <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
         <v>23</v>
       </c>
-      <c r="B240" t="s">
+      <c r="B240" s="2" t="s">
         <v>262</v>
       </c>
       <c r="C240">
@@ -15523,12 +17013,33 @@
       <c r="I240">
         <v>2.5765100000000002E-4</v>
       </c>
-    </row>
-    <row r="241" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J240">
+        <v>2593492</v>
+      </c>
+      <c r="K240">
+        <v>877</v>
+      </c>
+      <c r="L240">
+        <v>3.3815411810000001E-4</v>
+      </c>
+      <c r="M240">
+        <v>1401686</v>
+      </c>
+      <c r="N240">
+        <v>297</v>
+      </c>
+      <c r="O240">
+        <v>2.1188768380000001E-4</v>
+      </c>
+      <c r="P240">
+        <v>2.7502090099999998E-4</v>
+      </c>
+    </row>
+    <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
         <v>23</v>
       </c>
-      <c r="B241" t="s">
+      <c r="B241" s="2" t="s">
         <v>263</v>
       </c>
       <c r="C241">
@@ -15552,12 +17063,33 @@
       <c r="I241">
         <v>1.47198E-4</v>
       </c>
-    </row>
-    <row r="242" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J241">
+        <v>2391287</v>
+      </c>
+      <c r="K241">
+        <v>492</v>
+      </c>
+      <c r="L241">
+        <v>2.0574694709999999E-4</v>
+      </c>
+      <c r="M241">
+        <v>1439957</v>
+      </c>
+      <c r="N241">
+        <v>119</v>
+      </c>
+      <c r="O241">
+        <v>8.2641356650000003E-5</v>
+      </c>
+      <c r="P241">
+        <v>1.4419415190000001E-4</v>
+      </c>
+    </row>
+    <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
         <v>23</v>
       </c>
-      <c r="B242" t="s">
+      <c r="B242" s="2" t="s">
         <v>264</v>
       </c>
       <c r="C242">
@@ -15581,12 +17113,33 @@
       <c r="I242">
         <v>1.8195E-4</v>
       </c>
-    </row>
-    <row r="243" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J242">
+        <v>2755418</v>
+      </c>
+      <c r="K242">
+        <v>534</v>
+      </c>
+      <c r="L242">
+        <v>1.9379999700000001E-4</v>
+      </c>
+      <c r="M242">
+        <v>1637087</v>
+      </c>
+      <c r="N242">
+        <v>324</v>
+      </c>
+      <c r="O242">
+        <v>1.9791251170000001E-4</v>
+      </c>
+      <c r="P242">
+        <v>1.9585625430000001E-4</v>
+      </c>
+    </row>
+    <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
         <v>23</v>
       </c>
-      <c r="B243" t="s">
+      <c r="B243" s="2" t="s">
         <v>265</v>
       </c>
       <c r="C243">
@@ -15610,12 +17163,33 @@
       <c r="I243">
         <v>1.6305900000000001E-4</v>
       </c>
-    </row>
-    <row r="244" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J243">
+        <v>3101043</v>
+      </c>
+      <c r="K243">
+        <v>672</v>
+      </c>
+      <c r="L243">
+        <v>2.1670128410000001E-4</v>
+      </c>
+      <c r="M243">
+        <v>1627435</v>
+      </c>
+      <c r="N243">
+        <v>328</v>
+      </c>
+      <c r="O243">
+        <v>2.015441477E-4</v>
+      </c>
+      <c r="P243">
+        <v>2.0912271589999999E-4</v>
+      </c>
+    </row>
+    <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
         <v>23</v>
       </c>
-      <c r="B244" t="s">
+      <c r="B244" s="2" t="s">
         <v>266</v>
       </c>
       <c r="C244">
@@ -15639,12 +17213,33 @@
       <c r="I244">
         <v>1.7025499999999999E-4</v>
       </c>
-    </row>
-    <row r="245" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J244">
+        <v>2782986</v>
+      </c>
+      <c r="K244">
+        <v>685</v>
+      </c>
+      <c r="L244">
+        <v>2.4613850019999998E-4</v>
+      </c>
+      <c r="M244">
+        <v>1686898</v>
+      </c>
+      <c r="N244">
+        <v>314</v>
+      </c>
+      <c r="O244">
+        <v>1.8614047799999999E-4</v>
+      </c>
+      <c r="P244">
+        <v>2.1613948909999999E-4</v>
+      </c>
+    </row>
+    <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
         <v>23</v>
       </c>
-      <c r="B245" t="s">
+      <c r="B245" s="2" t="s">
         <v>267</v>
       </c>
       <c r="C245">
@@ -15668,12 +17263,33 @@
       <c r="I245">
         <v>1.39269E-4</v>
       </c>
-    </row>
-    <row r="246" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J245">
+        <v>2357720</v>
+      </c>
+      <c r="K245">
+        <v>455</v>
+      </c>
+      <c r="L245">
+        <v>1.9298305140000001E-4</v>
+      </c>
+      <c r="M245">
+        <v>1537638</v>
+      </c>
+      <c r="N245">
+        <v>256</v>
+      </c>
+      <c r="O245">
+        <v>1.6648912160000001E-4</v>
+      </c>
+      <c r="P245">
+        <v>1.7973608650000001E-4</v>
+      </c>
+    </row>
+    <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
         <v>23</v>
       </c>
-      <c r="B246" t="s">
+      <c r="B246" s="2" t="s">
         <v>268</v>
       </c>
       <c r="C246">
@@ -15697,12 +17313,33 @@
       <c r="I246">
         <v>1.69185E-4</v>
       </c>
-    </row>
-    <row r="247" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J246">
+        <v>2763499</v>
+      </c>
+      <c r="K246">
+        <v>632</v>
+      </c>
+      <c r="L246">
+        <v>2.2869557760000001E-4</v>
+      </c>
+      <c r="M246">
+        <v>1584060</v>
+      </c>
+      <c r="N246">
+        <v>232</v>
+      </c>
+      <c r="O246">
+        <v>1.4645909879999999E-4</v>
+      </c>
+      <c r="P246">
+        <v>1.8757733820000001E-4</v>
+      </c>
+    </row>
+    <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
         <v>23</v>
       </c>
-      <c r="B247" t="s">
+      <c r="B247" s="2" t="s">
         <v>269</v>
       </c>
       <c r="C247">
@@ -15726,12 +17363,33 @@
       <c r="I247">
         <v>1.6511E-4</v>
       </c>
-    </row>
-    <row r="248" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J247">
+        <v>2120073</v>
+      </c>
+      <c r="K247">
+        <v>375</v>
+      </c>
+      <c r="L247">
+        <v>1.768807017E-4</v>
+      </c>
+      <c r="M247">
+        <v>1494975</v>
+      </c>
+      <c r="N247">
+        <v>253</v>
+      </c>
+      <c r="O247">
+        <v>1.692335992E-4</v>
+      </c>
+      <c r="P247">
+        <v>1.730571505E-4</v>
+      </c>
+    </row>
+    <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
         <v>23</v>
       </c>
-      <c r="B248" t="s">
+      <c r="B248" s="2" t="s">
         <v>270</v>
       </c>
       <c r="C248">
@@ -15755,12 +17413,33 @@
       <c r="I248">
         <v>2.2059299999999999E-4</v>
       </c>
-    </row>
-    <row r="249" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J248">
+        <v>2111363</v>
+      </c>
+      <c r="K248">
+        <v>473</v>
+      </c>
+      <c r="L248">
+        <v>2.240259018E-4</v>
+      </c>
+      <c r="M248">
+        <v>1564432</v>
+      </c>
+      <c r="N248">
+        <v>346</v>
+      </c>
+      <c r="O248">
+        <v>2.2116653200000001E-4</v>
+      </c>
+      <c r="P248">
+        <v>2.225962169E-4</v>
+      </c>
+    </row>
+    <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
         <v>23</v>
       </c>
-      <c r="B249" t="s">
+      <c r="B249" s="2" t="s">
         <v>271</v>
       </c>
       <c r="C249">
@@ -15784,12 +17463,33 @@
       <c r="I249">
         <v>1.7890899999999999E-4</v>
       </c>
-    </row>
-    <row r="250" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J249">
+        <v>2363614</v>
+      </c>
+      <c r="K249">
+        <v>599</v>
+      </c>
+      <c r="L249">
+        <v>2.534254747E-4</v>
+      </c>
+      <c r="M249">
+        <v>1543451</v>
+      </c>
+      <c r="N249">
+        <v>210</v>
+      </c>
+      <c r="O249">
+        <v>1.3605874109999999E-4</v>
+      </c>
+      <c r="P249">
+        <v>1.947421079E-4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
         <v>23</v>
       </c>
-      <c r="B250" t="s">
+      <c r="B250" s="2" t="s">
         <v>272</v>
       </c>
       <c r="C250">
@@ -15813,12 +17513,33 @@
       <c r="I250">
         <v>1.56797E-4</v>
       </c>
-    </row>
-    <row r="251" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J250">
+        <v>2929024</v>
+      </c>
+      <c r="K250">
+        <v>606</v>
+      </c>
+      <c r="L250">
+        <v>2.0689485639999999E-4</v>
+      </c>
+      <c r="M250">
+        <v>2002959</v>
+      </c>
+      <c r="N250">
+        <v>308</v>
+      </c>
+      <c r="O250">
+        <v>1.537724936E-4</v>
+      </c>
+      <c r="P250">
+        <v>1.8033367500000001E-4</v>
+      </c>
+    </row>
+    <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
         <v>23</v>
       </c>
-      <c r="B251" t="s">
+      <c r="B251" s="2" t="s">
         <v>273</v>
       </c>
       <c r="C251">
@@ -15842,12 +17563,33 @@
       <c r="I251">
         <v>1.4861299999999999E-4</v>
       </c>
-    </row>
-    <row r="252" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J251">
+        <v>2879939</v>
+      </c>
+      <c r="K251">
+        <v>636</v>
+      </c>
+      <c r="L251">
+        <v>2.208380108E-4</v>
+      </c>
+      <c r="M251">
+        <v>1442693</v>
+      </c>
+      <c r="N251">
+        <v>307</v>
+      </c>
+      <c r="O251">
+        <v>2.127964855E-4</v>
+      </c>
+      <c r="P251">
+        <v>2.168172481E-4</v>
+      </c>
+    </row>
+    <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
         <v>23</v>
       </c>
-      <c r="B252" t="s">
+      <c r="B252" s="2" t="s">
         <v>274</v>
       </c>
       <c r="C252">
@@ -15871,12 +17613,33 @@
       <c r="I252">
         <v>1.9966299999999999E-4</v>
       </c>
-    </row>
-    <row r="253" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J252">
+        <v>2780226</v>
+      </c>
+      <c r="K252">
+        <v>654</v>
+      </c>
+      <c r="L252">
+        <v>2.3523267529999999E-4</v>
+      </c>
+      <c r="M252">
+        <v>1507427</v>
+      </c>
+      <c r="N252">
+        <v>353</v>
+      </c>
+      <c r="O252">
+        <v>2.3417386050000001E-4</v>
+      </c>
+      <c r="P252">
+        <v>2.3470326789999999E-4</v>
+      </c>
+    </row>
+    <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
         <v>23</v>
       </c>
-      <c r="B253" t="s">
+      <c r="B253" s="2" t="s">
         <v>275</v>
       </c>
       <c r="C253">
@@ -15900,12 +17663,33 @@
       <c r="I253">
         <v>2.1868500000000001E-4</v>
       </c>
-    </row>
-    <row r="254" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J253">
+        <v>2559797</v>
+      </c>
+      <c r="K253">
+        <v>669</v>
+      </c>
+      <c r="L253">
+        <v>2.6134884910000001E-4</v>
+      </c>
+      <c r="M253">
+        <v>1639768</v>
+      </c>
+      <c r="N253">
+        <v>403</v>
+      </c>
+      <c r="O253">
+        <v>2.4576647430000001E-4</v>
+      </c>
+      <c r="P253">
+        <v>2.5355766169999998E-4</v>
+      </c>
+    </row>
+    <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
         <v>23</v>
       </c>
-      <c r="B254" t="s">
+      <c r="B254" s="2" t="s">
         <v>276</v>
       </c>
       <c r="C254">
@@ -15929,12 +17713,33 @@
       <c r="I254">
         <v>1.86116E-4</v>
       </c>
-    </row>
-    <row r="255" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J254">
+        <v>2131462</v>
+      </c>
+      <c r="K254">
+        <v>509</v>
+      </c>
+      <c r="L254">
+        <v>2.388032252E-4</v>
+      </c>
+      <c r="M254">
+        <v>1417107</v>
+      </c>
+      <c r="N254">
+        <v>217</v>
+      </c>
+      <c r="O254">
+        <v>1.5312887449999999E-4</v>
+      </c>
+      <c r="P254">
+        <v>1.9596604990000001E-4</v>
+      </c>
+    </row>
+    <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
         <v>23</v>
       </c>
-      <c r="B255" t="s">
+      <c r="B255" s="2" t="s">
         <v>277</v>
       </c>
       <c r="C255">
@@ -15958,12 +17763,33 @@
       <c r="I255">
         <v>1.50531E-4</v>
       </c>
-    </row>
-    <row r="256" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J255">
+        <v>2527898</v>
+      </c>
+      <c r="K255">
+        <v>494</v>
+      </c>
+      <c r="L255">
+        <v>1.9541927719999999E-4</v>
+      </c>
+      <c r="M255">
+        <v>1592125</v>
+      </c>
+      <c r="N255">
+        <v>285</v>
+      </c>
+      <c r="O255">
+        <v>1.790060454E-4</v>
+      </c>
+      <c r="P255">
+        <v>1.872126613E-4</v>
+      </c>
+    </row>
+    <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
         <v>23</v>
       </c>
-      <c r="B256" t="s">
+      <c r="B256" s="2" t="s">
         <v>278</v>
       </c>
       <c r="C256">
@@ -15987,12 +17813,33 @@
       <c r="I256">
         <v>1.86801E-4</v>
       </c>
-    </row>
-    <row r="257" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J256">
+        <v>2098642</v>
+      </c>
+      <c r="K256">
+        <v>406</v>
+      </c>
+      <c r="L256">
+        <v>1.9345843649999999E-4</v>
+      </c>
+      <c r="M256">
+        <v>1446222</v>
+      </c>
+      <c r="N256">
+        <v>266</v>
+      </c>
+      <c r="O256">
+        <v>1.8392750209999999E-4</v>
+      </c>
+      <c r="P256">
+        <v>1.8869296930000001E-4</v>
+      </c>
+    </row>
+    <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
         <v>23</v>
       </c>
-      <c r="B257" t="s">
+      <c r="B257" s="2" t="s">
         <v>279</v>
       </c>
       <c r="C257">
@@ -16016,12 +17863,33 @@
       <c r="I257">
         <v>2.65328E-4</v>
       </c>
-    </row>
-    <row r="258" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J257">
+        <v>1836085</v>
+      </c>
+      <c r="K257">
+        <v>471</v>
+      </c>
+      <c r="L257">
+        <v>2.5652407160000002E-4</v>
+      </c>
+      <c r="M257">
+        <v>1081542</v>
+      </c>
+      <c r="N257">
+        <v>309</v>
+      </c>
+      <c r="O257">
+        <v>2.8570319040000002E-4</v>
+      </c>
+      <c r="P257">
+        <v>2.7111363099999999E-4</v>
+      </c>
+    </row>
+    <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
         <v>23</v>
       </c>
-      <c r="B258" t="s">
+      <c r="B258" s="2" t="s">
         <v>280</v>
       </c>
       <c r="C258">
@@ -16045,12 +17913,33 @@
       <c r="I258">
         <v>1.2435300000000001E-4</v>
       </c>
-    </row>
-    <row r="259" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J258">
+        <v>2220855</v>
+      </c>
+      <c r="K258">
+        <v>395</v>
+      </c>
+      <c r="L258">
+        <v>1.7785942799999999E-4</v>
+      </c>
+      <c r="M258">
+        <v>1285975</v>
+      </c>
+      <c r="N258">
+        <v>115</v>
+      </c>
+      <c r="O258">
+        <v>8.9426310779999995E-5</v>
+      </c>
+      <c r="P258">
+        <v>1.336428694E-4</v>
+      </c>
+    </row>
+    <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
         <v>23</v>
       </c>
-      <c r="B259" t="s">
+      <c r="B259" s="2" t="s">
         <v>281</v>
       </c>
       <c r="C259">
@@ -16074,12 +17963,33 @@
       <c r="I259">
         <v>2.1535400000000001E-4</v>
       </c>
-    </row>
-    <row r="260" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J259">
+        <v>2187051</v>
+      </c>
+      <c r="K259">
+        <v>619</v>
+      </c>
+      <c r="L259">
+        <v>2.8302952240000001E-4</v>
+      </c>
+      <c r="M259">
+        <v>1306292</v>
+      </c>
+      <c r="N259">
+        <v>231</v>
+      </c>
+      <c r="O259">
+        <v>1.7683641940000001E-4</v>
+      </c>
+      <c r="P259">
+        <v>2.2993297090000001E-4</v>
+      </c>
+    </row>
+    <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
         <v>23</v>
       </c>
-      <c r="B260" t="s">
+      <c r="B260" s="2" t="s">
         <v>282</v>
       </c>
       <c r="C260">
@@ -16103,12 +18013,33 @@
       <c r="I260">
         <v>2.5154300000000001E-4</v>
       </c>
-    </row>
-    <row r="261" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J260">
+        <v>2255207</v>
+      </c>
+      <c r="K260">
+        <v>595</v>
+      </c>
+      <c r="L260">
+        <v>2.6383387419999998E-4</v>
+      </c>
+      <c r="M260">
+        <v>1333133</v>
+      </c>
+      <c r="N260">
+        <v>299</v>
+      </c>
+      <c r="O260">
+        <v>2.2428369860000001E-4</v>
+      </c>
+      <c r="P260">
+        <v>2.4405878640000001E-4</v>
+      </c>
+    </row>
+    <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
         <v>23</v>
       </c>
-      <c r="B261" t="s">
+      <c r="B261" s="2" t="s">
         <v>283</v>
       </c>
       <c r="C261">
@@ -16132,12 +18063,33 @@
       <c r="I261">
         <v>2.0871400000000001E-4</v>
       </c>
-    </row>
-    <row r="262" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J261">
+        <v>2367081</v>
+      </c>
+      <c r="K261">
+        <v>656</v>
+      </c>
+      <c r="L261">
+        <v>2.7713458050000002E-4</v>
+      </c>
+      <c r="M261">
+        <v>1335311</v>
+      </c>
+      <c r="N261">
+        <v>213</v>
+      </c>
+      <c r="O261">
+        <v>1.5951340169999999E-4</v>
+      </c>
+      <c r="P261">
+        <v>2.1832399110000001E-4</v>
+      </c>
+    </row>
+    <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
         <v>23</v>
       </c>
-      <c r="B262" t="s">
+      <c r="B262" s="2" t="s">
         <v>284</v>
       </c>
       <c r="C262">
@@ -16161,12 +18113,33 @@
       <c r="I262">
         <v>1.98617E-4</v>
       </c>
-    </row>
-    <row r="263" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J262">
+        <v>2335539</v>
+      </c>
+      <c r="K262">
+        <v>405</v>
+      </c>
+      <c r="L262">
+        <v>1.7340750890000001E-4</v>
+      </c>
+      <c r="M262">
+        <v>1347595</v>
+      </c>
+      <c r="N262">
+        <v>366</v>
+      </c>
+      <c r="O262">
+        <v>2.7159495249999999E-4</v>
+      </c>
+      <c r="P262">
+        <v>2.2250123069999999E-4</v>
+      </c>
+    </row>
+    <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
         <v>23</v>
       </c>
-      <c r="B263" t="s">
+      <c r="B263" s="2" t="s">
         <v>285</v>
       </c>
       <c r="C263">
@@ -16190,12 +18163,33 @@
       <c r="I263">
         <v>1.62454E-4</v>
       </c>
-    </row>
-    <row r="264" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J263">
+        <v>2654669</v>
+      </c>
+      <c r="K263">
+        <v>548</v>
+      </c>
+      <c r="L263">
+        <v>2.0642874870000001E-4</v>
+      </c>
+      <c r="M263">
+        <v>1668690</v>
+      </c>
+      <c r="N263">
+        <v>236</v>
+      </c>
+      <c r="O263">
+        <v>1.41428306E-4</v>
+      </c>
+      <c r="P263">
+        <v>1.7392852740000001E-4</v>
+      </c>
+    </row>
+    <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
         <v>23</v>
       </c>
-      <c r="B264" t="s">
+      <c r="B264" s="2" t="s">
         <v>286</v>
       </c>
       <c r="C264">
@@ -16219,12 +18213,33 @@
       <c r="I264">
         <v>2.32833E-4</v>
       </c>
-    </row>
-    <row r="265" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J264">
+        <v>2764658</v>
+      </c>
+      <c r="K264">
+        <v>790</v>
+      </c>
+      <c r="L264">
+        <v>2.8574962979999998E-4</v>
+      </c>
+      <c r="M264">
+        <v>1630395</v>
+      </c>
+      <c r="N264">
+        <v>412</v>
+      </c>
+      <c r="O264">
+        <v>2.5269949920000002E-4</v>
+      </c>
+      <c r="P264">
+        <v>2.692245645E-4</v>
+      </c>
+    </row>
+    <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
         <v>23</v>
       </c>
-      <c r="B265" t="s">
+      <c r="B265" s="2" t="s">
         <v>287</v>
       </c>
       <c r="C265">
@@ -16248,12 +18263,33 @@
       <c r="I265">
         <v>2.2123600000000001E-4</v>
       </c>
-    </row>
-    <row r="266" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J265">
+        <v>1969489</v>
+      </c>
+      <c r="K265">
+        <v>606</v>
+      </c>
+      <c r="L265">
+        <v>3.0769402620000003E-4</v>
+      </c>
+      <c r="M265">
+        <v>1280794</v>
+      </c>
+      <c r="N265">
+        <v>189</v>
+      </c>
+      <c r="O265">
+        <v>1.475647138E-4</v>
+      </c>
+      <c r="P265">
+        <v>2.2762937000000001E-4</v>
+      </c>
+    </row>
+    <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
         <v>23</v>
       </c>
-      <c r="B266" t="s">
+      <c r="B266" s="2" t="s">
         <v>288</v>
       </c>
       <c r="C266">
@@ -16277,12 +18313,33 @@
       <c r="I266">
         <v>1.75613E-4</v>
       </c>
-    </row>
-    <row r="267" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J266">
+        <v>2664846</v>
+      </c>
+      <c r="K266">
+        <v>549</v>
+      </c>
+      <c r="L266">
+        <v>2.060156572E-4</v>
+      </c>
+      <c r="M266">
+        <v>1650796</v>
+      </c>
+      <c r="N266">
+        <v>275</v>
+      </c>
+      <c r="O266">
+        <v>1.6658630139999999E-4</v>
+      </c>
+      <c r="P266">
+        <v>1.8630097930000001E-4</v>
+      </c>
+    </row>
+    <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
         <v>23</v>
       </c>
-      <c r="B267" t="s">
+      <c r="B267" s="2" t="s">
         <v>289</v>
       </c>
       <c r="C267">
@@ -16306,12 +18363,33 @@
       <c r="I267">
         <v>1.60583E-4</v>
       </c>
-    </row>
-    <row r="268" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J267">
+        <v>2654013</v>
+      </c>
+      <c r="K267">
+        <v>497</v>
+      </c>
+      <c r="L267">
+        <v>1.872635891E-4</v>
+      </c>
+      <c r="M267">
+        <v>1586372</v>
+      </c>
+      <c r="N267">
+        <v>217</v>
+      </c>
+      <c r="O267">
+        <v>1.3679010980000001E-4</v>
+      </c>
+      <c r="P267">
+        <v>1.620268494E-4</v>
+      </c>
+    </row>
+    <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
         <v>23</v>
       </c>
-      <c r="B268" t="s">
+      <c r="B268" s="2" t="s">
         <v>290</v>
       </c>
       <c r="C268">
@@ -16335,12 +18413,33 @@
       <c r="I268">
         <v>2.1986400000000001E-4</v>
       </c>
-    </row>
-    <row r="269" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J268">
+        <v>1586940</v>
+      </c>
+      <c r="K268">
+        <v>353</v>
+      </c>
+      <c r="L268">
+        <v>2.2244067199999999E-4</v>
+      </c>
+      <c r="M268">
+        <v>1032618</v>
+      </c>
+      <c r="N268">
+        <v>237</v>
+      </c>
+      <c r="O268">
+        <v>2.2951372139999999E-4</v>
+      </c>
+      <c r="P268">
+        <v>2.2597719669999999E-4</v>
+      </c>
+    </row>
+    <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
         <v>23</v>
       </c>
-      <c r="B269" t="s">
+      <c r="B269" s="2" t="s">
         <v>291</v>
       </c>
       <c r="C269">
@@ -16364,12 +18463,33 @@
       <c r="I269">
         <v>2.7231100000000002E-4</v>
       </c>
-    </row>
-    <row r="270" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J269">
+        <v>2036454</v>
+      </c>
+      <c r="K269">
+        <v>658</v>
+      </c>
+      <c r="L269">
+        <v>3.23110662E-4</v>
+      </c>
+      <c r="M269">
+        <v>1293563</v>
+      </c>
+      <c r="N269">
+        <v>350</v>
+      </c>
+      <c r="O269">
+        <v>2.705705095E-4</v>
+      </c>
+      <c r="P269">
+        <v>2.9684058569999999E-4</v>
+      </c>
+    </row>
+    <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
         <v>23</v>
       </c>
-      <c r="B270" t="s">
+      <c r="B270" s="2" t="s">
         <v>292</v>
       </c>
       <c r="C270">
@@ -16393,12 +18513,33 @@
       <c r="I270">
         <v>1.73492E-4</v>
       </c>
-    </row>
-    <row r="271" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J270">
+        <v>2863152</v>
+      </c>
+      <c r="K270">
+        <v>579</v>
+      </c>
+      <c r="L270">
+        <v>2.022246811E-4</v>
+      </c>
+      <c r="M270">
+        <v>1642106</v>
+      </c>
+      <c r="N270">
+        <v>349</v>
+      </c>
+      <c r="O270">
+        <v>2.1253195590000001E-4</v>
+      </c>
+      <c r="P270">
+        <v>2.0737831850000001E-4</v>
+      </c>
+    </row>
+    <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
         <v>23</v>
       </c>
-      <c r="B271" t="s">
+      <c r="B271" s="2" t="s">
         <v>293</v>
       </c>
       <c r="C271">
@@ -16422,12 +18563,33 @@
       <c r="I271">
         <v>2.14782E-4</v>
       </c>
-    </row>
-    <row r="272" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J271">
+        <v>1463117</v>
+      </c>
+      <c r="K271">
+        <v>431</v>
+      </c>
+      <c r="L271">
+        <v>2.945765786E-4</v>
+      </c>
+      <c r="M271">
+        <v>1126815</v>
+      </c>
+      <c r="N271">
+        <v>187</v>
+      </c>
+      <c r="O271">
+        <v>1.6595448229999999E-4</v>
+      </c>
+      <c r="P271">
+        <v>2.302655305E-4</v>
+      </c>
+    </row>
+    <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
         <v>23</v>
       </c>
-      <c r="B272" t="s">
+      <c r="B272" s="2" t="s">
         <v>294</v>
       </c>
       <c r="C272">
@@ -16451,12 +18613,33 @@
       <c r="I272">
         <v>3.0894800000000002E-4</v>
       </c>
-    </row>
-    <row r="273" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J272">
+        <v>1935271</v>
+      </c>
+      <c r="K272">
+        <v>604</v>
+      </c>
+      <c r="L272">
+        <v>3.1210099260000002E-4</v>
+      </c>
+      <c r="M272">
+        <v>1288918</v>
+      </c>
+      <c r="N272">
+        <v>364</v>
+      </c>
+      <c r="O272">
+        <v>2.8240741459999998E-4</v>
+      </c>
+      <c r="P272">
+        <v>2.9725420359999997E-4</v>
+      </c>
+    </row>
+    <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
         <v>23</v>
       </c>
-      <c r="B273" t="s">
+      <c r="B273" s="2" t="s">
         <v>295</v>
       </c>
       <c r="C273">
@@ -16480,12 +18663,33 @@
       <c r="I273">
         <v>1.8798400000000001E-4</v>
       </c>
-    </row>
-    <row r="274" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J273">
+        <v>2888588</v>
+      </c>
+      <c r="K273">
+        <v>579</v>
+      </c>
+      <c r="L273">
+        <v>2.004439539E-4</v>
+      </c>
+      <c r="M273">
+        <v>1643010</v>
+      </c>
+      <c r="N273">
+        <v>309</v>
+      </c>
+      <c r="O273">
+        <v>1.880694579E-4</v>
+      </c>
+      <c r="P273">
+        <v>1.9425670590000001E-4</v>
+      </c>
+    </row>
+    <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
         <v>23</v>
       </c>
-      <c r="B274" t="s">
+      <c r="B274" s="2" t="s">
         <v>296</v>
       </c>
       <c r="C274">
@@ -16509,12 +18713,33 @@
       <c r="I274">
         <v>1.3726600000000001E-4</v>
       </c>
-    </row>
-    <row r="275" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J274">
+        <v>2644939</v>
+      </c>
+      <c r="K274">
+        <v>447</v>
+      </c>
+      <c r="L274">
+        <v>1.690020072E-4</v>
+      </c>
+      <c r="M274">
+        <v>1606884</v>
+      </c>
+      <c r="N274">
+        <v>143</v>
+      </c>
+      <c r="O274">
+        <v>8.899211144E-5</v>
+      </c>
+      <c r="P274">
+        <v>1.2899705929999999E-4</v>
+      </c>
+    </row>
+    <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
         <v>23</v>
       </c>
-      <c r="B275" t="s">
+      <c r="B275" s="2" t="s">
         <v>297</v>
       </c>
       <c r="C275">
@@ -16538,12 +18763,33 @@
       <c r="I275">
         <v>2.0083300000000001E-4</v>
       </c>
-    </row>
-    <row r="276" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J275">
+        <v>2673698</v>
+      </c>
+      <c r="K275">
+        <v>403</v>
+      </c>
+      <c r="L275">
+        <v>1.507275691E-4</v>
+      </c>
+      <c r="M275">
+        <v>1490595</v>
+      </c>
+      <c r="N275">
+        <v>352</v>
+      </c>
+      <c r="O275">
+        <v>2.361473103E-4</v>
+      </c>
+      <c r="P275">
+        <v>1.9343743969999999E-4</v>
+      </c>
+    </row>
+    <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
         <v>23</v>
       </c>
-      <c r="B276" t="s">
+      <c r="B276" s="2" t="s">
         <v>298</v>
       </c>
       <c r="C276">
@@ -16567,12 +18813,33 @@
       <c r="I276">
         <v>1.9262700000000001E-4</v>
       </c>
-    </row>
-    <row r="277" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J276">
+        <v>2224653</v>
+      </c>
+      <c r="K276">
+        <v>477</v>
+      </c>
+      <c r="L276">
+        <v>2.144154616E-4</v>
+      </c>
+      <c r="M276">
+        <v>1200056</v>
+      </c>
+      <c r="N276">
+        <v>254</v>
+      </c>
+      <c r="O276">
+        <v>2.1165678929999999E-4</v>
+      </c>
+      <c r="P276">
+        <v>2.1303612550000001E-4</v>
+      </c>
+    </row>
+    <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
         <v>23</v>
       </c>
-      <c r="B277" t="s">
+      <c r="B277" s="2" t="s">
         <v>299</v>
       </c>
       <c r="C277">
@@ -16596,12 +18863,33 @@
       <c r="I277">
         <v>2.4935799999999998E-4</v>
       </c>
-    </row>
-    <row r="278" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J277">
+        <v>2381683</v>
+      </c>
+      <c r="K277">
+        <v>644</v>
+      </c>
+      <c r="L277">
+        <v>2.7039702600000002E-4</v>
+      </c>
+      <c r="M277">
+        <v>1547019</v>
+      </c>
+      <c r="N277">
+        <v>198</v>
+      </c>
+      <c r="O277">
+        <v>1.2798808550000001E-4</v>
+      </c>
+      <c r="P277">
+        <v>1.9919255570000001E-4</v>
+      </c>
+    </row>
+    <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
         <v>23</v>
       </c>
-      <c r="B278" t="s">
+      <c r="B278" s="2" t="s">
         <v>300</v>
       </c>
       <c r="C278">
@@ -16625,12 +18913,33 @@
       <c r="I278">
         <v>1.8330700000000001E-4</v>
       </c>
-    </row>
-    <row r="279" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J278">
+        <v>2264934</v>
+      </c>
+      <c r="K278">
+        <v>591</v>
+      </c>
+      <c r="L278">
+        <v>2.6093475570000002E-4</v>
+      </c>
+      <c r="M278">
+        <v>1393335</v>
+      </c>
+      <c r="N278">
+        <v>170</v>
+      </c>
+      <c r="O278">
+        <v>1.220094234E-4</v>
+      </c>
+      <c r="P278">
+        <v>1.9147208960000001E-4</v>
+      </c>
+    </row>
+    <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
         <v>23</v>
       </c>
-      <c r="B279" t="s">
+      <c r="B279" s="2" t="s">
         <v>301</v>
       </c>
       <c r="C279">
@@ -16654,12 +18963,33 @@
       <c r="I279">
         <v>2.2438800000000001E-4</v>
       </c>
-    </row>
-    <row r="280" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J279">
+        <v>1654943</v>
+      </c>
+      <c r="K279">
+        <v>462</v>
+      </c>
+      <c r="L279">
+        <v>2.7916369330000001E-4</v>
+      </c>
+      <c r="M279">
+        <v>1016849</v>
+      </c>
+      <c r="N279">
+        <v>180</v>
+      </c>
+      <c r="O279">
+        <v>1.7701743330000001E-4</v>
+      </c>
+      <c r="P279">
+        <v>2.2809056330000001E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
         <v>23</v>
       </c>
-      <c r="B280" t="s">
+      <c r="B280" s="2" t="s">
         <v>302</v>
       </c>
       <c r="C280">
@@ -16683,12 +19013,33 @@
       <c r="I280">
         <v>3.0393800000000002E-4</v>
       </c>
-    </row>
-    <row r="281" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J280">
+        <v>2456939</v>
+      </c>
+      <c r="K280">
+        <v>794</v>
+      </c>
+      <c r="L280">
+        <v>3.231663464E-4</v>
+      </c>
+      <c r="M280">
+        <v>1242163</v>
+      </c>
+      <c r="N280">
+        <v>479</v>
+      </c>
+      <c r="O280">
+        <v>3.8561766849999998E-4</v>
+      </c>
+      <c r="P280">
+        <v>3.543920075E-4</v>
+      </c>
+    </row>
+    <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
         <v>23</v>
       </c>
-      <c r="B281" t="s">
+      <c r="B281" s="2" t="s">
         <v>303</v>
       </c>
       <c r="C281">
@@ -16712,12 +19063,33 @@
       <c r="I281">
         <v>1.84057E-4</v>
       </c>
-    </row>
-    <row r="282" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J281">
+        <v>2043901</v>
+      </c>
+      <c r="K281">
+        <v>412</v>
+      </c>
+      <c r="L281">
+        <v>2.0157532089999999E-4</v>
+      </c>
+      <c r="M281">
+        <v>1424814</v>
+      </c>
+      <c r="N281">
+        <v>261</v>
+      </c>
+      <c r="O281">
+        <v>1.8318180480000001E-4</v>
+      </c>
+      <c r="P281">
+        <v>1.9237856289999999E-4</v>
+      </c>
+    </row>
+    <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
         <v>23</v>
       </c>
-      <c r="B282" t="s">
+      <c r="B282" s="2" t="s">
         <v>304</v>
       </c>
       <c r="C282">
@@ -16741,12 +19113,33 @@
       <c r="I282">
         <v>1.9123E-4</v>
       </c>
-    </row>
-    <row r="283" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J282">
+        <v>2722461</v>
+      </c>
+      <c r="K282">
+        <v>519</v>
+      </c>
+      <c r="L282">
+        <v>1.906363397E-4</v>
+      </c>
+      <c r="M282">
+        <v>1411947</v>
+      </c>
+      <c r="N282">
+        <v>327</v>
+      </c>
+      <c r="O282">
+        <v>2.3159509530000001E-4</v>
+      </c>
+      <c r="P282">
+        <v>2.1111571750000001E-4</v>
+      </c>
+    </row>
+    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
         <v>23</v>
       </c>
-      <c r="B283" t="s">
+      <c r="B283" s="2" t="s">
         <v>305</v>
       </c>
       <c r="C283">
@@ -16770,12 +19163,33 @@
       <c r="I283">
         <v>3.00687E-4</v>
       </c>
-    </row>
-    <row r="284" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J283">
+        <v>2613129</v>
+      </c>
+      <c r="K283">
+        <v>826</v>
+      </c>
+      <c r="L283">
+        <v>3.1609614370000001E-4</v>
+      </c>
+      <c r="M283">
+        <v>1381911</v>
+      </c>
+      <c r="N283">
+        <v>503</v>
+      </c>
+      <c r="O283">
+        <v>3.639887084E-4</v>
+      </c>
+      <c r="P283">
+        <v>3.4004242609999999E-4</v>
+      </c>
+    </row>
+    <row r="284" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
         <v>23</v>
       </c>
-      <c r="B284" t="s">
+      <c r="B284" s="2" t="s">
         <v>306</v>
       </c>
       <c r="C284">
@@ -16799,12 +19213,33 @@
       <c r="I284">
         <v>2.7530300000000002E-4</v>
       </c>
-    </row>
-    <row r="285" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J284">
+        <v>2462458</v>
+      </c>
+      <c r="K284">
+        <v>795</v>
+      </c>
+      <c r="L284">
+        <v>3.22848146E-4</v>
+      </c>
+      <c r="M284">
+        <v>1320306</v>
+      </c>
+      <c r="N284">
+        <v>356</v>
+      </c>
+      <c r="O284">
+        <v>2.6963446349999998E-4</v>
+      </c>
+      <c r="P284">
+        <v>2.962413048E-4</v>
+      </c>
+    </row>
+    <row r="285" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
         <v>23</v>
       </c>
-      <c r="B285" t="s">
+      <c r="B285" s="2" t="s">
         <v>307</v>
       </c>
       <c r="C285">
@@ -16828,12 +19263,33 @@
       <c r="I285">
         <v>2.38822E-4</v>
       </c>
-    </row>
-    <row r="286" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J285">
+        <v>2580414</v>
+      </c>
+      <c r="K285">
+        <v>682</v>
+      </c>
+      <c r="L285">
+        <v>2.6429867459999999E-4</v>
+      </c>
+      <c r="M285">
+        <v>1289928</v>
+      </c>
+      <c r="N285">
+        <v>340</v>
+      </c>
+      <c r="O285">
+        <v>2.6358060290000002E-4</v>
+      </c>
+      <c r="P285">
+        <v>2.6393963880000002E-4</v>
+      </c>
+    </row>
+    <row r="286" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
         <v>23</v>
       </c>
-      <c r="B286" t="s">
+      <c r="B286" s="2" t="s">
         <v>308</v>
       </c>
       <c r="C286">
@@ -16857,12 +19313,33 @@
       <c r="I286">
         <v>2.17658E-4</v>
       </c>
-    </row>
-    <row r="287" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J286">
+        <v>2208887</v>
+      </c>
+      <c r="K286">
+        <v>554</v>
+      </c>
+      <c r="L286">
+        <v>2.5080504340000001E-4</v>
+      </c>
+      <c r="M286">
+        <v>1234842</v>
+      </c>
+      <c r="N286">
+        <v>273</v>
+      </c>
+      <c r="O286">
+        <v>2.210809156E-4</v>
+      </c>
+      <c r="P286">
+        <v>2.3594297949999999E-4</v>
+      </c>
+    </row>
+    <row r="287" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
         <v>23</v>
       </c>
-      <c r="B287" t="s">
+      <c r="B287" s="2" t="s">
         <v>309</v>
       </c>
       <c r="C287">
@@ -16886,12 +19363,33 @@
       <c r="I287">
         <v>2.3798499999999999E-4</v>
       </c>
-    </row>
-    <row r="288" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J287">
+        <v>2717421</v>
+      </c>
+      <c r="K287">
+        <v>719</v>
+      </c>
+      <c r="L287">
+        <v>2.645891086E-4</v>
+      </c>
+      <c r="M287">
+        <v>1432846</v>
+      </c>
+      <c r="N287">
+        <v>388</v>
+      </c>
+      <c r="O287">
+        <v>2.7078974289999999E-4</v>
+      </c>
+      <c r="P287">
+        <v>2.6768942580000001E-4</v>
+      </c>
+    </row>
+    <row r="288" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
         <v>23</v>
       </c>
-      <c r="B288" t="s">
+      <c r="B288" s="2" t="s">
         <v>310</v>
       </c>
       <c r="C288">
@@ -16915,12 +19413,33 @@
       <c r="I288">
         <v>1.4212299999999999E-4</v>
       </c>
-    </row>
-    <row r="289" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J288">
+        <v>2259815</v>
+      </c>
+      <c r="K288">
+        <v>417</v>
+      </c>
+      <c r="L288">
+        <v>1.8452837949999999E-4</v>
+      </c>
+      <c r="M288">
+        <v>1355532</v>
+      </c>
+      <c r="N288">
+        <v>245</v>
+      </c>
+      <c r="O288">
+        <v>1.807408457E-4</v>
+      </c>
+      <c r="P288">
+        <v>1.8263461260000001E-4</v>
+      </c>
+    </row>
+    <row r="289" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
         <v>23</v>
       </c>
-      <c r="B289" t="s">
+      <c r="B289" s="2" t="s">
         <v>311</v>
       </c>
       <c r="C289">
@@ -16944,12 +19463,33 @@
       <c r="I289">
         <v>3.1253500000000002E-4</v>
       </c>
-    </row>
-    <row r="290" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J289">
+        <v>1013570</v>
+      </c>
+      <c r="K289">
+        <v>311</v>
+      </c>
+      <c r="L289">
+        <v>3.0683623229999998E-4</v>
+      </c>
+      <c r="M289">
+        <v>715038</v>
+      </c>
+      <c r="N289">
+        <v>294</v>
+      </c>
+      <c r="O289">
+        <v>4.1116695899999999E-4</v>
+      </c>
+      <c r="P289">
+        <v>3.590015956E-4</v>
+      </c>
+    </row>
+    <row r="290" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
         <v>23</v>
       </c>
-      <c r="B290" t="s">
+      <c r="B290" s="2" t="s">
         <v>312</v>
       </c>
       <c r="C290">
@@ -16973,12 +19513,33 @@
       <c r="I290">
         <v>2.0861299999999999E-4</v>
       </c>
-    </row>
-    <row r="291" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J290">
+        <v>1386637</v>
+      </c>
+      <c r="K290">
+        <v>307</v>
+      </c>
+      <c r="L290">
+        <v>2.2139896739999999E-4</v>
+      </c>
+      <c r="M290">
+        <v>1037569</v>
+      </c>
+      <c r="N290">
+        <v>201</v>
+      </c>
+      <c r="O290">
+        <v>1.9372205610000001E-4</v>
+      </c>
+      <c r="P290">
+        <v>2.075605118E-4</v>
+      </c>
+    </row>
+    <row r="291" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
         <v>23</v>
       </c>
-      <c r="B291" t="s">
+      <c r="B291" s="2" t="s">
         <v>313</v>
       </c>
       <c r="C291">
@@ -17002,12 +19563,33 @@
       <c r="I291">
         <v>1.85551E-4</v>
       </c>
-    </row>
-    <row r="292" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J291">
+        <v>1591918</v>
+      </c>
+      <c r="K291">
+        <v>408</v>
+      </c>
+      <c r="L291">
+        <v>2.562946081E-4</v>
+      </c>
+      <c r="M291">
+        <v>1117374</v>
+      </c>
+      <c r="N291">
+        <v>187</v>
+      </c>
+      <c r="O291">
+        <v>1.6735667740000001E-4</v>
+      </c>
+      <c r="P291">
+        <v>2.118256427E-4</v>
+      </c>
+    </row>
+    <row r="292" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
         <v>23</v>
       </c>
-      <c r="B292" t="s">
+      <c r="B292" s="2" t="s">
         <v>314</v>
       </c>
       <c r="C292">
@@ -17031,12 +19613,33 @@
       <c r="I292">
         <v>1.87257E-4</v>
       </c>
-    </row>
-    <row r="293" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J292">
+        <v>1206569</v>
+      </c>
+      <c r="K292">
+        <v>245</v>
+      </c>
+      <c r="L292">
+        <v>2.0305510920000001E-4</v>
+      </c>
+      <c r="M292">
+        <v>929512</v>
+      </c>
+      <c r="N292">
+        <v>168</v>
+      </c>
+      <c r="O292">
+        <v>1.8074000119999999E-4</v>
+      </c>
+      <c r="P292">
+        <v>1.918975552E-4</v>
+      </c>
+    </row>
+    <row r="293" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
         <v>23</v>
       </c>
-      <c r="B293" t="s">
+      <c r="B293" s="2" t="s">
         <v>315</v>
       </c>
       <c r="C293">
@@ -17060,12 +19663,33 @@
       <c r="I293">
         <v>2.3282000000000001E-4</v>
       </c>
-    </row>
-    <row r="294" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J293">
+        <v>900707</v>
+      </c>
+      <c r="K293">
+        <v>229</v>
+      </c>
+      <c r="L293">
+        <v>2.5424472110000001E-4</v>
+      </c>
+      <c r="M293">
+        <v>733826</v>
+      </c>
+      <c r="N293">
+        <v>187</v>
+      </c>
+      <c r="O293">
+        <v>2.5482880139999998E-4</v>
+      </c>
+      <c r="P293">
+        <v>2.5453676119999998E-4</v>
+      </c>
+    </row>
+    <row r="294" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
         <v>23</v>
       </c>
-      <c r="B294" t="s">
+      <c r="B294" s="2" t="s">
         <v>316</v>
       </c>
       <c r="C294">
@@ -17089,12 +19713,33 @@
       <c r="I294">
         <v>1.9745799999999999E-4</v>
       </c>
-    </row>
-    <row r="295" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J294">
+        <v>1086280</v>
+      </c>
+      <c r="K294">
+        <v>243</v>
+      </c>
+      <c r="L294">
+        <v>2.236992304E-4</v>
+      </c>
+      <c r="M294">
+        <v>839257</v>
+      </c>
+      <c r="N294">
+        <v>198</v>
+      </c>
+      <c r="O294">
+        <v>2.3592296520000001E-4</v>
+      </c>
+      <c r="P294">
+        <v>2.2981109779999999E-4</v>
+      </c>
+    </row>
+    <row r="295" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
         <v>23</v>
       </c>
-      <c r="B295" t="s">
+      <c r="B295" s="2" t="s">
         <v>317</v>
       </c>
       <c r="C295">
@@ -17118,12 +19763,33 @@
       <c r="I295">
         <v>2.4853400000000002E-4</v>
       </c>
-    </row>
-    <row r="296" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J295">
+        <v>1210334</v>
+      </c>
+      <c r="K295">
+        <v>356</v>
+      </c>
+      <c r="L295">
+        <v>2.9413368540000002E-4</v>
+      </c>
+      <c r="M295">
+        <v>845597</v>
+      </c>
+      <c r="N295">
+        <v>155</v>
+      </c>
+      <c r="O295">
+        <v>1.8330244790000001E-4</v>
+      </c>
+      <c r="P295">
+        <v>2.387180666E-4</v>
+      </c>
+    </row>
+    <row r="296" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
         <v>23</v>
       </c>
-      <c r="B296" t="s">
+      <c r="B296" s="2" t="s">
         <v>318</v>
       </c>
       <c r="C296">
@@ -17147,12 +19813,33 @@
       <c r="I296">
         <v>2.26622E-4</v>
       </c>
-    </row>
-    <row r="297" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J296">
+        <v>1202962</v>
+      </c>
+      <c r="K296">
+        <v>413</v>
+      </c>
+      <c r="L296">
+        <v>3.4331924029999997E-4</v>
+      </c>
+      <c r="M296">
+        <v>949583</v>
+      </c>
+      <c r="N296">
+        <v>123</v>
+      </c>
+      <c r="O296">
+        <v>1.2953054130000001E-4</v>
+      </c>
+      <c r="P296">
+        <v>2.3642489080000001E-4</v>
+      </c>
+    </row>
+    <row r="297" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
         <v>23</v>
       </c>
-      <c r="B297" t="s">
+      <c r="B297" s="2" t="s">
         <v>319</v>
       </c>
       <c r="C297">
@@ -17176,12 +19863,33 @@
       <c r="I297">
         <v>2.28688E-4</v>
       </c>
-    </row>
-    <row r="298" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J297">
+        <v>1356710</v>
+      </c>
+      <c r="K297">
+        <v>396</v>
+      </c>
+      <c r="L297">
+        <v>2.9188256890000001E-4</v>
+      </c>
+      <c r="M297">
+        <v>904293</v>
+      </c>
+      <c r="N297">
+        <v>198</v>
+      </c>
+      <c r="O297">
+        <v>2.1895558190000001E-4</v>
+      </c>
+      <c r="P297">
+        <v>2.5541907539999999E-4</v>
+      </c>
+    </row>
+    <row r="298" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
         <v>23</v>
       </c>
-      <c r="B298" t="s">
+      <c r="B298" s="2" t="s">
         <v>320</v>
       </c>
       <c r="C298">
@@ -17205,12 +19913,33 @@
       <c r="I298">
         <v>3.59186E-4</v>
       </c>
-    </row>
-    <row r="299" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J298">
+        <v>1178929</v>
+      </c>
+      <c r="K298">
+        <v>404</v>
+      </c>
+      <c r="L298">
+        <v>3.4268391060000001E-4</v>
+      </c>
+      <c r="M298">
+        <v>983817</v>
+      </c>
+      <c r="N298">
+        <v>353</v>
+      </c>
+      <c r="O298">
+        <v>3.588065667E-4</v>
+      </c>
+      <c r="P298">
+        <v>3.5074523860000002E-4</v>
+      </c>
+    </row>
+    <row r="299" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
         <v>23</v>
       </c>
-      <c r="B299" t="s">
+      <c r="B299" s="2" t="s">
         <v>321</v>
       </c>
       <c r="C299">
@@ -17234,12 +19963,33 @@
       <c r="I299">
         <v>2.49318E-4</v>
       </c>
-    </row>
-    <row r="300" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J299">
+        <v>1651277</v>
+      </c>
+      <c r="K299">
+        <v>418</v>
+      </c>
+      <c r="L299">
+        <v>2.531374203E-4</v>
+      </c>
+      <c r="M299">
+        <v>1051635</v>
+      </c>
+      <c r="N299">
+        <v>262</v>
+      </c>
+      <c r="O299">
+        <v>2.4913586940000001E-4</v>
+      </c>
+      <c r="P299">
+        <v>2.5113664480000002E-4</v>
+      </c>
+    </row>
+    <row r="300" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
         <v>23</v>
       </c>
-      <c r="B300" t="s">
+      <c r="B300" s="2" t="s">
         <v>322</v>
       </c>
       <c r="C300">
@@ -17263,12 +20013,33 @@
       <c r="I300">
         <v>1.1398E-4</v>
       </c>
-    </row>
-    <row r="301" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J300">
+        <v>1053800</v>
+      </c>
+      <c r="K300">
+        <v>185</v>
+      </c>
+      <c r="L300">
+        <v>1.7555513380000001E-4</v>
+      </c>
+      <c r="M300">
+        <v>1004725</v>
+      </c>
+      <c r="N300">
+        <v>45</v>
+      </c>
+      <c r="O300">
+        <v>4.4788374930000003E-5</v>
+      </c>
+      <c r="P300">
+        <v>1.101717544E-4</v>
+      </c>
+    </row>
+    <row r="301" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
         <v>23</v>
       </c>
-      <c r="B301" t="s">
+      <c r="B301" s="2" t="s">
         <v>323</v>
       </c>
       <c r="C301">
@@ -17292,12 +20063,33 @@
       <c r="I301">
         <v>2.7885600000000001E-4</v>
       </c>
-    </row>
-    <row r="302" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J301">
+        <v>1969053</v>
+      </c>
+      <c r="K301">
+        <v>502</v>
+      </c>
+      <c r="L301">
+        <v>2.5494488980000002E-4</v>
+      </c>
+      <c r="M301">
+        <v>1469622</v>
+      </c>
+      <c r="N301">
+        <v>435</v>
+      </c>
+      <c r="O301">
+        <v>2.9599448019999999E-4</v>
+      </c>
+      <c r="P301">
+        <v>2.75469685E-4</v>
+      </c>
+    </row>
+    <row r="302" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
         <v>23</v>
       </c>
-      <c r="B302" t="s">
+      <c r="B302" s="2" t="s">
         <v>324</v>
       </c>
       <c r="C302">
@@ -17321,12 +20113,33 @@
       <c r="I302">
         <v>3.4100100000000001E-4</v>
       </c>
-    </row>
-    <row r="303" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J302">
+        <v>1381479</v>
+      </c>
+      <c r="K302">
+        <v>557</v>
+      </c>
+      <c r="L302">
+        <v>4.0319107279999998E-4</v>
+      </c>
+      <c r="M302">
+        <v>1156295</v>
+      </c>
+      <c r="N302">
+        <v>336</v>
+      </c>
+      <c r="O302">
+        <v>2.9058328539999999E-4</v>
+      </c>
+      <c r="P302">
+        <v>3.4688717910000001E-4</v>
+      </c>
+    </row>
+    <row r="303" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
         <v>23</v>
       </c>
-      <c r="B303" t="s">
+      <c r="B303" s="2" t="s">
         <v>325</v>
       </c>
       <c r="C303">
@@ -17350,12 +20163,33 @@
       <c r="I303">
         <v>2.7666099999999999E-4</v>
       </c>
-    </row>
-    <row r="304" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J303">
+        <v>840123</v>
+      </c>
+      <c r="K303">
+        <v>211</v>
+      </c>
+      <c r="L303">
+        <v>2.511537001E-4</v>
+      </c>
+      <c r="M303">
+        <v>821013</v>
+      </c>
+      <c r="N303">
+        <v>266</v>
+      </c>
+      <c r="O303">
+        <v>3.2398999769999999E-4</v>
+      </c>
+      <c r="P303">
+        <v>2.8757184890000002E-4</v>
+      </c>
+    </row>
+    <row r="304" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
         <v>23</v>
       </c>
-      <c r="B304" t="s">
+      <c r="B304" s="2" t="s">
         <v>326</v>
       </c>
       <c r="C304">
@@ -17379,12 +20213,33 @@
       <c r="I304">
         <v>2.02733E-4</v>
       </c>
-    </row>
-    <row r="305" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J304">
+        <v>1654215</v>
+      </c>
+      <c r="K304">
+        <v>422</v>
+      </c>
+      <c r="L304">
+        <v>2.551058962E-4</v>
+      </c>
+      <c r="M304">
+        <v>1092097</v>
+      </c>
+      <c r="N304">
+        <v>191</v>
+      </c>
+      <c r="O304">
+        <v>1.7489288960000001E-4</v>
+      </c>
+      <c r="P304">
+        <v>2.149993929E-4</v>
+      </c>
+    </row>
+    <row r="305" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
         <v>23</v>
       </c>
-      <c r="B305" t="s">
+      <c r="B305" s="2" t="s">
         <v>327</v>
       </c>
       <c r="C305">
@@ -17408,12 +20263,33 @@
       <c r="I305">
         <v>1.9622300000000001E-4</v>
       </c>
-    </row>
-    <row r="306" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J305">
+        <v>1031761</v>
+      </c>
+      <c r="K305">
+        <v>234</v>
+      </c>
+      <c r="L305">
+        <v>2.267967097E-4</v>
+      </c>
+      <c r="M305">
+        <v>702321</v>
+      </c>
+      <c r="N305">
+        <v>126</v>
+      </c>
+      <c r="O305">
+        <v>1.7940514380000001E-4</v>
+      </c>
+      <c r="P305">
+        <v>2.031009268E-4</v>
+      </c>
+    </row>
+    <row r="306" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
         <v>23</v>
       </c>
-      <c r="B306" t="s">
+      <c r="B306" s="2" t="s">
         <v>328</v>
       </c>
       <c r="C306">
@@ -17437,12 +20313,33 @@
       <c r="I306">
         <v>6.5251700000000003E-4</v>
       </c>
-    </row>
-    <row r="307" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J306">
+        <v>2350473</v>
+      </c>
+      <c r="K306">
+        <v>795</v>
+      </c>
+      <c r="L306">
+        <v>1.131961026E-3</v>
+      </c>
+      <c r="M306">
+        <v>1193769</v>
+      </c>
+      <c r="N306">
+        <v>489</v>
+      </c>
+      <c r="O306">
+        <v>4.096269881E-4</v>
+      </c>
+      <c r="P306">
+        <v>7.7079400730000001E-4</v>
+      </c>
+    </row>
+    <row r="307" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
         <v>23</v>
       </c>
-      <c r="B307" t="s">
+      <c r="B307" s="2" t="s">
         <v>329</v>
       </c>
       <c r="C307">
@@ -17466,12 +20363,33 @@
       <c r="I307">
         <v>2.08481E-4</v>
       </c>
-    </row>
-    <row r="308" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J307">
+        <v>1047526</v>
+      </c>
+      <c r="K307">
+        <v>275</v>
+      </c>
+      <c r="L307">
+        <v>2.6252331679999999E-4</v>
+      </c>
+      <c r="M307">
+        <v>984280</v>
+      </c>
+      <c r="N307">
+        <v>138</v>
+      </c>
+      <c r="O307">
+        <v>1.40204007E-4</v>
+      </c>
+      <c r="P307">
+        <v>2.0136366190000001E-4</v>
+      </c>
+    </row>
+    <row r="308" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
         <v>23</v>
       </c>
-      <c r="B308" t="s">
+      <c r="B308" s="2" t="s">
         <v>330</v>
       </c>
       <c r="C308">
@@ -17495,12 +20413,33 @@
       <c r="I308">
         <v>1.9669500000000001E-4</v>
       </c>
-    </row>
-    <row r="309" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J308">
+        <v>1955760</v>
+      </c>
+      <c r="K308">
+        <v>409</v>
+      </c>
+      <c r="L308">
+        <v>2.091258641E-4</v>
+      </c>
+      <c r="M308">
+        <v>1158546</v>
+      </c>
+      <c r="N308">
+        <v>194</v>
+      </c>
+      <c r="O308">
+        <v>1.6745127080000001E-4</v>
+      </c>
+      <c r="P308">
+        <v>1.8828856750000001E-4</v>
+      </c>
+    </row>
+    <row r="309" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
         <v>23</v>
       </c>
-      <c r="B309" t="s">
+      <c r="B309" s="2" t="s">
         <v>331</v>
       </c>
       <c r="C309">
@@ -17524,12 +20463,33 @@
       <c r="I309">
         <v>3.1656499999999999E-4</v>
       </c>
-    </row>
-    <row r="310" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J309">
+        <v>1424632</v>
+      </c>
+      <c r="K309">
+        <v>561</v>
+      </c>
+      <c r="L309">
+        <v>3.9378590399999998E-4</v>
+      </c>
+      <c r="M309">
+        <v>920862</v>
+      </c>
+      <c r="N309">
+        <v>229</v>
+      </c>
+      <c r="O309">
+        <v>2.4868004110000001E-4</v>
+      </c>
+      <c r="P309">
+        <v>3.2123297260000001E-4</v>
+      </c>
+    </row>
+    <row r="310" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
         <v>23</v>
       </c>
-      <c r="B310" t="s">
+      <c r="B310" s="2" t="s">
         <v>332</v>
       </c>
       <c r="C310">
@@ -17553,12 +20513,33 @@
       <c r="I310">
         <v>1.9106900000000001E-4</v>
       </c>
-    </row>
-    <row r="311" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J310">
+        <v>2185940</v>
+      </c>
+      <c r="K310">
+        <v>561</v>
+      </c>
+      <c r="L310">
+        <v>2.5664016399999998E-4</v>
+      </c>
+      <c r="M310">
+        <v>1234395</v>
+      </c>
+      <c r="N310">
+        <v>239</v>
+      </c>
+      <c r="O310">
+        <v>1.9361711609999999E-4</v>
+      </c>
+      <c r="P310">
+        <v>2.2512863999999999E-4</v>
+      </c>
+    </row>
+    <row r="311" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
         <v>23</v>
       </c>
-      <c r="B311" t="s">
+      <c r="B311" s="2" t="s">
         <v>333</v>
       </c>
       <c r="C311">
@@ -17582,12 +20563,33 @@
       <c r="I311">
         <v>2.1781200000000001E-4</v>
       </c>
-    </row>
-    <row r="312" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J311">
+        <v>1671566</v>
+      </c>
+      <c r="K311">
+        <v>416</v>
+      </c>
+      <c r="L311">
+        <v>2.4886842640000002E-4</v>
+      </c>
+      <c r="M311">
+        <v>1177203</v>
+      </c>
+      <c r="N311">
+        <v>223</v>
+      </c>
+      <c r="O311">
+        <v>1.8943206910000001E-4</v>
+      </c>
+      <c r="P311">
+        <v>2.1915024770000001E-4</v>
+      </c>
+    </row>
+    <row r="312" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
         <v>23</v>
       </c>
-      <c r="B312" t="s">
+      <c r="B312" s="2" t="s">
         <v>334</v>
       </c>
       <c r="C312">
@@ -17611,12 +20613,33 @@
       <c r="I312">
         <v>2.00793E-4</v>
       </c>
-    </row>
-    <row r="313" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J312">
+        <v>1371616</v>
+      </c>
+      <c r="K312">
+        <v>378</v>
+      </c>
+      <c r="L312">
+        <v>2.7558733640000002E-4</v>
+      </c>
+      <c r="M312">
+        <v>924075</v>
+      </c>
+      <c r="N312">
+        <v>155</v>
+      </c>
+      <c r="O312">
+        <v>1.677353029E-4</v>
+      </c>
+      <c r="P312">
+        <v>2.2166131960000001E-4</v>
+      </c>
+    </row>
+    <row r="313" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
         <v>23</v>
       </c>
-      <c r="B313" t="s">
+      <c r="B313" s="2" t="s">
         <v>335</v>
       </c>
       <c r="C313">
@@ -17640,12 +20663,33 @@
       <c r="I313">
         <v>2.3026000000000001E-4</v>
       </c>
-    </row>
-    <row r="314" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J313">
+        <v>1339715</v>
+      </c>
+      <c r="K313">
+        <v>382</v>
+      </c>
+      <c r="L313">
+        <v>2.8513527129999999E-4</v>
+      </c>
+      <c r="M313">
+        <v>1044168</v>
+      </c>
+      <c r="N313">
+        <v>299</v>
+      </c>
+      <c r="O313">
+        <v>2.8635238770000001E-4</v>
+      </c>
+      <c r="P313">
+        <v>2.8574382950000002E-4</v>
+      </c>
+    </row>
+    <row r="314" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
         <v>23</v>
       </c>
-      <c r="B314" t="s">
+      <c r="B314" s="2" t="s">
         <v>336</v>
       </c>
       <c r="C314">
@@ -17669,12 +20713,33 @@
       <c r="I314">
         <v>2.6733300000000002E-4</v>
       </c>
-    </row>
-    <row r="315" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J314">
+        <v>938029</v>
+      </c>
+      <c r="K314">
+        <v>236</v>
+      </c>
+      <c r="L314">
+        <v>2.5159136870000001E-4</v>
+      </c>
+      <c r="M314">
+        <v>547625</v>
+      </c>
+      <c r="N314">
+        <v>170</v>
+      </c>
+      <c r="O314">
+        <v>3.1043140840000003E-4</v>
+      </c>
+      <c r="P314">
+        <v>2.8101138849999998E-4</v>
+      </c>
+    </row>
+    <row r="315" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
         <v>23</v>
       </c>
-      <c r="B315" t="s">
+      <c r="B315" s="2" t="s">
         <v>337</v>
       </c>
       <c r="C315">
@@ -17698,12 +20763,33 @@
       <c r="I315">
         <v>2.3894300000000001E-4</v>
       </c>
-    </row>
-    <row r="316" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J315">
+        <v>1906135</v>
+      </c>
+      <c r="K315">
+        <v>538</v>
+      </c>
+      <c r="L315">
+        <v>2.8224653550000002E-4</v>
+      </c>
+      <c r="M315">
+        <v>1071426</v>
+      </c>
+      <c r="N315">
+        <v>327</v>
+      </c>
+      <c r="O315">
+        <v>3.0520073249999999E-4</v>
+      </c>
+      <c r="P315">
+        <v>2.9372363399999998E-4</v>
+      </c>
+    </row>
+    <row r="316" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
         <v>23</v>
       </c>
-      <c r="B316" t="s">
+      <c r="B316" s="2" t="s">
         <v>338</v>
       </c>
       <c r="C316">
@@ -17727,12 +20813,33 @@
       <c r="I316">
         <v>1.0227599999999999E-4</v>
       </c>
-    </row>
-    <row r="317" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J316">
+        <v>1057364</v>
+      </c>
+      <c r="K316">
+        <v>151</v>
+      </c>
+      <c r="L316">
+        <v>1.42807964E-4</v>
+      </c>
+      <c r="M316">
+        <v>1391625</v>
+      </c>
+      <c r="N316">
+        <v>298</v>
+      </c>
+      <c r="O316">
+        <v>2.141381478E-4</v>
+      </c>
+      <c r="P316">
+        <v>1.784730559E-4</v>
+      </c>
+    </row>
+    <row r="317" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
         <v>23</v>
       </c>
-      <c r="B317" t="s">
+      <c r="B317" s="2" t="s">
         <v>339</v>
       </c>
       <c r="C317">
@@ -17756,12 +20863,33 @@
       <c r="I317">
         <v>3.0125699999999998E-4</v>
       </c>
-    </row>
-    <row r="318" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J317">
+        <v>1303543</v>
+      </c>
+      <c r="K317">
+        <v>508</v>
+      </c>
+      <c r="L317">
+        <v>3.8970712900000001E-4</v>
+      </c>
+      <c r="M317">
+        <v>1029457</v>
+      </c>
+      <c r="N317">
+        <v>350</v>
+      </c>
+      <c r="O317">
+        <v>3.3998506010000001E-4</v>
+      </c>
+      <c r="P317">
+        <v>3.648460945E-4</v>
+      </c>
+    </row>
+    <row r="318" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
         <v>23</v>
       </c>
-      <c r="B318" t="s">
+      <c r="B318" s="2" t="s">
         <v>340</v>
       </c>
       <c r="C318">
@@ -17785,12 +20913,33 @@
       <c r="I318">
         <v>2.5051000000000001E-4</v>
       </c>
-    </row>
-    <row r="319" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J318">
+        <v>971622</v>
+      </c>
+      <c r="K318">
+        <v>393</v>
+      </c>
+      <c r="L318">
+        <v>4.0447828479999999E-4</v>
+      </c>
+      <c r="M318">
+        <v>885506</v>
+      </c>
+      <c r="N318">
+        <v>206</v>
+      </c>
+      <c r="O318">
+        <v>2.32635352E-4</v>
+      </c>
+      <c r="P318">
+        <v>3.1855681840000001E-4</v>
+      </c>
+    </row>
+    <row r="319" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
         <v>23</v>
       </c>
-      <c r="B319" t="s">
+      <c r="B319" s="2" t="s">
         <v>341</v>
       </c>
       <c r="C319">
@@ -17814,12 +20963,33 @@
       <c r="I319">
         <v>2.5561900000000001E-4</v>
       </c>
-    </row>
-    <row r="320" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J319">
+        <v>1625864</v>
+      </c>
+      <c r="K319">
+        <v>561</v>
+      </c>
+      <c r="L319">
+        <v>3.4504731019999998E-4</v>
+      </c>
+      <c r="M319">
+        <v>1001505</v>
+      </c>
+      <c r="N319">
+        <v>298</v>
+      </c>
+      <c r="O319">
+        <v>2.97552184E-4</v>
+      </c>
+      <c r="P319">
+        <v>3.2129974710000002E-4</v>
+      </c>
+    </row>
+    <row r="320" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
         <v>23</v>
       </c>
-      <c r="B320" t="s">
+      <c r="B320" s="2" t="s">
         <v>342</v>
       </c>
       <c r="C320">
@@ -17843,12 +21013,33 @@
       <c r="I320">
         <v>1.66126E-4</v>
       </c>
-    </row>
-    <row r="321" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J320">
+        <v>1262756</v>
+      </c>
+      <c r="K320">
+        <v>272</v>
+      </c>
+      <c r="L320">
+        <v>2.15401867E-4</v>
+      </c>
+      <c r="M320">
+        <v>1181851</v>
+      </c>
+      <c r="N320">
+        <v>239</v>
+      </c>
+      <c r="O320">
+        <v>2.0222515360000001E-4</v>
+      </c>
+      <c r="P320">
+        <v>2.088135103E-4</v>
+      </c>
+    </row>
+    <row r="321" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
         <v>23</v>
       </c>
-      <c r="B321" t="s">
+      <c r="B321" s="2" t="s">
         <v>343</v>
       </c>
       <c r="C321">
@@ -17872,12 +21063,33 @@
       <c r="I321">
         <v>1.7066499999999999E-4</v>
       </c>
-    </row>
-    <row r="322" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J321">
+        <v>2614593</v>
+      </c>
+      <c r="K321">
+        <v>291</v>
+      </c>
+      <c r="L321">
+        <v>1.1129839329999999E-4</v>
+      </c>
+      <c r="M321">
+        <v>1165388</v>
+      </c>
+      <c r="N321">
+        <v>315</v>
+      </c>
+      <c r="O321">
+        <v>2.7029624470000001E-4</v>
+      </c>
+      <c r="P321">
+        <v>1.9079731900000001E-4</v>
+      </c>
+    </row>
+    <row r="322" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
         <v>23</v>
       </c>
-      <c r="B322" t="s">
+      <c r="B322" s="2" t="s">
         <v>344</v>
       </c>
       <c r="C322">
@@ -17901,12 +21113,33 @@
       <c r="I322">
         <v>1.08782E-4</v>
       </c>
-    </row>
-    <row r="323" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J322">
+        <v>1638908</v>
+      </c>
+      <c r="K322">
+        <v>227</v>
+      </c>
+      <c r="L322">
+        <v>1.3850685939999999E-4</v>
+      </c>
+      <c r="M322">
+        <v>1092463</v>
+      </c>
+      <c r="N322">
+        <v>143</v>
+      </c>
+      <c r="O322">
+        <v>1.3089688160000001E-4</v>
+      </c>
+      <c r="P322">
+        <v>1.347018705E-4</v>
+      </c>
+    </row>
+    <row r="323" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
         <v>23</v>
       </c>
-      <c r="B323" t="s">
+      <c r="B323" s="2" t="s">
         <v>345</v>
       </c>
       <c r="C323">
@@ -17930,12 +21163,33 @@
       <c r="I323">
         <v>2.15718E-4</v>
       </c>
-    </row>
-    <row r="324" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J323">
+        <v>915972</v>
+      </c>
+      <c r="K323">
+        <v>350</v>
+      </c>
+      <c r="L323">
+        <v>3.8210775E-4</v>
+      </c>
+      <c r="M323">
+        <v>1029596</v>
+      </c>
+      <c r="N323">
+        <v>162</v>
+      </c>
+      <c r="O323">
+        <v>1.5734326859999999E-4</v>
+      </c>
+      <c r="P323">
+        <v>2.6972550930000002E-4</v>
+      </c>
+    </row>
+    <row r="324" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
         <v>23</v>
       </c>
-      <c r="B324" t="s">
+      <c r="B324" s="2" t="s">
         <v>346</v>
       </c>
       <c r="C324">
@@ -17959,12 +21213,33 @@
       <c r="I324">
         <v>2.3034600000000001E-4</v>
       </c>
-    </row>
-    <row r="325" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J324">
+        <v>1772311</v>
+      </c>
+      <c r="K324">
+        <v>477</v>
+      </c>
+      <c r="L324">
+        <v>2.6914012270000002E-4</v>
+      </c>
+      <c r="M324">
+        <v>1045676</v>
+      </c>
+      <c r="N324">
+        <v>240</v>
+      </c>
+      <c r="O324">
+        <v>2.2951659980000001E-4</v>
+      </c>
+      <c r="P324">
+        <v>2.4932836120000003E-4</v>
+      </c>
+    </row>
+    <row r="325" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
         <v>23</v>
       </c>
-      <c r="B325" t="s">
+      <c r="B325" s="2" t="s">
         <v>347</v>
       </c>
       <c r="C325">
@@ -17988,12 +21263,33 @@
       <c r="I325">
         <v>2.8397300000000003E-4</v>
       </c>
-    </row>
-    <row r="326" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J325">
+        <v>1098966</v>
+      </c>
+      <c r="K325">
+        <v>481</v>
+      </c>
+      <c r="L325">
+        <v>4.376841504E-4</v>
+      </c>
+      <c r="M325">
+        <v>710135</v>
+      </c>
+      <c r="N325">
+        <v>169</v>
+      </c>
+      <c r="O325">
+        <v>2.379829187E-4</v>
+      </c>
+      <c r="P325">
+        <v>3.3783353460000001E-4</v>
+      </c>
+    </row>
+    <row r="326" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
         <v>23</v>
       </c>
-      <c r="B326" t="s">
+      <c r="B326" s="2" t="s">
         <v>348</v>
       </c>
       <c r="C326">
@@ -18017,12 +21313,33 @@
       <c r="I326">
         <v>2.1290299999999999E-4</v>
       </c>
-    </row>
-    <row r="327" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J326">
+        <v>1016053</v>
+      </c>
+      <c r="K326">
+        <v>323</v>
+      </c>
+      <c r="L326">
+        <v>3.1789680259999999E-4</v>
+      </c>
+      <c r="M326">
+        <v>1145017</v>
+      </c>
+      <c r="N326">
+        <v>233</v>
+      </c>
+      <c r="O326">
+        <v>2.0349042849999999E-4</v>
+      </c>
+      <c r="P326">
+        <v>2.606936156E-4</v>
+      </c>
+    </row>
+    <row r="327" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
         <v>23</v>
       </c>
-      <c r="B327" t="s">
+      <c r="B327" s="2" t="s">
         <v>349</v>
       </c>
       <c r="C327">
@@ -18046,12 +21363,33 @@
       <c r="I327">
         <v>2.22425E-4</v>
       </c>
-    </row>
-    <row r="328" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J327">
+        <v>1699953</v>
+      </c>
+      <c r="K327">
+        <v>474</v>
+      </c>
+      <c r="L327">
+        <v>2.7883123830000001E-4</v>
+      </c>
+      <c r="M327">
+        <v>1241911</v>
+      </c>
+      <c r="N327">
+        <v>261</v>
+      </c>
+      <c r="O327">
+        <v>2.1015998729999999E-4</v>
+      </c>
+      <c r="P327">
+        <v>2.4449561279999999E-4</v>
+      </c>
+    </row>
+    <row r="328" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
         <v>23</v>
       </c>
-      <c r="B328" t="s">
+      <c r="B328" s="2" t="s">
         <v>350</v>
       </c>
       <c r="C328">
@@ -18075,12 +21413,33 @@
       <c r="I328">
         <v>1.58302E-4</v>
       </c>
-    </row>
-    <row r="329" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J328">
+        <v>1515443</v>
+      </c>
+      <c r="K328">
+        <v>192</v>
+      </c>
+      <c r="L328">
+        <v>1.266956263E-4</v>
+      </c>
+      <c r="M328">
+        <v>1225901</v>
+      </c>
+      <c r="N328">
+        <v>315</v>
+      </c>
+      <c r="O328">
+        <v>2.5695386499999999E-4</v>
+      </c>
+      <c r="P328">
+        <v>1.9182474560000001E-4</v>
+      </c>
+    </row>
+    <row r="329" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
         <v>23</v>
       </c>
-      <c r="B329" t="s">
+      <c r="B329" s="2" t="s">
         <v>351</v>
       </c>
       <c r="C329">
@@ -18104,12 +21463,33 @@
       <c r="I329">
         <v>2.01168E-4</v>
       </c>
-    </row>
-    <row r="330" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J329">
+        <v>1152448</v>
+      </c>
+      <c r="K329">
+        <v>294</v>
+      </c>
+      <c r="L329">
+        <v>2.551091242E-4</v>
+      </c>
+      <c r="M329">
+        <v>1062547</v>
+      </c>
+      <c r="N329">
+        <v>272</v>
+      </c>
+      <c r="O329">
+        <v>2.5598867630000001E-4</v>
+      </c>
+      <c r="P329">
+        <v>2.5554890020000002E-4</v>
+      </c>
+    </row>
+    <row r="330" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
         <v>23</v>
       </c>
-      <c r="B330" t="s">
+      <c r="B330" s="2" t="s">
         <v>352</v>
       </c>
       <c r="C330">
@@ -18133,12 +21513,33 @@
       <c r="I330">
         <v>2.0444199999999999E-4</v>
       </c>
-    </row>
-    <row r="331" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J330">
+        <v>1650379</v>
+      </c>
+      <c r="K330">
+        <v>492</v>
+      </c>
+      <c r="L330">
+        <v>2.9811334250000001E-4</v>
+      </c>
+      <c r="M330">
+        <v>932866</v>
+      </c>
+      <c r="N330">
+        <v>173</v>
+      </c>
+      <c r="O330">
+        <v>1.854500003E-4</v>
+      </c>
+      <c r="P330">
+        <v>2.4178167139999999E-4</v>
+      </c>
+    </row>
+    <row r="331" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
         <v>23</v>
       </c>
-      <c r="B331" t="s">
+      <c r="B331" s="2" t="s">
         <v>353</v>
       </c>
       <c r="C331">
@@ -18162,12 +21563,33 @@
       <c r="I331">
         <v>2.6487899999999998E-4</v>
       </c>
-    </row>
-    <row r="332" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J331">
+        <v>1977359</v>
+      </c>
+      <c r="K331">
+        <v>661</v>
+      </c>
+      <c r="L331">
+        <v>3.3428426499999998E-4</v>
+      </c>
+      <c r="M331">
+        <v>1093897</v>
+      </c>
+      <c r="N331">
+        <v>292</v>
+      </c>
+      <c r="O331">
+        <v>2.6693555239999997E-4</v>
+      </c>
+      <c r="P331">
+        <v>3.0060990869999998E-4</v>
+      </c>
+    </row>
+    <row r="332" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
         <v>23</v>
       </c>
-      <c r="B332" t="s">
+      <c r="B332" s="2" t="s">
         <v>354</v>
       </c>
       <c r="C332">
@@ -18191,12 +21613,33 @@
       <c r="I332">
         <v>3.0921200000000001E-4</v>
       </c>
-    </row>
-    <row r="333" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J332">
+        <v>1225104</v>
+      </c>
+      <c r="K332">
+        <v>418</v>
+      </c>
+      <c r="L332">
+        <v>3.41195523E-4</v>
+      </c>
+      <c r="M332">
+        <v>869691</v>
+      </c>
+      <c r="N332">
+        <v>358</v>
+      </c>
+      <c r="O332">
+        <v>4.1164045619999999E-4</v>
+      </c>
+      <c r="P332">
+        <v>3.7641798960000002E-4</v>
+      </c>
+    </row>
+    <row r="333" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
         <v>23</v>
       </c>
-      <c r="B333" t="s">
+      <c r="B333" s="2" t="s">
         <v>355</v>
       </c>
       <c r="C333">
@@ -18220,12 +21663,33 @@
       <c r="I333">
         <v>2.4455100000000002E-4</v>
       </c>
-    </row>
-    <row r="334" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J333">
+        <v>1561757</v>
+      </c>
+      <c r="K333">
+        <v>529</v>
+      </c>
+      <c r="L333">
+        <v>3.3872106859999997E-4</v>
+      </c>
+      <c r="M333">
+        <v>1147743</v>
+      </c>
+      <c r="N333">
+        <v>264</v>
+      </c>
+      <c r="O333">
+        <v>2.300166501E-4</v>
+      </c>
+      <c r="P333">
+        <v>2.8436885940000002E-4</v>
+      </c>
+    </row>
+    <row r="334" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
         <v>23</v>
       </c>
-      <c r="B334" t="s">
+      <c r="B334" s="2" t="s">
         <v>356</v>
       </c>
       <c r="C334">
@@ -18249,12 +21713,33 @@
       <c r="I334">
         <v>2.7479799999999998E-4</v>
       </c>
-    </row>
-    <row r="335" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J334">
+        <v>1258487</v>
+      </c>
+      <c r="K334">
+        <v>417</v>
+      </c>
+      <c r="L334">
+        <v>3.3135026419999999E-4</v>
+      </c>
+      <c r="M334">
+        <v>1008739</v>
+      </c>
+      <c r="N334">
+        <v>212</v>
+      </c>
+      <c r="O334">
+        <v>2.101633822E-4</v>
+      </c>
+      <c r="P334">
+        <v>2.7075682320000001E-4</v>
+      </c>
+    </row>
+    <row r="335" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
         <v>23</v>
       </c>
-      <c r="B335" t="s">
+      <c r="B335" s="2" t="s">
         <v>357</v>
       </c>
       <c r="C335">
@@ -18278,12 +21763,33 @@
       <c r="I335">
         <v>2.5897099999999998E-4</v>
       </c>
-    </row>
-    <row r="336" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J335">
+        <v>1618912</v>
+      </c>
+      <c r="K335">
+        <v>522</v>
+      </c>
+      <c r="L335">
+        <v>3.2243877369999999E-4</v>
+      </c>
+      <c r="M335">
+        <v>1080597</v>
+      </c>
+      <c r="N335">
+        <v>253</v>
+      </c>
+      <c r="O335">
+        <v>2.3412983750000001E-4</v>
+      </c>
+      <c r="P335">
+        <v>2.7828430560000001E-4</v>
+      </c>
+    </row>
+    <row r="336" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
         <v>23</v>
       </c>
-      <c r="B336" t="s">
+      <c r="B336" s="2" t="s">
         <v>358</v>
       </c>
       <c r="C336">
@@ -18307,12 +21813,33 @@
       <c r="I336">
         <v>2.3499600000000001E-4</v>
       </c>
-    </row>
-    <row r="337" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J336">
+        <v>1823142</v>
+      </c>
+      <c r="K336">
+        <v>457</v>
+      </c>
+      <c r="L336">
+        <v>2.5066615770000001E-4</v>
+      </c>
+      <c r="M336">
+        <v>1054085</v>
+      </c>
+      <c r="N336">
+        <v>268</v>
+      </c>
+      <c r="O336">
+        <v>2.542489458E-4</v>
+      </c>
+      <c r="P336">
+        <v>2.5245755170000001E-4</v>
+      </c>
+    </row>
+    <row r="337" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
         <v>23</v>
       </c>
-      <c r="B337" t="s">
+      <c r="B337" s="2" t="s">
         <v>359</v>
       </c>
       <c r="C337">
@@ -18336,12 +21863,33 @@
       <c r="I337">
         <v>2.9761300000000001E-4</v>
       </c>
-    </row>
-    <row r="338" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J337">
+        <v>1337699</v>
+      </c>
+      <c r="K337">
+        <v>446</v>
+      </c>
+      <c r="L337">
+        <v>3.3340833779999998E-4</v>
+      </c>
+      <c r="M337">
+        <v>973835</v>
+      </c>
+      <c r="N337">
+        <v>337</v>
+      </c>
+      <c r="O337">
+        <v>3.4605451640000001E-4</v>
+      </c>
+      <c r="P337">
+        <v>3.3973142710000002E-4</v>
+      </c>
+    </row>
+    <row r="338" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
         <v>23</v>
       </c>
-      <c r="B338" t="s">
+      <c r="B338" s="2" t="s">
         <v>360</v>
       </c>
       <c r="C338">
@@ -18365,12 +21913,33 @@
       <c r="I338">
         <v>2.31597E-4</v>
       </c>
-    </row>
-    <row r="339" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J338">
+        <v>990110</v>
+      </c>
+      <c r="K338">
+        <v>309</v>
+      </c>
+      <c r="L338">
+        <v>3.1208653580000001E-4</v>
+      </c>
+      <c r="M338">
+        <v>1098253</v>
+      </c>
+      <c r="N338">
+        <v>232</v>
+      </c>
+      <c r="O338">
+        <v>2.112445857E-4</v>
+      </c>
+      <c r="P338">
+        <v>2.6166556079999998E-4</v>
+      </c>
+    </row>
+    <row r="339" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
         <v>23</v>
       </c>
-      <c r="B339" t="s">
+      <c r="B339" s="2" t="s">
         <v>361</v>
       </c>
       <c r="C339">
@@ -18394,12 +21963,33 @@
       <c r="I339">
         <v>1.9730299999999999E-4</v>
       </c>
-    </row>
-    <row r="340" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J339">
+        <v>1135569</v>
+      </c>
+      <c r="K339">
+        <v>301</v>
+      </c>
+      <c r="L339">
+        <v>2.650653549E-4</v>
+      </c>
+      <c r="M339">
+        <v>975340</v>
+      </c>
+      <c r="N339">
+        <v>157</v>
+      </c>
+      <c r="O339">
+        <v>1.6096950809999999E-4</v>
+      </c>
+      <c r="P339">
+        <v>2.1301743150000001E-4</v>
+      </c>
+    </row>
+    <row r="340" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
         <v>23</v>
       </c>
-      <c r="B340" t="s">
+      <c r="B340" s="2" t="s">
         <v>362</v>
       </c>
       <c r="C340">
@@ -18423,12 +22013,33 @@
       <c r="I340">
         <v>3.9049400000000002E-4</v>
       </c>
-    </row>
-    <row r="341" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J340">
+        <v>968040</v>
+      </c>
+      <c r="K340">
+        <v>470</v>
+      </c>
+      <c r="L340">
+        <v>4.8551712739999998E-4</v>
+      </c>
+      <c r="M340">
+        <v>1002385</v>
+      </c>
+      <c r="N340">
+        <v>408</v>
+      </c>
+      <c r="O340">
+        <v>4.0702923530000002E-4</v>
+      </c>
+      <c r="P340">
+        <v>4.4627318129999998E-4</v>
+      </c>
+    </row>
+    <row r="341" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
         <v>23</v>
       </c>
-      <c r="B341" t="s">
+      <c r="B341" s="2" t="s">
         <v>363</v>
       </c>
       <c r="C341">
@@ -18452,12 +22063,33 @@
       <c r="I341">
         <v>2.7531700000000002E-4</v>
       </c>
-    </row>
-    <row r="342" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J341">
+        <v>1098989</v>
+      </c>
+      <c r="K341">
+        <v>394</v>
+      </c>
+      <c r="L341">
+        <v>3.5851132270000002E-4</v>
+      </c>
+      <c r="M341">
+        <v>1223271</v>
+      </c>
+      <c r="N341">
+        <v>357</v>
+      </c>
+      <c r="O341">
+        <v>2.9184048340000001E-4</v>
+      </c>
+      <c r="P341">
+        <v>3.2517590309999998E-4</v>
+      </c>
+    </row>
+    <row r="342" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
         <v>23</v>
       </c>
-      <c r="B342" t="s">
+      <c r="B342" s="2" t="s">
         <v>364</v>
       </c>
       <c r="C342">
@@ -18481,12 +22113,33 @@
       <c r="I342">
         <v>2.1719400000000001E-4</v>
       </c>
-    </row>
-    <row r="343" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J342">
+        <v>1096963</v>
+      </c>
+      <c r="K342">
+        <v>356</v>
+      </c>
+      <c r="L342">
+        <v>3.2453236799999998E-4</v>
+      </c>
+      <c r="M342">
+        <v>1366286</v>
+      </c>
+      <c r="N342">
+        <v>259</v>
+      </c>
+      <c r="O342">
+        <v>1.895649959E-4</v>
+      </c>
+      <c r="P342">
+        <v>2.5704868199999999E-4</v>
+      </c>
+    </row>
+    <row r="343" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
         <v>23</v>
       </c>
-      <c r="B343" t="s">
+      <c r="B343" s="2" t="s">
         <v>365</v>
       </c>
       <c r="C343">
@@ -18510,12 +22163,33 @@
       <c r="I343">
         <v>3.2138499999999999E-4</v>
       </c>
-    </row>
-    <row r="344" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J343">
+        <v>1008411</v>
+      </c>
+      <c r="K343">
+        <v>310</v>
+      </c>
+      <c r="L343">
+        <v>3.07414338E-4</v>
+      </c>
+      <c r="M343">
+        <v>863906</v>
+      </c>
+      <c r="N343">
+        <v>359</v>
+      </c>
+      <c r="O343">
+        <v>4.1555447000000002E-4</v>
+      </c>
+      <c r="P343">
+        <v>3.6148440399999998E-4</v>
+      </c>
+    </row>
+    <row r="344" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
         <v>23</v>
       </c>
-      <c r="B344" t="s">
+      <c r="B344" s="2" t="s">
         <v>366</v>
       </c>
       <c r="C344">
@@ -18539,12 +22213,33 @@
       <c r="I344">
         <v>2.7358599999999998E-4</v>
       </c>
-    </row>
-    <row r="345" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J344">
+        <v>1359961</v>
+      </c>
+      <c r="K344">
+        <v>488</v>
+      </c>
+      <c r="L344">
+        <v>3.588338195E-4</v>
+      </c>
+      <c r="M344">
+        <v>855923</v>
+      </c>
+      <c r="N344">
+        <v>181</v>
+      </c>
+      <c r="O344">
+        <v>2.1146762029999999E-4</v>
+      </c>
+      <c r="P344">
+        <v>2.8515071989999998E-4</v>
+      </c>
+    </row>
+    <row r="345" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
         <v>23</v>
       </c>
-      <c r="B345" t="s">
+      <c r="B345" s="2" t="s">
         <v>367</v>
       </c>
       <c r="C345">
@@ -18568,8 +22263,30 @@
       <c r="I345">
         <v>2.9054699999999999E-4</v>
       </c>
+      <c r="J345">
+        <v>1209194</v>
+      </c>
+      <c r="K345">
+        <v>474</v>
+      </c>
+      <c r="L345">
+        <v>3.9199665230000002E-4</v>
+      </c>
+      <c r="M345">
+        <v>1010648</v>
+      </c>
+      <c r="N345">
+        <v>280</v>
+      </c>
+      <c r="O345">
+        <v>2.7704997190000001E-4</v>
+      </c>
+      <c r="P345">
+        <v>3.3452331210000001E-4</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Ionocyte/All 10mm ionocyte data.xlsx
+++ b/Ionocyte/All 10mm ionocyte data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\teres\Documents\GitHub\MenidiaOA\Ionocyte\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{2BAF3A87-1B58-4268-AAB7-46E0033DF160}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{6EEC6D09-FAAC-4D34-B682-62DA613EE532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="391">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="729" uniqueCount="389">
   <si>
     <t>Experiment</t>
   </si>
@@ -988,9 +988,6 @@
     <t>2016-371t</t>
   </si>
   <si>
-    <t>2016-372t</t>
-  </si>
-  <si>
     <t>2016-373t</t>
   </si>
   <si>
@@ -1025,9 +1022,6 @@
   </si>
   <si>
     <t>2016-384t</t>
-  </si>
-  <si>
-    <t>2016-385t</t>
   </si>
   <si>
     <t>2016-386t</t>
@@ -2036,11 +2030,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AS345"/>
+  <dimension ref="A1:AS343"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AK1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AS3" sqref="AS3"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2090,136 +2084,136 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="2" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="I1" s="2" t="s">
         <v>3</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="M1" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="N1" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>360</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="P1" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="Q1" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>363</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>364</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>390</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>365</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>366</v>
       </c>
       <c r="U1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="V1" s="2" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="W1" s="2" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="X1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="Y1" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="Z1" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="AA1" s="2" t="s">
         <v>369</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>370</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>371</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AD1" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="AC1" s="2" t="s">
+      <c r="AE1" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="AD1" s="2" t="s">
+      <c r="AF1" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="AE1" s="2" t="s">
+      <c r="AG1" s="2" t="s">
         <v>375</v>
       </c>
-      <c r="AF1" s="2" t="s">
+      <c r="AH1" s="2" t="s">
         <v>376</v>
       </c>
-      <c r="AG1" s="2" t="s">
+      <c r="AI1" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="AH1" s="2" t="s">
+      <c r="AJ1" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="AI1" s="2" t="s">
+      <c r="AK1" s="2" t="s">
         <v>379</v>
       </c>
-      <c r="AJ1" s="2" t="s">
+      <c r="AL1" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="AK1" s="2" t="s">
+      <c r="AM1" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="AL1" s="2" t="s">
+      <c r="AN1" s="2" t="s">
         <v>382</v>
       </c>
-      <c r="AM1" s="2" t="s">
+      <c r="AO1" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="AN1" s="2" t="s">
+      <c r="AP1" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="AO1" s="2" t="s">
+      <c r="AQ1" s="2" t="s">
         <v>385</v>
       </c>
-      <c r="AP1" s="2" t="s">
+      <c r="AR1" s="2" t="s">
         <v>386</v>
       </c>
-      <c r="AQ1" s="2" t="s">
+      <c r="AS1" s="2" t="s">
         <v>387</v>
-      </c>
-      <c r="AR1" s="2" t="s">
-        <v>388</v>
-      </c>
-      <c r="AS1" s="2" t="s">
-        <v>389</v>
       </c>
     </row>
     <row r="2" spans="1:45" x14ac:dyDescent="0.3">
@@ -45251,130 +45245,130 @@
         <v>322</v>
       </c>
       <c r="D316">
-        <v>1592223</v>
+        <v>1509597</v>
       </c>
       <c r="E316">
-        <v>1.5922229999999999</v>
+        <v>1.5095970000000001</v>
       </c>
       <c r="F316">
-        <v>137</v>
+        <v>501</v>
       </c>
       <c r="G316">
-        <v>1923914</v>
+        <v>1101103</v>
       </c>
       <c r="H316">
-        <v>1.9239139999999999</v>
+        <v>1.1011029999999999</v>
       </c>
       <c r="I316">
-        <v>228</v>
+        <v>298</v>
       </c>
       <c r="J316">
-        <v>8.6043223844901127E-5</v>
+        <v>3.3187665317299913E-4</v>
       </c>
       <c r="K316">
-        <v>86.043223844901121</v>
+        <v>331.87665317299911</v>
       </c>
       <c r="L316">
-        <v>1.185084156568329E-4</v>
+        <v>2.7063771509114044E-4</v>
       </c>
       <c r="M316">
-        <v>118.5084156568329</v>
+        <v>270.63771509114042</v>
       </c>
       <c r="N316">
-        <v>3516137</v>
+        <v>2610700</v>
       </c>
       <c r="O316">
-        <v>3.5161369999999996</v>
+        <v>2.6107</v>
       </c>
       <c r="P316">
-        <v>365</v>
+        <v>799</v>
       </c>
       <c r="Q316">
-        <v>1.0380710421692898E-4</v>
+        <v>3.0604818631018501E-4</v>
       </c>
       <c r="R316">
-        <v>103.80710421692899</v>
+        <v>306.04818631018503</v>
       </c>
       <c r="S316">
-        <v>1057364</v>
+        <v>1303543</v>
       </c>
       <c r="T316">
-        <v>1.057364</v>
+        <v>1.3035429999999999</v>
       </c>
       <c r="U316">
-        <v>151</v>
+        <v>508</v>
       </c>
       <c r="V316">
-        <v>1391625</v>
+        <v>1029457</v>
       </c>
       <c r="W316">
-        <v>1.3916249999999999</v>
+        <v>1.0294570000000001</v>
       </c>
       <c r="X316">
-        <v>298</v>
+        <v>350</v>
       </c>
       <c r="Y316">
-        <v>1.4280796395564819E-4</v>
+        <v>3.8970712895546983E-4</v>
       </c>
       <c r="Z316">
-        <v>142.80796395564821</v>
+        <v>389.70712895546984</v>
       </c>
       <c r="AA316">
-        <v>2.1413814784873797E-4</v>
+        <v>3.3998506008507397E-4</v>
       </c>
       <c r="AB316">
-        <v>214.13814784873801</v>
+        <v>339.98506008507394</v>
       </c>
       <c r="AC316">
-        <v>2448989</v>
+        <v>2333000</v>
       </c>
       <c r="AD316">
-        <v>2.4489890000000001</v>
+        <v>2.3330000000000002</v>
       </c>
       <c r="AE316">
-        <v>449</v>
+        <v>858</v>
       </c>
       <c r="AF316">
-        <v>1.8334096233180305E-4</v>
+        <v>3.67766823831976E-4</v>
       </c>
       <c r="AG316">
-        <v>183.34096233180304</v>
+        <v>367.76682383197596</v>
       </c>
       <c r="AH316">
-        <v>1.1442559390027467E-4</v>
+        <v>3.6079189106423451E-4</v>
       </c>
       <c r="AI316" s="1">
-        <v>4.0138732664601258E-5</v>
+        <v>4.089232158502944E-5</v>
       </c>
       <c r="AJ316">
-        <v>114.42559390027466</v>
+        <v>360.79189106423451</v>
       </c>
       <c r="AK316" s="1">
-        <v>40.138732664601285</v>
+        <v>40.892321585029464</v>
       </c>
       <c r="AL316">
-        <v>1.6632328175278545E-4</v>
+        <v>3.0531138758810718E-4</v>
       </c>
       <c r="AM316" s="1">
-        <v>6.7620432115949569E-5</v>
+        <v>4.9035977902493371E-5</v>
       </c>
       <c r="AN316">
-        <v>166.32328175278545</v>
+        <v>305.31138758810721</v>
       </c>
       <c r="AO316">
-        <v>67.62043211594964</v>
+        <v>49.035977902492952</v>
       </c>
       <c r="AP316">
-        <v>1.43574033274366E-4</v>
+        <v>3.369075050710805E-4</v>
       </c>
       <c r="AQ316">
-        <v>5.6238930406956176E-5</v>
+        <v>4.3641667117252903E-5</v>
       </c>
       <c r="AR316">
-        <v>143.574033274366</v>
+        <v>336.90750507108049</v>
       </c>
       <c r="AS316">
-        <v>56.238930406956257</v>
+        <v>43.641667117252858</v>
       </c>
     </row>
     <row r="317" spans="1:45" x14ac:dyDescent="0.3">
@@ -45388,130 +45382,130 @@
         <v>323</v>
       </c>
       <c r="D317">
-        <v>1509597</v>
+        <v>1030851</v>
       </c>
       <c r="E317">
-        <v>1.5095970000000001</v>
+        <v>1.030851</v>
       </c>
       <c r="F317">
-        <v>501</v>
+        <v>310</v>
       </c>
       <c r="G317">
-        <v>1101103</v>
+        <v>1048438</v>
       </c>
       <c r="H317">
-        <v>1.1011029999999999</v>
+        <v>1.048438</v>
       </c>
       <c r="I317">
-        <v>298</v>
+        <v>210</v>
       </c>
       <c r="J317">
-        <v>3.3187665317299913E-4</v>
+        <v>3.0072241284142908E-4</v>
       </c>
       <c r="K317">
-        <v>331.87665317299911</v>
+        <v>300.7224128414291</v>
       </c>
       <c r="L317">
-        <v>2.7063771509114044E-4</v>
+        <v>2.0029796707101422E-4</v>
       </c>
       <c r="M317">
-        <v>270.63771509114042</v>
+        <v>200.29796707101423</v>
       </c>
       <c r="N317">
-        <v>2610700</v>
+        <v>2079289</v>
       </c>
       <c r="O317">
-        <v>2.6107</v>
+        <v>2.0792890000000002</v>
       </c>
       <c r="P317">
-        <v>799</v>
+        <v>520</v>
       </c>
       <c r="Q317">
-        <v>3.0604818631018501E-4</v>
+        <v>2.5008548595216923E-4</v>
       </c>
       <c r="R317">
-        <v>306.04818631018503</v>
+        <v>250.08548595216919</v>
       </c>
       <c r="S317">
-        <v>1303543</v>
+        <v>971622</v>
       </c>
       <c r="T317">
-        <v>1.3035429999999999</v>
+        <v>0.97162199999999999</v>
       </c>
       <c r="U317">
-        <v>508</v>
+        <v>393</v>
       </c>
       <c r="V317">
-        <v>1029457</v>
+        <v>885506</v>
       </c>
       <c r="W317">
-        <v>1.0294570000000001</v>
+        <v>0.88550600000000002</v>
       </c>
       <c r="X317">
-        <v>350</v>
+        <v>206</v>
       </c>
       <c r="Y317">
-        <v>3.8970712895546983E-4</v>
+        <v>4.0447828476506298E-4</v>
       </c>
       <c r="Z317">
-        <v>389.70712895546984</v>
+        <v>404.47828476506294</v>
       </c>
       <c r="AA317">
-        <v>3.3998506008507397E-4</v>
+        <v>2.3263535199083914E-4</v>
       </c>
       <c r="AB317">
-        <v>339.98506008507394</v>
+        <v>232.63535199083913</v>
       </c>
       <c r="AC317">
-        <v>2333000</v>
+        <v>1857128</v>
       </c>
       <c r="AD317">
-        <v>2.3330000000000002</v>
+        <v>1.8571279999999999</v>
       </c>
       <c r="AE317">
-        <v>858</v>
+        <v>599</v>
       </c>
       <c r="AF317">
-        <v>3.67766823831976E-4</v>
+        <v>3.2254104186679646E-4</v>
       </c>
       <c r="AG317">
-        <v>367.76682383197596</v>
+        <v>322.54104186679649</v>
       </c>
       <c r="AH317">
-        <v>3.6079189106423451E-4</v>
+        <v>3.5260034880324606E-4</v>
       </c>
       <c r="AI317" s="1">
-        <v>4.089232158502944E-5</v>
+        <v>7.3366480625124445E-5</v>
       </c>
       <c r="AJ317">
-        <v>360.79189106423451</v>
+        <v>352.60034880324599</v>
       </c>
       <c r="AK317" s="1">
-        <v>40.892321585029464</v>
+        <v>73.366480625124836</v>
       </c>
       <c r="AL317">
-        <v>3.0531138758810718E-4</v>
+        <v>2.1646665953092668E-4</v>
       </c>
       <c r="AM317" s="1">
-        <v>4.9035977902493371E-5</v>
+        <v>2.2865984162647802E-5</v>
       </c>
       <c r="AN317">
-        <v>305.31138758810721</v>
+        <v>216.46665953092668</v>
       </c>
       <c r="AO317">
-        <v>49.035977902492952</v>
+        <v>22.865984162647788</v>
       </c>
       <c r="AP317">
-        <v>3.369075050710805E-4</v>
+        <v>2.8631326390948287E-4</v>
       </c>
       <c r="AQ317">
-        <v>4.3641667117252903E-5</v>
+        <v>5.1233814921873982E-5</v>
       </c>
       <c r="AR317">
-        <v>336.90750507108049</v>
+        <v>286.31326390948283</v>
       </c>
       <c r="AS317">
-        <v>43.641667117252858</v>
+        <v>51.233814921874185</v>
       </c>
     </row>
     <row r="318" spans="1:45" x14ac:dyDescent="0.3">
@@ -45525,130 +45519,130 @@
         <v>324</v>
       </c>
       <c r="D318">
-        <v>1030851</v>
+        <v>1805020</v>
       </c>
       <c r="E318">
-        <v>1.030851</v>
+        <v>1.8050200000000001</v>
       </c>
       <c r="F318">
-        <v>310</v>
+        <v>525</v>
       </c>
       <c r="G318">
-        <v>1048438</v>
+        <v>1129856</v>
       </c>
       <c r="H318">
-        <v>1.048438</v>
+        <v>1.129856</v>
       </c>
       <c r="I318">
-        <v>210</v>
+        <v>249</v>
       </c>
       <c r="J318">
-        <v>3.0072241284142908E-4</v>
+        <v>2.9085550298611648E-4</v>
       </c>
       <c r="K318">
-        <v>300.7224128414291</v>
+        <v>290.85550298611651</v>
       </c>
       <c r="L318">
-        <v>2.0029796707101422E-4</v>
+        <v>2.2038206638722103E-4</v>
       </c>
       <c r="M318">
-        <v>200.29796707101423</v>
+        <v>220.38206638722104</v>
       </c>
       <c r="N318">
-        <v>2079289</v>
+        <v>2934876</v>
       </c>
       <c r="O318">
-        <v>2.0792890000000002</v>
+        <v>2.934876</v>
       </c>
       <c r="P318">
-        <v>520</v>
+        <v>774</v>
       </c>
       <c r="Q318">
-        <v>2.5008548595216923E-4</v>
+        <v>2.6372494101965468E-4</v>
       </c>
       <c r="R318">
-        <v>250.08548595216919</v>
+        <v>263.72494101965464</v>
       </c>
       <c r="S318">
-        <v>971622</v>
+        <v>1625864</v>
       </c>
       <c r="T318">
-        <v>0.97162199999999999</v>
+        <v>1.625864</v>
       </c>
       <c r="U318">
-        <v>393</v>
+        <v>561</v>
       </c>
       <c r="V318">
-        <v>885506</v>
+        <v>1001505</v>
       </c>
       <c r="W318">
-        <v>0.88550600000000002</v>
+        <v>1.0015050000000001</v>
       </c>
       <c r="X318">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="Y318">
-        <v>4.0447828476506298E-4</v>
+        <v>3.4504731023012996E-4</v>
       </c>
       <c r="Z318">
-        <v>404.47828476506294</v>
+        <v>345.04731023012994</v>
       </c>
       <c r="AA318">
-        <v>2.3263535199083914E-4</v>
+        <v>2.975521839631355E-4</v>
       </c>
       <c r="AB318">
-        <v>232.63535199083913</v>
+        <v>297.55218396313546</v>
       </c>
       <c r="AC318">
-        <v>1857128</v>
+        <v>2627369</v>
       </c>
       <c r="AD318">
-        <v>1.8571279999999999</v>
+        <v>2.6273689999999998</v>
       </c>
       <c r="AE318">
-        <v>599</v>
+        <v>859</v>
       </c>
       <c r="AF318">
-        <v>3.2254104186679646E-4</v>
+        <v>3.2694303693162248E-4</v>
       </c>
       <c r="AG318">
-        <v>322.54104186679649</v>
+        <v>326.94303693162249</v>
       </c>
       <c r="AH318">
-        <v>3.5260034880324606E-4</v>
+        <v>3.1795140660812322E-4</v>
       </c>
       <c r="AI318" s="1">
-        <v>7.3366480625124445E-5</v>
+        <v>3.8319394386996202E-5</v>
       </c>
       <c r="AJ318">
-        <v>352.60034880324599</v>
+        <v>317.95140660812319</v>
       </c>
       <c r="AK318" s="1">
-        <v>73.366480625124836</v>
+        <v>38.319394386996173</v>
       </c>
       <c r="AL318">
-        <v>2.1646665953092668E-4</v>
+        <v>2.5896712517517825E-4</v>
       </c>
       <c r="AM318" s="1">
-        <v>2.2865984162647802E-5</v>
+        <v>5.4567513442892296E-5</v>
       </c>
       <c r="AN318">
-        <v>216.46665953092668</v>
+        <v>258.96712517517824</v>
       </c>
       <c r="AO318">
-        <v>22.865984162647788</v>
+        <v>54.567513442892562</v>
       </c>
       <c r="AP318">
-        <v>2.8631326390948287E-4</v>
+        <v>2.9533398897563858E-4</v>
       </c>
       <c r="AQ318">
-        <v>5.1233814921873982E-5</v>
+        <v>4.4701944313053992E-5</v>
       </c>
       <c r="AR318">
-        <v>286.31326390948283</v>
+        <v>295.33398897563859</v>
       </c>
       <c r="AS318">
-        <v>51.233814921874185</v>
+        <v>44.701944313053659</v>
       </c>
     </row>
     <row r="319" spans="1:45" x14ac:dyDescent="0.3">
@@ -45662,130 +45656,130 @@
         <v>325</v>
       </c>
       <c r="D319">
-        <v>1805020</v>
+        <v>1580546</v>
       </c>
       <c r="E319">
-        <v>1.8050200000000001</v>
+        <v>1.580546</v>
       </c>
       <c r="F319">
-        <v>525</v>
+        <v>292</v>
       </c>
       <c r="G319">
-        <v>1129856</v>
+        <v>1416903</v>
       </c>
       <c r="H319">
-        <v>1.129856</v>
+        <v>1.416903</v>
       </c>
       <c r="I319">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="J319">
-        <v>2.9085550298611648E-4</v>
+        <v>1.8474628387911518E-4</v>
       </c>
       <c r="K319">
-        <v>290.85550298611651</v>
+        <v>184.7462838791152</v>
       </c>
       <c r="L319">
-        <v>2.2038206638722103E-4</v>
+        <v>1.4750480449261523E-4</v>
       </c>
       <c r="M319">
-        <v>220.38206638722104</v>
+        <v>147.50480449261522</v>
       </c>
       <c r="N319">
-        <v>2934876</v>
+        <v>2997449</v>
       </c>
       <c r="O319">
-        <v>2.934876</v>
+        <v>2.997449</v>
       </c>
       <c r="P319">
-        <v>774</v>
+        <v>501</v>
       </c>
       <c r="Q319">
-        <v>2.6372494101965468E-4</v>
+        <v>1.6714212652158553E-4</v>
       </c>
       <c r="R319">
-        <v>263.72494101965464</v>
+        <v>167.14212652158551</v>
       </c>
       <c r="S319">
-        <v>1625864</v>
+        <v>1262756</v>
       </c>
       <c r="T319">
-        <v>1.625864</v>
+        <v>1.262756</v>
       </c>
       <c r="U319">
-        <v>561</v>
+        <v>272</v>
       </c>
       <c r="V319">
-        <v>1001505</v>
+        <v>1181851</v>
       </c>
       <c r="W319">
-        <v>1.0015050000000001</v>
+        <v>1.181851</v>
       </c>
       <c r="X319">
-        <v>298</v>
+        <v>239</v>
       </c>
       <c r="Y319">
-        <v>3.4504731023012996E-4</v>
+        <v>2.1540186702735922E-4</v>
       </c>
       <c r="Z319">
-        <v>345.04731023012994</v>
+        <v>215.4018670273592</v>
       </c>
       <c r="AA319">
-        <v>2.975521839631355E-4</v>
+        <v>2.0222515359381174E-4</v>
       </c>
       <c r="AB319">
-        <v>297.55218396313546</v>
+        <v>202.22515359381174</v>
       </c>
       <c r="AC319">
-        <v>2627369</v>
+        <v>2444607</v>
       </c>
       <c r="AD319">
-        <v>2.6273689999999998</v>
+        <v>2.444607</v>
       </c>
       <c r="AE319">
-        <v>859</v>
+        <v>511</v>
       </c>
       <c r="AF319">
-        <v>3.2694303693162248E-4</v>
+        <v>2.0903155394711706E-4</v>
       </c>
       <c r="AG319">
-        <v>326.94303693162249</v>
+        <v>209.03155394711706</v>
       </c>
       <c r="AH319">
-        <v>3.1795140660812322E-4</v>
+        <v>2.000740754532372E-4</v>
       </c>
       <c r="AI319" s="1">
-        <v>3.8319394386996202E-5</v>
+        <v>2.1676770725351406E-5</v>
       </c>
       <c r="AJ319">
-        <v>317.95140660812319</v>
+        <v>200.07407545323719</v>
       </c>
       <c r="AK319" s="1">
-        <v>38.319394386996173</v>
+        <v>21.676770725351389</v>
       </c>
       <c r="AL319">
-        <v>2.5896712517517825E-4</v>
+        <v>1.7486497904321347E-4</v>
       </c>
       <c r="AM319" s="1">
-        <v>5.4567513442892296E-5</v>
+        <v>3.8693129918351254E-5</v>
       </c>
       <c r="AN319">
-        <v>258.96712517517824</v>
+        <v>174.86497904321348</v>
       </c>
       <c r="AO319">
-        <v>54.567513442892562</v>
+        <v>38.693129918351239</v>
       </c>
       <c r="AP319">
-        <v>2.9533398897563858E-4</v>
+        <v>1.8808684023435129E-4</v>
       </c>
       <c r="AQ319">
-        <v>4.4701944313053992E-5</v>
+        <v>2.9620298192615082E-5</v>
       </c>
       <c r="AR319">
-        <v>295.33398897563859</v>
+        <v>188.08684023435129</v>
       </c>
       <c r="AS319">
-        <v>44.701944313053659</v>
+        <v>29.620298192615063</v>
       </c>
     </row>
     <row r="320" spans="1:45" x14ac:dyDescent="0.3">
@@ -45799,130 +45793,130 @@
         <v>326</v>
       </c>
       <c r="D320">
-        <v>1580546</v>
+        <v>2545283</v>
       </c>
       <c r="E320">
-        <v>1.580546</v>
+        <v>2.545283</v>
       </c>
       <c r="F320">
-        <v>292</v>
+        <v>236</v>
       </c>
       <c r="G320">
-        <v>1416903</v>
+        <v>1958894</v>
       </c>
       <c r="H320">
-        <v>1.416903</v>
+        <v>1.9588939999999999</v>
       </c>
       <c r="I320">
-        <v>209</v>
+        <v>487</v>
       </c>
       <c r="J320">
-        <v>1.8474628387911518E-4</v>
+        <v>9.2720534416015828E-5</v>
       </c>
       <c r="K320">
-        <v>184.7462838791152</v>
+        <v>92.720534416015823</v>
       </c>
       <c r="L320">
-        <v>1.4750480449261523E-4</v>
+        <v>2.4860967464293625E-4</v>
       </c>
       <c r="M320">
-        <v>147.50480449261522</v>
+        <v>248.60967464293628</v>
       </c>
       <c r="N320">
-        <v>2997449</v>
+        <v>4504177</v>
       </c>
       <c r="O320">
-        <v>2.997449</v>
+        <v>4.5041770000000003</v>
       </c>
       <c r="P320">
-        <v>501</v>
+        <v>723</v>
       </c>
       <c r="Q320">
-        <v>1.6714212652158553E-4</v>
+        <v>1.6051767059775847E-4</v>
       </c>
       <c r="R320">
-        <v>167.14212652158551</v>
+        <v>160.51767059775847</v>
       </c>
       <c r="S320">
-        <v>1262756</v>
+        <v>2614593</v>
       </c>
       <c r="T320">
-        <v>1.262756</v>
+        <v>2.6145930000000002</v>
       </c>
       <c r="U320">
-        <v>272</v>
+        <v>291</v>
       </c>
       <c r="V320">
-        <v>1181851</v>
+        <v>1165388</v>
       </c>
       <c r="W320">
-        <v>1.181851</v>
+        <v>1.1653880000000001</v>
       </c>
       <c r="X320">
-        <v>239</v>
+        <v>315</v>
       </c>
       <c r="Y320">
-        <v>2.1540186702735922E-4</v>
+        <v>1.1129839328721526E-4</v>
       </c>
       <c r="Z320">
-        <v>215.4018670273592</v>
+        <v>111.29839328721525</v>
       </c>
       <c r="AA320">
-        <v>2.0222515359381174E-4</v>
+        <v>2.7029624468417386E-4</v>
       </c>
       <c r="AB320">
-        <v>202.22515359381174</v>
+        <v>270.29624468417381</v>
       </c>
       <c r="AC320">
-        <v>2444607</v>
+        <v>3779981</v>
       </c>
       <c r="AD320">
-        <v>2.444607</v>
+        <v>3.7799810000000003</v>
       </c>
       <c r="AE320">
-        <v>511</v>
+        <v>606</v>
       </c>
       <c r="AF320">
-        <v>2.0903155394711706E-4</v>
+        <v>1.6031826615001504E-4</v>
       </c>
       <c r="AG320">
-        <v>209.03155394711706</v>
+        <v>160.31826615001503</v>
       </c>
       <c r="AH320">
-        <v>2.000740754532372E-4</v>
+        <v>1.0200946385161554E-4</v>
       </c>
       <c r="AI320" s="1">
-        <v>2.1676770725351406E-5</v>
+        <v>1.3136529987751776E-5</v>
       </c>
       <c r="AJ320">
-        <v>200.07407545323719</v>
+        <v>102.00946385161554</v>
       </c>
       <c r="AK320" s="1">
-        <v>21.676770725351389</v>
+        <v>13.136529987751771</v>
       </c>
       <c r="AL320">
-        <v>1.7486497904321347E-4</v>
+        <v>2.5945295966355508E-4</v>
       </c>
       <c r="AM320" s="1">
-        <v>3.8693129918351254E-5</v>
+        <v>1.5334720736836142E-5</v>
       </c>
       <c r="AN320">
-        <v>174.86497904321348</v>
+        <v>259.45295966355502</v>
       </c>
       <c r="AO320">
-        <v>38.693129918351239</v>
+        <v>15.334720736836084</v>
       </c>
       <c r="AP320">
-        <v>1.8808684023435129E-4</v>
+        <v>1.6041796837388677E-4</v>
       </c>
       <c r="AQ320">
-        <v>2.9620298192615082E-5</v>
+        <v>1.4100023719814008E-7</v>
       </c>
       <c r="AR320">
-        <v>188.08684023435129</v>
+        <v>160.41796837388677</v>
       </c>
       <c r="AS320">
-        <v>29.620298192615063</v>
+        <v>0.14100023719813998</v>
       </c>
     </row>
     <row r="321" spans="1:45" x14ac:dyDescent="0.3">
@@ -45936,130 +45930,130 @@
         <v>327</v>
       </c>
       <c r="D321">
-        <v>2545283</v>
+        <v>2332975</v>
       </c>
       <c r="E321">
-        <v>2.545283</v>
+        <v>2.3329749999999998</v>
       </c>
       <c r="F321">
-        <v>236</v>
+        <v>318</v>
       </c>
       <c r="G321">
-        <v>1958894</v>
+        <v>1858300</v>
       </c>
       <c r="H321">
-        <v>1.9588939999999999</v>
+        <v>1.8583000000000001</v>
       </c>
       <c r="I321">
-        <v>487</v>
+        <v>151</v>
       </c>
       <c r="J321">
-        <v>9.2720534416015828E-5</v>
+        <v>1.3630664709223203E-4</v>
       </c>
       <c r="K321">
-        <v>92.720534416015823</v>
+        <v>136.30664709223203</v>
       </c>
       <c r="L321">
-        <v>2.4860967464293625E-4</v>
+        <v>8.1257062906957975E-5</v>
       </c>
       <c r="M321">
-        <v>248.60967464293628</v>
+        <v>81.25706290695797</v>
       </c>
       <c r="N321">
-        <v>4504177</v>
+        <v>4191275</v>
       </c>
       <c r="O321">
-        <v>4.5041770000000003</v>
+        <v>4.1912750000000001</v>
       </c>
       <c r="P321">
-        <v>723</v>
+        <v>469</v>
       </c>
       <c r="Q321">
-        <v>1.6051767059775847E-4</v>
+        <v>1.1189912377498494E-4</v>
       </c>
       <c r="R321">
-        <v>160.51767059775847</v>
+        <v>111.89912377498494</v>
       </c>
       <c r="S321">
-        <v>2614593</v>
+        <v>1638908</v>
       </c>
       <c r="T321">
-        <v>2.6145930000000002</v>
+        <v>1.638908</v>
       </c>
       <c r="U321">
-        <v>291</v>
+        <v>227</v>
       </c>
       <c r="V321">
-        <v>1165388</v>
+        <v>1092463</v>
       </c>
       <c r="W321">
-        <v>1.1653880000000001</v>
+        <v>1.092463</v>
       </c>
       <c r="X321">
-        <v>315</v>
+        <v>143</v>
       </c>
       <c r="Y321">
-        <v>1.1129839328721526E-4</v>
+        <v>1.3850685944543563E-4</v>
       </c>
       <c r="Z321">
-        <v>111.29839328721525</v>
+        <v>138.50685944543562</v>
       </c>
       <c r="AA321">
-        <v>2.7029624468417386E-4</v>
+        <v>1.3089688163351985E-4</v>
       </c>
       <c r="AB321">
-        <v>270.29624468417381</v>
+        <v>130.89688163351985</v>
       </c>
       <c r="AC321">
-        <v>3779981</v>
+        <v>2731371</v>
       </c>
       <c r="AD321">
-        <v>3.7799810000000003</v>
+        <v>2.7313710000000002</v>
       </c>
       <c r="AE321">
-        <v>606</v>
+        <v>370</v>
       </c>
       <c r="AF321">
-        <v>1.6031826615001504E-4</v>
+        <v>1.3546310625689442E-4</v>
       </c>
       <c r="AG321">
-        <v>160.31826615001503</v>
+        <v>135.46310625689443</v>
       </c>
       <c r="AH321">
-        <v>1.0200946385161554E-4</v>
+        <v>1.3740675326883383E-4</v>
       </c>
       <c r="AI321" s="1">
-        <v>1.3136529987751776E-5</v>
+        <v>1.5557850750006746E-6</v>
       </c>
       <c r="AJ321">
-        <v>102.00946385161554</v>
+        <v>137.40675326883382</v>
       </c>
       <c r="AK321" s="1">
-        <v>13.136529987751771</v>
+        <v>1.5557850750006745</v>
       </c>
       <c r="AL321">
-        <v>2.5945295966355508E-4</v>
+        <v>1.0607697227023891E-4</v>
       </c>
       <c r="AM321" s="1">
-        <v>1.5334720736836142E-5</v>
+        <v>3.5100652438422874E-5</v>
       </c>
       <c r="AN321">
-        <v>259.45295966355502</v>
+        <v>106.07697227023891</v>
       </c>
       <c r="AO321">
-        <v>15.334720736836084</v>
+        <v>35.100652438422912</v>
       </c>
       <c r="AP321">
-        <v>1.6041796837388677E-4</v>
+        <v>1.2368111501593969E-4</v>
       </c>
       <c r="AQ321">
-        <v>1.4100023719814008E-7</v>
+        <v>1.6662251804719207E-5</v>
       </c>
       <c r="AR321">
-        <v>160.41796837388677</v>
+        <v>123.6811150159397</v>
       </c>
       <c r="AS321">
-        <v>0.14100023719813998</v>
+        <v>16.662251804719212</v>
       </c>
     </row>
     <row r="322" spans="1:45" x14ac:dyDescent="0.3">
@@ -46073,130 +46067,130 @@
         <v>328</v>
       </c>
       <c r="D322">
-        <v>2332975</v>
+        <v>1046666</v>
       </c>
       <c r="E322">
-        <v>2.3329749999999998</v>
+        <v>1.0466660000000001</v>
       </c>
       <c r="F322">
-        <v>318</v>
+        <v>338</v>
       </c>
       <c r="G322">
-        <v>1858300</v>
+        <v>1032203</v>
       </c>
       <c r="H322">
-        <v>1.8583000000000001</v>
+        <v>1.032203</v>
       </c>
       <c r="I322">
-        <v>151</v>
+        <v>112</v>
       </c>
       <c r="J322">
-        <v>1.3630664709223203E-4</v>
+        <v>3.2293014199372101E-4</v>
       </c>
       <c r="K322">
-        <v>136.30664709223203</v>
+        <v>322.93014199372101</v>
       </c>
       <c r="L322">
-        <v>8.1257062906957975E-5</v>
+        <v>1.0850578810563427E-4</v>
       </c>
       <c r="M322">
-        <v>81.25706290695797</v>
+        <v>108.50578810563427</v>
       </c>
       <c r="N322">
-        <v>4191275</v>
+        <v>2078869</v>
       </c>
       <c r="O322">
-        <v>4.1912750000000001</v>
+        <v>2.0788690000000001</v>
       </c>
       <c r="P322">
-        <v>469</v>
+        <v>450</v>
       </c>
       <c r="Q322">
-        <v>1.1189912377498494E-4</v>
+        <v>2.1646385606789077E-4</v>
       </c>
       <c r="R322">
-        <v>111.89912377498494</v>
+        <v>216.46385606789076</v>
       </c>
       <c r="S322">
-        <v>1638908</v>
+        <v>915972</v>
       </c>
       <c r="T322">
-        <v>1.638908</v>
+        <v>0.91597200000000001</v>
       </c>
       <c r="U322">
-        <v>227</v>
+        <v>350</v>
       </c>
       <c r="V322">
-        <v>1092463</v>
+        <v>1029596</v>
       </c>
       <c r="W322">
-        <v>1.092463</v>
+        <v>1.029596</v>
       </c>
       <c r="X322">
-        <v>143</v>
+        <v>162</v>
       </c>
       <c r="Y322">
-        <v>1.3850685944543563E-4</v>
+        <v>3.8210775001855954E-4</v>
       </c>
       <c r="Z322">
-        <v>138.50685944543562</v>
+        <v>382.1077500185595</v>
       </c>
       <c r="AA322">
-        <v>1.3089688163351985E-4</v>
+        <v>1.5734326862186721E-4</v>
       </c>
       <c r="AB322">
-        <v>130.89688163351985</v>
+        <v>157.34326862186722</v>
       </c>
       <c r="AC322">
-        <v>2731371</v>
+        <v>1945568</v>
       </c>
       <c r="AD322">
-        <v>2.7313710000000002</v>
+        <v>1.945568</v>
       </c>
       <c r="AE322">
-        <v>370</v>
+        <v>512</v>
       </c>
       <c r="AF322">
-        <v>1.3546310625689442E-4</v>
+        <v>2.6316222306287931E-4</v>
       </c>
       <c r="AG322">
-        <v>135.46310625689443</v>
+        <v>263.16222306287932</v>
       </c>
       <c r="AH322">
-        <v>1.3740675326883383E-4</v>
+        <v>3.525189460061403E-4</v>
       </c>
       <c r="AI322" s="1">
-        <v>1.5557850750006746E-6</v>
+        <v>4.1844887928762778E-5</v>
       </c>
       <c r="AJ322">
-        <v>137.40675326883382</v>
+        <v>352.51894600614025</v>
       </c>
       <c r="AK322" s="1">
-        <v>1.5557850750006745</v>
+        <v>41.844887928762752</v>
       </c>
       <c r="AL322">
-        <v>1.0607697227023891E-4</v>
+        <v>1.3292452836375073E-4</v>
       </c>
       <c r="AM322" s="1">
-        <v>3.5100652438422874E-5</v>
+        <v>3.4533313649094208E-5</v>
       </c>
       <c r="AN322">
-        <v>106.07697227023891</v>
+        <v>132.92452836375074</v>
       </c>
       <c r="AO322">
-        <v>35.100652438422912</v>
+        <v>34.533313649094225</v>
       </c>
       <c r="AP322">
-        <v>1.2368111501593969E-4</v>
+        <v>2.3981303956538506E-4</v>
       </c>
       <c r="AQ322">
-        <v>1.6662251804719207E-5</v>
+        <v>3.302073197249445E-5</v>
       </c>
       <c r="AR322">
-        <v>123.6811150159397</v>
+        <v>239.81303956538505</v>
       </c>
       <c r="AS322">
-        <v>16.662251804719212</v>
+        <v>33.020731972494467</v>
       </c>
     </row>
     <row r="323" spans="1:45" x14ac:dyDescent="0.3">
@@ -46210,130 +46204,130 @@
         <v>329</v>
       </c>
       <c r="D323">
-        <v>1046666</v>
+        <v>1769771</v>
       </c>
       <c r="E323">
-        <v>1.0466660000000001</v>
+        <v>1.769771</v>
       </c>
       <c r="F323">
-        <v>338</v>
+        <v>464</v>
       </c>
       <c r="G323">
-        <v>1032203</v>
+        <v>1234193</v>
       </c>
       <c r="H323">
-        <v>1.032203</v>
+        <v>1.2341930000000001</v>
       </c>
       <c r="I323">
-        <v>112</v>
+        <v>245</v>
       </c>
       <c r="J323">
-        <v>3.2293014199372101E-4</v>
+        <v>2.6218081322385776E-4</v>
       </c>
       <c r="K323">
-        <v>322.93014199372101</v>
+        <v>262.1808132238578</v>
       </c>
       <c r="L323">
-        <v>1.0850578810563427E-4</v>
+        <v>1.9851028161721869E-4</v>
       </c>
       <c r="M323">
-        <v>108.50578810563427</v>
+        <v>198.51028161721868</v>
       </c>
       <c r="N323">
-        <v>2078869</v>
+        <v>3003964</v>
       </c>
       <c r="O323">
-        <v>2.0788690000000001</v>
+        <v>3.0039639999999999</v>
       </c>
       <c r="P323">
-        <v>450</v>
+        <v>709</v>
       </c>
       <c r="Q323">
-        <v>2.1646385606789077E-4</v>
+        <v>2.3602147029724724E-4</v>
       </c>
       <c r="R323">
-        <v>216.46385606789076</v>
+        <v>236.02147029724725</v>
       </c>
       <c r="S323">
-        <v>915972</v>
+        <v>1772311</v>
       </c>
       <c r="T323">
-        <v>0.91597200000000001</v>
+        <v>1.772311</v>
       </c>
       <c r="U323">
-        <v>350</v>
+        <v>477</v>
       </c>
       <c r="V323">
-        <v>1029596</v>
+        <v>1045676</v>
       </c>
       <c r="W323">
-        <v>1.029596</v>
+        <v>1.045676</v>
       </c>
       <c r="X323">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="Y323">
-        <v>3.8210775001855954E-4</v>
+        <v>2.691401226985557E-4</v>
       </c>
       <c r="Z323">
-        <v>382.1077500185595</v>
+        <v>269.14012269855573</v>
       </c>
       <c r="AA323">
-        <v>1.5734326862186721E-4</v>
+        <v>2.2951659978807967E-4</v>
       </c>
       <c r="AB323">
-        <v>157.34326862186722</v>
+        <v>229.51659978807967</v>
       </c>
       <c r="AC323">
-        <v>1945568</v>
+        <v>2817987</v>
       </c>
       <c r="AD323">
-        <v>1.945568</v>
+        <v>2.817987</v>
       </c>
       <c r="AE323">
-        <v>512</v>
+        <v>717</v>
       </c>
       <c r="AF323">
-        <v>2.6316222306287931E-4</v>
+        <v>2.5443694381840654E-4</v>
       </c>
       <c r="AG323">
-        <v>263.16222306287932</v>
+        <v>254.43694381840655</v>
       </c>
       <c r="AH323">
-        <v>3.525189460061403E-4</v>
+        <v>2.6566046796120671E-4</v>
       </c>
       <c r="AI323" s="1">
-        <v>4.1844887928762778E-5</v>
+        <v>4.920974921934705E-6</v>
       </c>
       <c r="AJ323">
-        <v>352.51894600614025</v>
+        <v>265.66046796120679</v>
       </c>
       <c r="AK323" s="1">
-        <v>41.844887928762752</v>
+        <v>4.9209749219346977</v>
       </c>
       <c r="AL323">
-        <v>1.3292452836375073E-4</v>
+        <v>2.1401344070264916E-4</v>
       </c>
       <c r="AM323" s="1">
-        <v>3.4533313649094208E-5</v>
+        <v>2.1924777838243464E-5</v>
       </c>
       <c r="AN323">
-        <v>132.92452836375074</v>
+        <v>214.01344070264918</v>
       </c>
       <c r="AO323">
-        <v>34.533313649094225</v>
+        <v>21.924777838243475</v>
       </c>
       <c r="AP323">
-        <v>2.3981303956538506E-4</v>
+        <v>2.452292070578269E-4</v>
       </c>
       <c r="AQ323">
-        <v>3.302073197249445E-5</v>
+        <v>1.3021706205573049E-5</v>
       </c>
       <c r="AR323">
-        <v>239.81303956538505</v>
+        <v>245.2292070578269</v>
       </c>
       <c r="AS323">
-        <v>33.020731972494467</v>
+        <v>13.021706205573048</v>
       </c>
     </row>
     <row r="324" spans="1:45" x14ac:dyDescent="0.3">
@@ -46347,130 +46341,130 @@
         <v>330</v>
       </c>
       <c r="D324">
-        <v>1769771</v>
+        <v>1213377</v>
       </c>
       <c r="E324">
-        <v>1.769771</v>
+        <v>1.2133769999999999</v>
       </c>
       <c r="F324">
-        <v>464</v>
+        <v>456</v>
       </c>
       <c r="G324">
-        <v>1234193</v>
+        <v>1077366</v>
       </c>
       <c r="H324">
-        <v>1.2341930000000001</v>
+        <v>1.077366</v>
       </c>
       <c r="I324">
-        <v>245</v>
+        <v>207</v>
       </c>
       <c r="J324">
-        <v>2.6218081322385776E-4</v>
+        <v>3.7581065077053546E-4</v>
       </c>
       <c r="K324">
-        <v>262.1808132238578</v>
+        <v>375.81065077053546</v>
       </c>
       <c r="L324">
-        <v>1.9851028161721869E-4</v>
+        <v>1.9213526322531062E-4</v>
       </c>
       <c r="M324">
-        <v>198.51028161721868</v>
+        <v>192.13526322531061</v>
       </c>
       <c r="N324">
-        <v>3003964</v>
+        <v>2290743</v>
       </c>
       <c r="O324">
-        <v>3.0039639999999999</v>
+        <v>2.290743</v>
       </c>
       <c r="P324">
-        <v>709</v>
+        <v>663</v>
       </c>
       <c r="Q324">
-        <v>2.3602147029724724E-4</v>
+        <v>2.8942574527129406E-4</v>
       </c>
       <c r="R324">
-        <v>236.02147029724725</v>
+        <v>289.42574527129409</v>
       </c>
       <c r="S324">
-        <v>1772311</v>
+        <v>1098966</v>
       </c>
       <c r="T324">
-        <v>1.772311</v>
+        <v>1.0989660000000001</v>
       </c>
       <c r="U324">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="V324">
-        <v>1045676</v>
+        <v>710135</v>
       </c>
       <c r="W324">
-        <v>1.045676</v>
+        <v>0.71013499999999996</v>
       </c>
       <c r="X324">
-        <v>240</v>
+        <v>169</v>
       </c>
       <c r="Y324">
-        <v>2.691401226985557E-4</v>
+        <v>4.3768415037407889E-4</v>
       </c>
       <c r="Z324">
-        <v>269.14012269855573</v>
+        <v>437.68415037407885</v>
       </c>
       <c r="AA324">
-        <v>2.2951659978807967E-4</v>
+        <v>2.3798291874080281E-4</v>
       </c>
       <c r="AB324">
-        <v>229.51659978807967</v>
+        <v>237.98291874080283</v>
       </c>
       <c r="AC324">
-        <v>2817987</v>
+        <v>1809101</v>
       </c>
       <c r="AD324">
-        <v>2.817987</v>
+        <v>1.8091010000000001</v>
       </c>
       <c r="AE324">
-        <v>717</v>
+        <v>650</v>
       </c>
       <c r="AF324">
-        <v>2.5443694381840654E-4</v>
+        <v>3.5929447830718132E-4</v>
       </c>
       <c r="AG324">
-        <v>254.43694381840655</v>
+        <v>359.29447830718129</v>
       </c>
       <c r="AH324">
-        <v>2.6566046796120671E-4</v>
+        <v>4.0674740057230715E-4</v>
       </c>
       <c r="AI324" s="1">
-        <v>4.920974921934705E-6</v>
+        <v>4.3751171145408719E-5</v>
       </c>
       <c r="AJ324">
-        <v>265.66046796120679</v>
+        <v>406.74740057230713</v>
       </c>
       <c r="AK324" s="1">
-        <v>4.9209749219346977</v>
+        <v>43.751171145408691</v>
       </c>
       <c r="AL324">
-        <v>2.1401344070264916E-4</v>
+        <v>2.1505909098305673E-4</v>
       </c>
       <c r="AM324" s="1">
-        <v>2.1924777838243464E-5</v>
+        <v>3.2419188116509338E-5</v>
       </c>
       <c r="AN324">
-        <v>214.01344070264918</v>
+        <v>215.05909098305671</v>
       </c>
       <c r="AO324">
-        <v>21.924777838243475</v>
+        <v>32.419188116509588</v>
       </c>
       <c r="AP324">
-        <v>2.452292070578269E-4</v>
+        <v>3.2436011178923769E-4</v>
       </c>
       <c r="AQ324">
-        <v>1.3021706205573049E-5</v>
+        <v>4.9404654922588434E-5</v>
       </c>
       <c r="AR324">
-        <v>245.2292070578269</v>
+        <v>324.36011178923769</v>
       </c>
       <c r="AS324">
-        <v>13.021706205573048</v>
+        <v>49.404654922588371</v>
       </c>
     </row>
     <row r="325" spans="1:45" x14ac:dyDescent="0.3">
@@ -46484,130 +46478,130 @@
         <v>331</v>
       </c>
       <c r="D325">
-        <v>1213377</v>
+        <v>1220048</v>
       </c>
       <c r="E325">
-        <v>1.2133769999999999</v>
+        <v>1.220048</v>
       </c>
       <c r="F325">
-        <v>456</v>
+        <v>327</v>
       </c>
       <c r="G325">
-        <v>1077366</v>
+        <v>1064743</v>
       </c>
       <c r="H325">
-        <v>1.077366</v>
+        <v>1.064743</v>
       </c>
       <c r="I325">
-        <v>207</v>
+        <v>168</v>
       </c>
       <c r="J325">
-        <v>3.7581065077053546E-4</v>
+        <v>2.6802224174786568E-4</v>
       </c>
       <c r="K325">
-        <v>375.81065077053546</v>
+        <v>268.02224174786568</v>
       </c>
       <c r="L325">
-        <v>1.9213526322531062E-4</v>
+        <v>1.5778455458265517E-4</v>
       </c>
       <c r="M325">
-        <v>192.13526322531061</v>
+        <v>157.78455458265515</v>
       </c>
       <c r="N325">
-        <v>2290743</v>
+        <v>2284791</v>
       </c>
       <c r="O325">
-        <v>2.290743</v>
+        <v>2.2847910000000002</v>
       </c>
       <c r="P325">
-        <v>663</v>
+        <v>495</v>
       </c>
       <c r="Q325">
-        <v>2.8942574527129406E-4</v>
+        <v>2.1665001306465231E-4</v>
       </c>
       <c r="R325">
-        <v>289.42574527129409</v>
+        <v>216.65001306465228</v>
       </c>
       <c r="S325">
-        <v>1098966</v>
+        <v>1016053</v>
       </c>
       <c r="T325">
-        <v>1.0989660000000001</v>
+        <v>1.0160530000000001</v>
       </c>
       <c r="U325">
-        <v>481</v>
+        <v>323</v>
       </c>
       <c r="V325">
-        <v>710135</v>
+        <v>1145017</v>
       </c>
       <c r="W325">
-        <v>0.71013499999999996</v>
+        <v>1.145017</v>
       </c>
       <c r="X325">
-        <v>169</v>
+        <v>233</v>
       </c>
       <c r="Y325">
-        <v>4.3768415037407889E-4</v>
+        <v>3.1789680262742201E-4</v>
       </c>
       <c r="Z325">
-        <v>437.68415037407885</v>
+        <v>317.89680262742195</v>
       </c>
       <c r="AA325">
-        <v>2.3798291874080281E-4</v>
+        <v>2.0349042852638868E-4</v>
       </c>
       <c r="AB325">
-        <v>237.98291874080283</v>
+        <v>203.49042852638871</v>
       </c>
       <c r="AC325">
-        <v>1809101</v>
+        <v>2161070</v>
       </c>
       <c r="AD325">
-        <v>1.8091010000000001</v>
+        <v>2.16107</v>
       </c>
       <c r="AE325">
-        <v>650</v>
+        <v>556</v>
       </c>
       <c r="AF325">
-        <v>3.5929447830718132E-4</v>
+        <v>2.5727995853905706E-4</v>
       </c>
       <c r="AG325">
-        <v>359.29447830718129</v>
+        <v>257.27995853905702</v>
       </c>
       <c r="AH325">
-        <v>4.0674740057230715E-4</v>
+        <v>2.9295952218764385E-4</v>
       </c>
       <c r="AI325" s="1">
-        <v>4.3751171145408719E-5</v>
+        <v>3.526664020663558E-5</v>
       </c>
       <c r="AJ325">
-        <v>406.74740057230713</v>
+        <v>292.95952218764381</v>
       </c>
       <c r="AK325" s="1">
-        <v>43.751171145408691</v>
+        <v>35.266640206635536</v>
       </c>
       <c r="AL325">
-        <v>2.1505909098305673E-4</v>
+        <v>1.8063749155452192E-4</v>
       </c>
       <c r="AM325" s="1">
-        <v>3.2419188116509338E-5</v>
+        <v>3.2318933405671499E-5</v>
       </c>
       <c r="AN325">
-        <v>215.05909098305671</v>
+        <v>180.63749155452194</v>
       </c>
       <c r="AO325">
-        <v>32.419188116509588</v>
+        <v>32.318933405671487</v>
       </c>
       <c r="AP325">
-        <v>3.2436011178923769E-4</v>
+        <v>2.3696498580185469E-4</v>
       </c>
       <c r="AQ325">
-        <v>4.9404654922588434E-5</v>
+        <v>2.8729709964191277E-5</v>
       </c>
       <c r="AR325">
-        <v>324.36011178923769</v>
+        <v>236.96498580185465</v>
       </c>
       <c r="AS325">
-        <v>49.404654922588371</v>
+        <v>28.729709964191265</v>
       </c>
     </row>
     <row r="326" spans="1:45" x14ac:dyDescent="0.3">
@@ -46621,130 +46615,130 @@
         <v>332</v>
       </c>
       <c r="D326">
-        <v>1220048</v>
+        <v>1833193</v>
       </c>
       <c r="E326">
-        <v>1.220048</v>
+        <v>1.8331930000000001</v>
       </c>
       <c r="F326">
-        <v>327</v>
+        <v>504</v>
       </c>
       <c r="G326">
-        <v>1064743</v>
+        <v>1612516</v>
       </c>
       <c r="H326">
-        <v>1.064743</v>
+        <v>1.6125160000000001</v>
       </c>
       <c r="I326">
-        <v>168</v>
+        <v>274</v>
       </c>
       <c r="J326">
-        <v>2.6802224174786568E-4</v>
+        <v>2.7493013556128567E-4</v>
       </c>
       <c r="K326">
-        <v>268.02224174786568</v>
+        <v>274.93013556128568</v>
       </c>
       <c r="L326">
-        <v>1.5778455458265517E-4</v>
+        <v>1.6992079458436383E-4</v>
       </c>
       <c r="M326">
-        <v>157.78455458265515</v>
+        <v>169.92079458436382</v>
       </c>
       <c r="N326">
-        <v>2284791</v>
+        <v>3445709</v>
       </c>
       <c r="O326">
-        <v>2.2847910000000002</v>
+        <v>3.4457089999999999</v>
       </c>
       <c r="P326">
-        <v>495</v>
+        <v>778</v>
       </c>
       <c r="Q326">
-        <v>2.1665001306465231E-4</v>
+        <v>2.2578807438469121E-4</v>
       </c>
       <c r="R326">
-        <v>216.65001306465228</v>
+        <v>225.78807438469121</v>
       </c>
       <c r="S326">
-        <v>1016053</v>
+        <v>1699953</v>
       </c>
       <c r="T326">
-        <v>1.0160530000000001</v>
+        <v>1.699953</v>
       </c>
       <c r="U326">
-        <v>323</v>
+        <v>474</v>
       </c>
       <c r="V326">
-        <v>1145017</v>
+        <v>1241911</v>
       </c>
       <c r="W326">
-        <v>1.145017</v>
+        <v>1.241911</v>
       </c>
       <c r="X326">
-        <v>233</v>
+        <v>261</v>
       </c>
       <c r="Y326">
-        <v>3.1789680262742201E-4</v>
+        <v>2.7883123827541112E-4</v>
       </c>
       <c r="Z326">
-        <v>317.89680262742195</v>
+        <v>278.83123827541112</v>
       </c>
       <c r="AA326">
-        <v>2.0349042852638868E-4</v>
+        <v>2.101599873098797E-4</v>
       </c>
       <c r="AB326">
-        <v>203.49042852638871</v>
+        <v>210.15998730987968</v>
       </c>
       <c r="AC326">
-        <v>2161070</v>
+        <v>2941864</v>
       </c>
       <c r="AD326">
-        <v>2.16107</v>
+        <v>2.9418639999999998</v>
       </c>
       <c r="AE326">
-        <v>556</v>
+        <v>735</v>
       </c>
       <c r="AF326">
-        <v>2.5727995853905706E-4</v>
+        <v>2.4984159702827864E-4</v>
       </c>
       <c r="AG326">
-        <v>257.27995853905702</v>
+        <v>249.8415970282787</v>
       </c>
       <c r="AH326">
-        <v>2.9295952218764385E-4</v>
+        <v>2.7688068691834839E-4</v>
       </c>
       <c r="AI326" s="1">
-        <v>3.526664020663558E-5</v>
+        <v>2.7584961832633554E-6</v>
       </c>
       <c r="AJ326">
-        <v>292.95952218764381</v>
+        <v>276.88068691834837</v>
       </c>
       <c r="AK326" s="1">
-        <v>35.266640206635536</v>
+        <v>2.7584961832633463</v>
       </c>
       <c r="AL326">
-        <v>1.8063749155452192E-4</v>
+        <v>1.9004039094712178E-4</v>
       </c>
       <c r="AM326" s="1">
-        <v>3.2318933405671499E-5</v>
+        <v>2.8453406045684669E-5</v>
       </c>
       <c r="AN326">
-        <v>180.63749155452194</v>
+        <v>190.04039094712175</v>
       </c>
       <c r="AO326">
-        <v>32.318933405671487</v>
+        <v>28.453406045684904</v>
       </c>
       <c r="AP326">
-        <v>2.3696498580185469E-4</v>
+        <v>2.3781483570648493E-4</v>
       </c>
       <c r="AQ326">
-        <v>2.8729709964191277E-5</v>
+        <v>1.7008408972704847E-5</v>
       </c>
       <c r="AR326">
-        <v>236.96498580185465</v>
+        <v>237.81483570648496</v>
       </c>
       <c r="AS326">
-        <v>28.729709964191265</v>
+        <v>17.008408972704881</v>
       </c>
     </row>
     <row r="327" spans="1:45" x14ac:dyDescent="0.3">
@@ -46758,130 +46752,130 @@
         <v>333</v>
       </c>
       <c r="D327">
-        <v>1833193</v>
+        <v>1182691</v>
       </c>
       <c r="E327">
-        <v>1.8331930000000001</v>
+        <v>1.1826909999999999</v>
       </c>
       <c r="F327">
-        <v>504</v>
+        <v>132</v>
       </c>
       <c r="G327">
-        <v>1612516</v>
+        <v>1341504</v>
       </c>
       <c r="H327">
-        <v>1.6125160000000001</v>
+        <v>1.341504</v>
       </c>
       <c r="I327">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="J327">
-        <v>2.7493013556128567E-4</v>
+        <v>1.116098795036066E-4</v>
       </c>
       <c r="K327">
-        <v>274.93013556128568</v>
+        <v>111.60987950360661</v>
       </c>
       <c r="L327">
-        <v>1.6992079458436383E-4</v>
+        <v>2.0499379800582033E-4</v>
       </c>
       <c r="M327">
-        <v>169.92079458436382</v>
+        <v>204.99379800582034</v>
       </c>
       <c r="N327">
-        <v>3445709</v>
+        <v>2524195</v>
       </c>
       <c r="O327">
-        <v>3.4457089999999999</v>
+        <v>2.5241949999999997</v>
       </c>
       <c r="P327">
-        <v>778</v>
+        <v>407</v>
       </c>
       <c r="Q327">
-        <v>2.2578807438469121E-4</v>
+        <v>1.6123952388781375E-4</v>
       </c>
       <c r="R327">
-        <v>225.78807438469121</v>
+        <v>161.23952388781376</v>
       </c>
       <c r="S327">
-        <v>1699953</v>
+        <v>1515443</v>
       </c>
       <c r="T327">
-        <v>1.699953</v>
+        <v>1.5154430000000001</v>
       </c>
       <c r="U327">
-        <v>474</v>
+        <v>192</v>
       </c>
       <c r="V327">
-        <v>1241911</v>
+        <v>1225901</v>
       </c>
       <c r="W327">
-        <v>1.241911</v>
+        <v>1.2259009999999999</v>
       </c>
       <c r="X327">
-        <v>261</v>
+        <v>315</v>
       </c>
       <c r="Y327">
-        <v>2.7883123827541112E-4</v>
+        <v>1.2669562629541328E-4</v>
       </c>
       <c r="Z327">
-        <v>278.83123827541112</v>
+        <v>126.69562629541328</v>
       </c>
       <c r="AA327">
-        <v>2.101599873098797E-4</v>
+        <v>2.5695386495320582E-4</v>
       </c>
       <c r="AB327">
-        <v>210.15998730987968</v>
+        <v>256.95386495320588</v>
       </c>
       <c r="AC327">
-        <v>2941864</v>
+        <v>2741344</v>
       </c>
       <c r="AD327">
-        <v>2.9418639999999998</v>
+        <v>2.7413439999999998</v>
       </c>
       <c r="AE327">
-        <v>735</v>
+        <v>507</v>
       </c>
       <c r="AF327">
-        <v>2.4984159702827864E-4</v>
+        <v>1.8494577842109565E-4</v>
       </c>
       <c r="AG327">
-        <v>249.8415970282787</v>
+        <v>184.94577842109564</v>
       </c>
       <c r="AH327">
-        <v>2.7688068691834839E-4</v>
+        <v>1.1915275289950994E-4</v>
       </c>
       <c r="AI327" s="1">
-        <v>2.7584961832633554E-6</v>
+        <v>1.0667233855749708E-5</v>
       </c>
       <c r="AJ327">
-        <v>276.88068691834837</v>
+        <v>119.15275289950995</v>
       </c>
       <c r="AK327" s="1">
-        <v>2.7584961832633463</v>
+        <v>10.6672338557497</v>
       </c>
       <c r="AL327">
-        <v>1.9004039094712178E-4</v>
+        <v>2.3097383147951308E-4</v>
       </c>
       <c r="AM327" s="1">
-        <v>2.8453406045684669E-5</v>
+        <v>3.6741315689403281E-5</v>
       </c>
       <c r="AN327">
-        <v>190.04039094712175</v>
+        <v>230.97383147951311</v>
       </c>
       <c r="AO327">
-        <v>28.453406045684904</v>
+        <v>36.741315689403166</v>
       </c>
       <c r="AP327">
-        <v>2.3781483570648493E-4</v>
+        <v>1.730926511544547E-4</v>
       </c>
       <c r="AQ327">
-        <v>1.7008408972704847E-5</v>
+        <v>1.676285333701796E-5</v>
       </c>
       <c r="AR327">
-        <v>237.81483570648496</v>
+        <v>173.0926511544547</v>
       </c>
       <c r="AS327">
-        <v>17.008408972704881</v>
+        <v>16.762853337017951</v>
       </c>
     </row>
     <row r="328" spans="1:45" x14ac:dyDescent="0.3">
@@ -46895,130 +46889,130 @@
         <v>334</v>
       </c>
       <c r="D328">
-        <v>1182691</v>
+        <v>1737874</v>
       </c>
       <c r="E328">
-        <v>1.1826909999999999</v>
+        <v>1.7378739999999999</v>
       </c>
       <c r="F328">
-        <v>132</v>
+        <v>457</v>
       </c>
       <c r="G328">
-        <v>1341504</v>
+        <v>1425442</v>
       </c>
       <c r="H328">
-        <v>1.341504</v>
+        <v>1.4254420000000001</v>
       </c>
       <c r="I328">
-        <v>275</v>
+        <v>208</v>
       </c>
       <c r="J328">
-        <v>1.116098795036066E-4</v>
+        <v>2.6296497904911405E-4</v>
       </c>
       <c r="K328">
-        <v>111.60987950360661</v>
+        <v>262.96497904911405</v>
       </c>
       <c r="L328">
-        <v>2.0499379800582033E-4</v>
+        <v>1.4591965158877035E-4</v>
       </c>
       <c r="M328">
-        <v>204.99379800582034</v>
+        <v>145.91965158877036</v>
       </c>
       <c r="N328">
-        <v>2524195</v>
+        <v>3163316</v>
       </c>
       <c r="O328">
-        <v>2.5241949999999997</v>
+        <v>3.163316</v>
       </c>
       <c r="P328">
-        <v>407</v>
+        <v>665</v>
       </c>
       <c r="Q328">
-        <v>1.6123952388781375E-4</v>
+        <v>2.1022243746751827E-4</v>
       </c>
       <c r="R328">
-        <v>161.23952388781376</v>
+        <v>210.22243746751826</v>
       </c>
       <c r="S328">
-        <v>1515443</v>
+        <v>1650379</v>
       </c>
       <c r="T328">
-        <v>1.5154430000000001</v>
+        <v>1.650379</v>
       </c>
       <c r="U328">
-        <v>192</v>
+        <v>492</v>
       </c>
       <c r="V328">
-        <v>1225901</v>
+        <v>932866</v>
       </c>
       <c r="W328">
-        <v>1.2259009999999999</v>
+        <v>0.93286599999999997</v>
       </c>
       <c r="X328">
-        <v>315</v>
+        <v>173</v>
       </c>
       <c r="Y328">
-        <v>1.2669562629541328E-4</v>
+        <v>2.981133424504311E-4</v>
       </c>
       <c r="Z328">
-        <v>126.69562629541328</v>
+        <v>298.11334245043105</v>
       </c>
       <c r="AA328">
-        <v>2.5695386495320582E-4</v>
+        <v>1.8545000032158961E-4</v>
       </c>
       <c r="AB328">
-        <v>256.95386495320588</v>
+        <v>185.45000032158961</v>
       </c>
       <c r="AC328">
-        <v>2741344</v>
+        <v>2583245</v>
       </c>
       <c r="AD328">
-        <v>2.7413439999999998</v>
+        <v>2.5832449999999998</v>
       </c>
       <c r="AE328">
-        <v>507</v>
+        <v>665</v>
       </c>
       <c r="AF328">
-        <v>1.8494577842109565E-4</v>
+        <v>2.5742815722085979E-4</v>
       </c>
       <c r="AG328">
-        <v>184.94577842109564</v>
+        <v>257.42815722085982</v>
       </c>
       <c r="AH328">
-        <v>1.1915275289950994E-4</v>
+        <v>2.8053916074977255E-4</v>
       </c>
       <c r="AI328" s="1">
-        <v>1.0667233855749708E-5</v>
+        <v>2.4853646108680349E-5</v>
       </c>
       <c r="AJ328">
-        <v>119.15275289950995</v>
+        <v>280.53916074977258</v>
       </c>
       <c r="AK328" s="1">
-        <v>10.6672338557497</v>
+        <v>24.853646108680312</v>
       </c>
       <c r="AL328">
-        <v>2.3097383147951308E-4</v>
+        <v>1.6568482595517999E-4</v>
       </c>
       <c r="AM328" s="1">
-        <v>3.6741315689403281E-5</v>
+        <v>2.7952177651645543E-5</v>
       </c>
       <c r="AN328">
-        <v>230.97383147951311</v>
+        <v>165.68482595517997</v>
       </c>
       <c r="AO328">
-        <v>36.741315689403166</v>
+        <v>27.952177651645826</v>
       </c>
       <c r="AP328">
-        <v>1.730926511544547E-4</v>
+        <v>2.3382529734418904E-4</v>
       </c>
       <c r="AQ328">
-        <v>1.676285333701796E-5</v>
+        <v>3.3379484548379543E-5</v>
       </c>
       <c r="AR328">
-        <v>173.0926511544547</v>
+        <v>233.82529734418904</v>
       </c>
       <c r="AS328">
-        <v>16.762853337017951</v>
+        <v>33.37948454837943</v>
       </c>
     </row>
     <row r="329" spans="1:45" x14ac:dyDescent="0.3">
@@ -47032,130 +47026,130 @@
         <v>335</v>
       </c>
       <c r="D329">
-        <v>1773728</v>
+        <v>2189801</v>
       </c>
       <c r="E329">
-        <v>1.773728</v>
+        <v>2.1898010000000001</v>
       </c>
       <c r="F329">
-        <v>377</v>
+        <v>722</v>
       </c>
       <c r="G329">
-        <v>1364665</v>
+        <v>1574621</v>
       </c>
       <c r="H329">
-        <v>1.364665</v>
+        <v>1.574621</v>
       </c>
       <c r="I329">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="J329">
-        <v>2.1254668134009272E-4</v>
+        <v>3.297103252761324E-4</v>
       </c>
       <c r="K329">
-        <v>212.54668134009273</v>
+        <v>329.71032527613238</v>
       </c>
       <c r="L329">
-        <v>1.8979016828305848E-4</v>
+        <v>2.0004813856794746E-4</v>
       </c>
       <c r="M329">
-        <v>189.79016828305848</v>
+        <v>200.04813856794746</v>
       </c>
       <c r="N329">
-        <v>3138393</v>
+        <v>3764422</v>
       </c>
       <c r="O329">
-        <v>3.1383929999999998</v>
+        <v>3.7644220000000002</v>
       </c>
       <c r="P329">
-        <v>636</v>
+        <v>1037</v>
       </c>
       <c r="Q329">
-        <v>2.0265148437432787E-4</v>
+        <v>2.7547389745357986E-4</v>
       </c>
       <c r="R329">
-        <v>202.65148437432791</v>
+        <v>275.47389745357987</v>
       </c>
       <c r="S329">
-        <v>1152448</v>
+        <v>1977359</v>
       </c>
       <c r="T329">
-        <v>1.1524479999999999</v>
+        <v>1.9773590000000001</v>
       </c>
       <c r="U329">
-        <v>294</v>
+        <v>661</v>
       </c>
       <c r="V329">
-        <v>1062547</v>
+        <v>1093897</v>
       </c>
       <c r="W329">
-        <v>1.0625469999999999</v>
+        <v>1.0938969999999999</v>
       </c>
       <c r="X329">
-        <v>272</v>
+        <v>292</v>
       </c>
       <c r="Y329">
-        <v>2.5510912422946634E-4</v>
+        <v>3.3428426502218363E-4</v>
       </c>
       <c r="Z329">
-        <v>255.10912422946635</v>
+        <v>334.2842650221836</v>
       </c>
       <c r="AA329">
-        <v>2.559886762656146E-4</v>
+        <v>2.6693555243318155E-4</v>
       </c>
       <c r="AB329">
-        <v>255.98867626561463</v>
+        <v>266.93555243318156</v>
       </c>
       <c r="AC329">
-        <v>2214995</v>
+        <v>3071256</v>
       </c>
       <c r="AD329">
-        <v>2.214995</v>
+        <v>3.071256</v>
       </c>
       <c r="AE329">
-        <v>566</v>
+        <v>953</v>
       </c>
       <c r="AF329">
-        <v>2.5553105086015997E-4</v>
+        <v>3.1029650410125369E-4</v>
       </c>
       <c r="AG329">
-        <v>255.53105086015995</v>
+        <v>310.29650410125367</v>
       </c>
       <c r="AH329">
-        <v>2.3382790278477953E-4</v>
+        <v>3.3199729514915804E-4</v>
       </c>
       <c r="AI329" s="1">
-        <v>3.0096191990941236E-5</v>
+        <v>3.234263811171496E-6</v>
       </c>
       <c r="AJ329">
-        <v>233.82790278477955</v>
+        <v>331.99729514915799</v>
       </c>
       <c r="AK329" s="1">
-        <v>30.096191990941232</v>
+        <v>3.2342638111714956</v>
       </c>
       <c r="AL329">
-        <v>2.2288942227433652E-4</v>
+        <v>2.334918455005645E-4</v>
       </c>
       <c r="AM329" s="1">
-        <v>4.6809413898897224E-5</v>
+        <v>4.7296543920138126E-5</v>
       </c>
       <c r="AN329">
-        <v>222.88942227433654</v>
+        <v>233.49184550056452</v>
       </c>
       <c r="AO329">
-        <v>46.809413898897468</v>
+        <v>47.29654392013812</v>
       </c>
       <c r="AP329">
-        <v>2.2909126761724391E-4</v>
+        <v>2.9288520077741677E-4</v>
       </c>
       <c r="AQ329">
-        <v>3.7391500048336771E-5</v>
+        <v>2.4623301299161911E-5</v>
       </c>
       <c r="AR329">
-        <v>229.09126761724394</v>
+        <v>292.8852007774168</v>
       </c>
       <c r="AS329">
-        <v>37.39150004833661</v>
+        <v>24.623301299161898</v>
       </c>
     </row>
     <row r="330" spans="1:45" x14ac:dyDescent="0.3">
@@ -47169,130 +47163,130 @@
         <v>336</v>
       </c>
       <c r="D330">
-        <v>1737874</v>
+        <v>1491033</v>
       </c>
       <c r="E330">
-        <v>1.7378739999999999</v>
+        <v>1.4910330000000001</v>
       </c>
       <c r="F330">
-        <v>457</v>
+        <v>498</v>
       </c>
       <c r="G330">
-        <v>1425442</v>
+        <v>1163741</v>
       </c>
       <c r="H330">
-        <v>1.4254420000000001</v>
+        <v>1.1637409999999999</v>
       </c>
       <c r="I330">
-        <v>208</v>
+        <v>331</v>
       </c>
       <c r="J330">
-        <v>2.6296497904911405E-4</v>
+        <v>3.339966318652907E-4</v>
       </c>
       <c r="K330">
-        <v>262.96497904911405</v>
+        <v>333.99663186529068</v>
       </c>
       <c r="L330">
-        <v>1.4591965158877035E-4</v>
+        <v>2.8442754874151552E-4</v>
       </c>
       <c r="M330">
-        <v>145.91965158877036</v>
+        <v>284.42754874151552</v>
       </c>
       <c r="N330">
-        <v>3163316</v>
+        <v>2654774</v>
       </c>
       <c r="O330">
-        <v>3.163316</v>
+        <v>2.6547739999999997</v>
       </c>
       <c r="P330">
-        <v>665</v>
+        <v>829</v>
       </c>
       <c r="Q330">
-        <v>2.1022243746751827E-4</v>
+        <v>3.1226763558781277E-4</v>
       </c>
       <c r="R330">
-        <v>210.22243746751826</v>
+        <v>312.26763558781278</v>
       </c>
       <c r="S330">
-        <v>1650379</v>
+        <v>1225104</v>
       </c>
       <c r="T330">
-        <v>1.650379</v>
+        <v>1.225104</v>
       </c>
       <c r="U330">
-        <v>492</v>
+        <v>418</v>
       </c>
       <c r="V330">
-        <v>932866</v>
+        <v>869691</v>
       </c>
       <c r="W330">
-        <v>0.93286599999999997</v>
+        <v>0.86969099999999999</v>
       </c>
       <c r="X330">
-        <v>173</v>
+        <v>358</v>
       </c>
       <c r="Y330">
-        <v>2.981133424504311E-4</v>
+        <v>3.4119552299233371E-4</v>
       </c>
       <c r="Z330">
-        <v>298.11334245043105</v>
+        <v>341.19552299233374</v>
       </c>
       <c r="AA330">
-        <v>1.8545000032158961E-4</v>
+        <v>4.1164045620800953E-4</v>
       </c>
       <c r="AB330">
-        <v>185.45000032158961</v>
+        <v>411.64045620800954</v>
       </c>
       <c r="AC330">
-        <v>2583245</v>
+        <v>2094795</v>
       </c>
       <c r="AD330">
-        <v>2.5832449999999998</v>
+        <v>2.094795</v>
       </c>
       <c r="AE330">
-        <v>665</v>
+        <v>776</v>
       </c>
       <c r="AF330">
-        <v>2.5742815722085979E-4</v>
+        <v>3.7044197642251391E-4</v>
       </c>
       <c r="AG330">
-        <v>257.42815722085982</v>
+        <v>370.4419764225139</v>
       </c>
       <c r="AH330">
-        <v>2.8053916074977255E-4</v>
+        <v>3.3759607742881218E-4</v>
       </c>
       <c r="AI330" s="1">
-        <v>2.4853646108680349E-5</v>
+        <v>5.0903847329557832E-6</v>
       </c>
       <c r="AJ330">
-        <v>280.53916074977258</v>
+        <v>337.59607742881224</v>
       </c>
       <c r="AK330" s="1">
-        <v>24.853646108680312</v>
+        <v>5.0903847329558118</v>
       </c>
       <c r="AL330">
-        <v>1.6568482595517999E-4</v>
+        <v>3.4803400247476252E-4</v>
       </c>
       <c r="AM330" s="1">
-        <v>2.7952177651645543E-5</v>
+        <v>8.9953109524014692E-5</v>
       </c>
       <c r="AN330">
-        <v>165.68482595517997</v>
+        <v>348.03400247476253</v>
       </c>
       <c r="AO330">
-        <v>27.952177651645826</v>
+        <v>89.953109524014735</v>
       </c>
       <c r="AP330">
-        <v>2.3382529734418904E-4</v>
+        <v>3.4135480600516331E-4</v>
       </c>
       <c r="AQ330">
-        <v>3.3379484548379543E-5</v>
+        <v>4.1135470895274663E-5</v>
       </c>
       <c r="AR330">
-        <v>233.82529734418904</v>
+        <v>341.35480600516337</v>
       </c>
       <c r="AS330">
-        <v>33.37948454837943</v>
+        <v>41.135470895274651</v>
       </c>
     </row>
     <row r="331" spans="1:45" x14ac:dyDescent="0.3">
@@ -47306,130 +47300,130 @@
         <v>337</v>
       </c>
       <c r="D331">
-        <v>2189801</v>
+        <v>2323840</v>
       </c>
       <c r="E331">
-        <v>2.1898010000000001</v>
+        <v>2.3238400000000001</v>
       </c>
       <c r="F331">
-        <v>722</v>
+        <v>668</v>
       </c>
       <c r="G331">
-        <v>1574621</v>
+        <v>1626600</v>
       </c>
       <c r="H331">
-        <v>1.574621</v>
+        <v>1.6266</v>
       </c>
       <c r="I331">
-        <v>315</v>
+        <v>328</v>
       </c>
       <c r="J331">
-        <v>3.297103252761324E-4</v>
+        <v>2.8745524648857065E-4</v>
       </c>
       <c r="K331">
-        <v>329.71032527613238</v>
+        <v>287.45524648857065</v>
       </c>
       <c r="L331">
-        <v>2.0004813856794746E-4</v>
+        <v>2.0164760850854542E-4</v>
       </c>
       <c r="M331">
-        <v>200.04813856794746</v>
+        <v>201.64760850854543</v>
       </c>
       <c r="N331">
-        <v>3764422</v>
+        <v>3950440</v>
       </c>
       <c r="O331">
-        <v>3.7644220000000002</v>
+        <v>3.9504400000000004</v>
       </c>
       <c r="P331">
-        <v>1037</v>
+        <v>996</v>
       </c>
       <c r="Q331">
-        <v>2.7547389745357986E-4</v>
+        <v>2.5212381405615575E-4</v>
       </c>
       <c r="R331">
-        <v>275.47389745357987</v>
+        <v>252.12381405615574</v>
       </c>
       <c r="S331">
-        <v>1977359</v>
+        <v>1561757</v>
       </c>
       <c r="T331">
-        <v>1.9773590000000001</v>
+        <v>1.5617570000000001</v>
       </c>
       <c r="U331">
-        <v>661</v>
+        <v>529</v>
       </c>
       <c r="V331">
-        <v>1093897</v>
+        <v>1147743</v>
       </c>
       <c r="W331">
-        <v>1.0938969999999999</v>
+        <v>1.147743</v>
       </c>
       <c r="X331">
-        <v>292</v>
+        <v>264</v>
       </c>
       <c r="Y331">
-        <v>3.3428426502218363E-4</v>
+        <v>3.3872106864256093E-4</v>
       </c>
       <c r="Z331">
-        <v>334.2842650221836</v>
+        <v>338.72106864256091</v>
       </c>
       <c r="AA331">
-        <v>2.6693555243318155E-4</v>
+        <v>2.3001665006887432E-4</v>
       </c>
       <c r="AB331">
-        <v>266.93555243318156</v>
+        <v>230.0166500688743</v>
       </c>
       <c r="AC331">
-        <v>3071256</v>
+        <v>2709500</v>
       </c>
       <c r="AD331">
-        <v>3.071256</v>
+        <v>2.7095000000000002</v>
       </c>
       <c r="AE331">
-        <v>953</v>
+        <v>793</v>
       </c>
       <c r="AF331">
-        <v>3.1029650410125369E-4</v>
+        <v>2.9267392507842773E-4</v>
       </c>
       <c r="AG331">
-        <v>310.29650410125367</v>
+        <v>292.67392507842771</v>
       </c>
       <c r="AH331">
-        <v>3.3199729514915804E-4</v>
+        <v>3.1308815756556579E-4</v>
       </c>
       <c r="AI331" s="1">
-        <v>3.234263811171496E-6</v>
+        <v>3.6250410488190063E-5</v>
       </c>
       <c r="AJ331">
-        <v>331.99729514915799</v>
+        <v>313.08815756556578</v>
       </c>
       <c r="AK331" s="1">
-        <v>3.2342638111714956</v>
+        <v>36.250410488190049</v>
       </c>
       <c r="AL331">
-        <v>2.334918455005645E-4</v>
+        <v>2.1583212928870987E-4</v>
       </c>
       <c r="AM331" s="1">
-        <v>4.7296543920138126E-5</v>
+        <v>2.0059941663071557E-5</v>
       </c>
       <c r="AN331">
-        <v>233.49184550056452</v>
+        <v>215.83212928870987</v>
       </c>
       <c r="AO331">
-        <v>47.29654392013812</v>
+        <v>20.059941663071537</v>
       </c>
       <c r="AP331">
-        <v>2.9288520077741677E-4</v>
+        <v>2.7239886956729174E-4</v>
       </c>
       <c r="AQ331">
-        <v>2.4623301299161911E-5</v>
+        <v>2.8673258481715881E-5</v>
       </c>
       <c r="AR331">
-        <v>292.8852007774168</v>
+        <v>272.39886956729174</v>
       </c>
       <c r="AS331">
-        <v>24.623301299161898</v>
+        <v>28.67325848171588</v>
       </c>
     </row>
     <row r="332" spans="1:45" x14ac:dyDescent="0.3">
@@ -47443,130 +47437,130 @@
         <v>338</v>
       </c>
       <c r="D332">
-        <v>1491033</v>
+        <v>1324194</v>
       </c>
       <c r="E332">
-        <v>1.4910330000000001</v>
+        <v>1.3241940000000001</v>
       </c>
       <c r="F332">
-        <v>498</v>
+        <v>410</v>
       </c>
       <c r="G332">
-        <v>1163741</v>
+        <v>1079281</v>
       </c>
       <c r="H332">
-        <v>1.1637409999999999</v>
+        <v>1.0792809999999999</v>
       </c>
       <c r="I332">
-        <v>331</v>
+        <v>259</v>
       </c>
       <c r="J332">
-        <v>3.339966318652907E-4</v>
+        <v>3.0962230609714287E-4</v>
       </c>
       <c r="K332">
-        <v>333.99663186529068</v>
+        <v>309.62230609714283</v>
       </c>
       <c r="L332">
-        <v>2.8442754874151552E-4</v>
+        <v>2.3997457566657802E-4</v>
       </c>
       <c r="M332">
-        <v>284.42754874151552</v>
+        <v>239.97457566657803</v>
       </c>
       <c r="N332">
-        <v>2654774</v>
+        <v>2403475</v>
       </c>
       <c r="O332">
-        <v>2.6547739999999997</v>
+        <v>2.4034750000000003</v>
       </c>
       <c r="P332">
-        <v>829</v>
+        <v>669</v>
       </c>
       <c r="Q332">
-        <v>3.1226763558781277E-4</v>
+        <v>2.7834697677321381E-4</v>
       </c>
       <c r="R332">
-        <v>312.26763558781278</v>
+        <v>278.34697677321378</v>
       </c>
       <c r="S332">
-        <v>1225104</v>
+        <v>1258487</v>
       </c>
       <c r="T332">
-        <v>1.225104</v>
+        <v>1.2584869999999999</v>
       </c>
       <c r="U332">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="V332">
-        <v>869691</v>
+        <v>1008739</v>
       </c>
       <c r="W332">
-        <v>0.86969099999999999</v>
+        <v>1.0087390000000001</v>
       </c>
       <c r="X332">
-        <v>358</v>
+        <v>212</v>
       </c>
       <c r="Y332">
-        <v>3.4119552299233371E-4</v>
+        <v>3.3135026424587622E-4</v>
       </c>
       <c r="Z332">
-        <v>341.19552299233374</v>
+        <v>331.35026424587625</v>
       </c>
       <c r="AA332">
-        <v>4.1164045620800953E-4</v>
+        <v>2.1016338220292859E-4</v>
       </c>
       <c r="AB332">
-        <v>411.64045620800954</v>
+        <v>210.1633822029286</v>
       </c>
       <c r="AC332">
-        <v>2094795</v>
+        <v>2267226</v>
       </c>
       <c r="AD332">
-        <v>2.094795</v>
+        <v>2.267226</v>
       </c>
       <c r="AE332">
-        <v>776</v>
+        <v>629</v>
       </c>
       <c r="AF332">
-        <v>3.7044197642251391E-4</v>
+        <v>2.7743153968770649E-4</v>
       </c>
       <c r="AG332">
-        <v>370.4419764225139</v>
+        <v>277.4315396877065</v>
       </c>
       <c r="AH332">
-        <v>3.3759607742881218E-4</v>
+        <v>3.2048628517150954E-4</v>
       </c>
       <c r="AI332" s="1">
-        <v>5.0903847329557832E-6</v>
+        <v>1.5363986548306852E-5</v>
       </c>
       <c r="AJ332">
-        <v>337.59607742881224</v>
+        <v>320.48628517150951</v>
       </c>
       <c r="AK332" s="1">
-        <v>5.0903847329558118</v>
+        <v>15.363986548306906</v>
       </c>
       <c r="AL332">
-        <v>3.4803400247476252E-4</v>
+        <v>2.2506897893475331E-4</v>
       </c>
       <c r="AM332" s="1">
-        <v>8.9953109524014692E-5</v>
+        <v>2.107969705341059E-5</v>
       </c>
       <c r="AN332">
-        <v>348.03400247476253</v>
+        <v>225.06897893475332</v>
       </c>
       <c r="AO332">
-        <v>89.953109524014735</v>
+        <v>21.079697053410595</v>
       </c>
       <c r="AP332">
-        <v>3.4135480600516331E-4</v>
+        <v>2.7788925823046015E-4</v>
       </c>
       <c r="AQ332">
-        <v>4.1135470895274663E-5</v>
+        <v>6.4731177091187147E-7</v>
       </c>
       <c r="AR332">
-        <v>341.35480600516337</v>
+        <v>277.88925823046014</v>
       </c>
       <c r="AS332">
-        <v>41.135470895274651</v>
+        <v>0.647311770911846</v>
       </c>
     </row>
     <row r="333" spans="1:45" x14ac:dyDescent="0.3">
@@ -47580,130 +47574,130 @@
         <v>339</v>
       </c>
       <c r="D333">
-        <v>2323840</v>
+        <v>1572076</v>
       </c>
       <c r="E333">
-        <v>2.3238400000000001</v>
+        <v>1.572076</v>
       </c>
       <c r="F333">
-        <v>668</v>
+        <v>458</v>
       </c>
       <c r="G333">
-        <v>1626600</v>
+        <v>1345942</v>
       </c>
       <c r="H333">
-        <v>1.6266</v>
+        <v>1.345942</v>
       </c>
       <c r="I333">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="J333">
-        <v>2.8745524648857065E-4</v>
+        <v>2.9133451563410418E-4</v>
       </c>
       <c r="K333">
-        <v>287.45524648857065</v>
+        <v>291.33451563410421</v>
       </c>
       <c r="L333">
-        <v>2.0164760850854542E-4</v>
+        <v>2.2660709005291462E-4</v>
       </c>
       <c r="M333">
-        <v>201.64760850854543</v>
+        <v>226.60709005291463</v>
       </c>
       <c r="N333">
-        <v>3950440</v>
+        <v>2918018</v>
       </c>
       <c r="O333">
-        <v>3.9504400000000004</v>
+        <v>2.918018</v>
       </c>
       <c r="P333">
-        <v>996</v>
+        <v>763</v>
       </c>
       <c r="Q333">
-        <v>2.5212381405615575E-4</v>
+        <v>2.6147885311194105E-4</v>
       </c>
       <c r="R333">
-        <v>252.12381405615574</v>
+        <v>261.47885311194108</v>
       </c>
       <c r="S333">
-        <v>1561757</v>
+        <v>1618912</v>
       </c>
       <c r="T333">
-        <v>1.5617570000000001</v>
+        <v>1.6189119999999999</v>
       </c>
       <c r="U333">
-        <v>529</v>
+        <v>522</v>
       </c>
       <c r="V333">
-        <v>1147743</v>
+        <v>1080597</v>
       </c>
       <c r="W333">
-        <v>1.147743</v>
+        <v>1.080597</v>
       </c>
       <c r="X333">
-        <v>264</v>
+        <v>253</v>
       </c>
       <c r="Y333">
-        <v>3.3872106864256093E-4</v>
+        <v>3.2243877369492598E-4</v>
       </c>
       <c r="Z333">
-        <v>338.72106864256091</v>
+        <v>322.438773694926</v>
       </c>
       <c r="AA333">
-        <v>2.3001665006887432E-4</v>
+        <v>2.3412983748798119E-4</v>
       </c>
       <c r="AB333">
-        <v>230.0166500688743</v>
+        <v>234.12983748798118</v>
       </c>
       <c r="AC333">
-        <v>2709500</v>
+        <v>2699509</v>
       </c>
       <c r="AD333">
-        <v>2.7095000000000002</v>
+        <v>2.6995089999999999</v>
       </c>
       <c r="AE333">
-        <v>793</v>
+        <v>775</v>
       </c>
       <c r="AF333">
-        <v>2.9267392507842773E-4</v>
+        <v>2.8708924474784116E-4</v>
       </c>
       <c r="AG333">
-        <v>292.67392507842771</v>
+        <v>287.08924474784118</v>
       </c>
       <c r="AH333">
-        <v>3.1308815756556579E-4</v>
+        <v>3.0688664466451505E-4</v>
       </c>
       <c r="AI333" s="1">
-        <v>3.6250410488190063E-5</v>
+        <v>2.1994031798583423E-5</v>
       </c>
       <c r="AJ333">
-        <v>313.08815756556578</v>
+        <v>306.88664466451507</v>
       </c>
       <c r="AK333" s="1">
-        <v>36.250410488190049</v>
+        <v>21.994031798583421</v>
       </c>
       <c r="AL333">
-        <v>2.1583212928870987E-4</v>
+        <v>2.3036846377044791E-4</v>
       </c>
       <c r="AM333" s="1">
-        <v>2.0059941663071557E-5</v>
+        <v>5.3193857244892798E-6</v>
       </c>
       <c r="AN333">
-        <v>215.83212928870987</v>
+        <v>230.3684637704479</v>
       </c>
       <c r="AO333">
-        <v>20.059941663071537</v>
+        <v>5.3193857244892637</v>
       </c>
       <c r="AP333">
-        <v>2.7239886956729174E-4</v>
+        <v>2.7428404892989114E-4</v>
       </c>
       <c r="AQ333">
-        <v>2.8673258481715881E-5</v>
+        <v>1.8109281594588205E-5</v>
       </c>
       <c r="AR333">
-        <v>272.39886956729174</v>
+        <v>274.28404892989113</v>
       </c>
       <c r="AS333">
-        <v>28.67325848171588</v>
+        <v>18.1092815945882</v>
       </c>
     </row>
     <row r="334" spans="1:45" x14ac:dyDescent="0.3">
@@ -47717,130 +47711,130 @@
         <v>340</v>
       </c>
       <c r="D334">
-        <v>1324194</v>
+        <v>1901120</v>
       </c>
       <c r="E334">
-        <v>1.3241940000000001</v>
+        <v>1.9011199999999999</v>
       </c>
       <c r="F334">
-        <v>410</v>
+        <v>433</v>
       </c>
       <c r="G334">
-        <v>1079281</v>
+        <v>1288021</v>
       </c>
       <c r="H334">
-        <v>1.0792809999999999</v>
+        <v>1.2880210000000001</v>
       </c>
       <c r="I334">
-        <v>259</v>
+        <v>312</v>
       </c>
       <c r="J334">
-        <v>3.0962230609714287E-4</v>
+        <v>2.27760478034001E-4</v>
       </c>
       <c r="K334">
-        <v>309.62230609714283</v>
+        <v>227.76047803400101</v>
       </c>
       <c r="L334">
-        <v>2.3997457566657802E-4</v>
+        <v>2.4223207540870841E-4</v>
       </c>
       <c r="M334">
-        <v>239.97457566657803</v>
+        <v>242.2320754087084</v>
       </c>
       <c r="N334">
-        <v>2403475</v>
+        <v>3189141</v>
       </c>
       <c r="O334">
-        <v>2.4034750000000003</v>
+        <v>3.1891410000000002</v>
       </c>
       <c r="P334">
-        <v>669</v>
+        <v>745</v>
       </c>
       <c r="Q334">
-        <v>2.7834697677321381E-4</v>
+        <v>2.33605224729794E-4</v>
       </c>
       <c r="R334">
-        <v>278.34697677321378</v>
+        <v>233.605224729794</v>
       </c>
       <c r="S334">
-        <v>1258487</v>
+        <v>1823142</v>
       </c>
       <c r="T334">
-        <v>1.2584869999999999</v>
+        <v>1.823142</v>
       </c>
       <c r="U334">
-        <v>417</v>
+        <v>457</v>
       </c>
       <c r="V334">
-        <v>1008739</v>
+        <v>1054085</v>
       </c>
       <c r="W334">
-        <v>1.0087390000000001</v>
+        <v>1.0540849999999999</v>
       </c>
       <c r="X334">
-        <v>212</v>
+        <v>268</v>
       </c>
       <c r="Y334">
-        <v>3.3135026424587622E-4</v>
+        <v>2.5066615765530057E-4</v>
       </c>
       <c r="Z334">
-        <v>331.35026424587625</v>
+        <v>250.66615765530057</v>
       </c>
       <c r="AA334">
-        <v>2.1016338220292859E-4</v>
+        <v>2.5424894576813064E-4</v>
       </c>
       <c r="AB334">
-        <v>210.1633822029286</v>
+        <v>254.24894576813068</v>
       </c>
       <c r="AC334">
-        <v>2267226</v>
+        <v>2877227</v>
       </c>
       <c r="AD334">
-        <v>2.267226</v>
+        <v>2.877227</v>
       </c>
       <c r="AE334">
-        <v>629</v>
+        <v>725</v>
       </c>
       <c r="AF334">
-        <v>2.7743153968770649E-4</v>
+        <v>2.5197872812954974E-4</v>
       </c>
       <c r="AG334">
-        <v>277.4315396877065</v>
+        <v>251.97872812954975</v>
       </c>
       <c r="AH334">
-        <v>3.2048628517150954E-4</v>
+        <v>2.3921331784465077E-4</v>
       </c>
       <c r="AI334" s="1">
-        <v>1.5363986548306852E-5</v>
+        <v>1.6196761387907436E-5</v>
       </c>
       <c r="AJ334">
-        <v>320.48628517150951</v>
+        <v>239.21331784465079</v>
       </c>
       <c r="AK334" s="1">
-        <v>15.363986548306906</v>
+        <v>16.196761387907426</v>
       </c>
       <c r="AL334">
-        <v>2.2506897893475331E-4</v>
+        <v>2.4824051058841952E-4</v>
       </c>
       <c r="AM334" s="1">
-        <v>2.107969705341059E-5</v>
+        <v>8.4972105197870836E-6</v>
       </c>
       <c r="AN334">
-        <v>225.06897893475332</v>
+        <v>248.24051058841954</v>
       </c>
       <c r="AO334">
-        <v>21.079697053410595</v>
+        <v>8.4972105197871226</v>
       </c>
       <c r="AP334">
-        <v>2.7788925823046015E-4</v>
+        <v>2.4279197642967189E-4</v>
       </c>
       <c r="AQ334">
-        <v>6.4731177091187147E-7</v>
+        <v>1.299202884812137E-5</v>
       </c>
       <c r="AR334">
-        <v>277.88925823046014</v>
+        <v>242.79197642967188</v>
       </c>
       <c r="AS334">
-        <v>0.647311770911846</v>
+        <v>12.992028848121375</v>
       </c>
     </row>
     <row r="335" spans="1:45" x14ac:dyDescent="0.3">
@@ -47854,130 +47848,130 @@
         <v>341</v>
       </c>
       <c r="D335">
-        <v>1572076</v>
+        <v>1667530</v>
       </c>
       <c r="E335">
-        <v>1.572076</v>
+        <v>1.66753</v>
       </c>
       <c r="F335">
-        <v>458</v>
+        <v>485</v>
       </c>
       <c r="G335">
-        <v>1345942</v>
+        <v>1100610</v>
       </c>
       <c r="H335">
-        <v>1.345942</v>
+        <v>1.1006100000000001</v>
       </c>
       <c r="I335">
-        <v>305</v>
+        <v>335</v>
       </c>
       <c r="J335">
-        <v>2.9133451563410418E-4</v>
+        <v>2.9084934004185831E-4</v>
       </c>
       <c r="K335">
-        <v>291.33451563410421</v>
+        <v>290.84934004185834</v>
       </c>
       <c r="L335">
-        <v>2.2660709005291462E-4</v>
+        <v>3.0437666385004679E-4</v>
       </c>
       <c r="M335">
-        <v>226.60709005291463</v>
+        <v>304.37666385004678</v>
       </c>
       <c r="N335">
-        <v>2918018</v>
+        <v>2768140</v>
       </c>
       <c r="O335">
-        <v>2.918018</v>
+        <v>2.7681399999999998</v>
       </c>
       <c r="P335">
-        <v>763</v>
+        <v>820</v>
       </c>
       <c r="Q335">
-        <v>2.6147885311194105E-4</v>
+        <v>2.9622779194693911E-4</v>
       </c>
       <c r="R335">
-        <v>261.47885311194108</v>
+        <v>296.22779194693913</v>
       </c>
       <c r="S335">
-        <v>1618912</v>
+        <v>1337699</v>
       </c>
       <c r="T335">
-        <v>1.6189119999999999</v>
+        <v>1.337699</v>
       </c>
       <c r="U335">
-        <v>522</v>
+        <v>446</v>
       </c>
       <c r="V335">
-        <v>1080597</v>
+        <v>973835</v>
       </c>
       <c r="W335">
-        <v>1.080597</v>
+        <v>0.97383500000000001</v>
       </c>
       <c r="X335">
-        <v>253</v>
+        <v>337</v>
       </c>
       <c r="Y335">
-        <v>3.2243877369492598E-4</v>
+        <v>3.3340833775012164E-4</v>
       </c>
       <c r="Z335">
-        <v>322.438773694926</v>
+        <v>333.40833775012169</v>
       </c>
       <c r="AA335">
-        <v>2.3412983748798119E-4</v>
+        <v>3.4605451642218653E-4</v>
       </c>
       <c r="AB335">
-        <v>234.12983748798118</v>
+        <v>346.05451642218651</v>
       </c>
       <c r="AC335">
-        <v>2699509</v>
+        <v>2311534</v>
       </c>
       <c r="AD335">
-        <v>2.6995089999999999</v>
+        <v>2.311534</v>
       </c>
       <c r="AE335">
-        <v>775</v>
+        <v>783</v>
       </c>
       <c r="AF335">
-        <v>2.8708924474784116E-4</v>
+        <v>3.3873609473189666E-4</v>
       </c>
       <c r="AG335">
-        <v>287.08924474784118</v>
+        <v>338.73609473189669</v>
       </c>
       <c r="AH335">
-        <v>3.0688664466451505E-4</v>
+        <v>3.1212883889598995E-4</v>
       </c>
       <c r="AI335" s="1">
-        <v>2.1994031798583423E-5</v>
+        <v>3.0093755880015736E-5</v>
       </c>
       <c r="AJ335">
-        <v>306.88664466451507</v>
+        <v>312.12883889599004</v>
       </c>
       <c r="AK335" s="1">
-        <v>21.994031798583421</v>
+        <v>30.093755880015749</v>
       </c>
       <c r="AL335">
-        <v>2.3036846377044791E-4</v>
+        <v>3.2521559013611663E-4</v>
       </c>
       <c r="AM335" s="1">
-        <v>5.3193857244892798E-6</v>
+        <v>2.9470692179053197E-5</v>
       </c>
       <c r="AN335">
-        <v>230.3684637704479</v>
+        <v>325.21559013611665</v>
       </c>
       <c r="AO335">
-        <v>5.3193857244892637</v>
+        <v>29.470692179053191</v>
       </c>
       <c r="AP335">
-        <v>2.7428404892989114E-4</v>
+        <v>3.1748194333941786E-4</v>
       </c>
       <c r="AQ335">
-        <v>1.8109281594588205E-5</v>
+        <v>3.005790915597449E-5</v>
       </c>
       <c r="AR335">
-        <v>274.28404892989113</v>
+        <v>317.48194333941791</v>
       </c>
       <c r="AS335">
-        <v>18.1092815945882</v>
+        <v>30.057909155974485</v>
       </c>
     </row>
     <row r="336" spans="1:45" x14ac:dyDescent="0.3">
@@ -47991,130 +47985,130 @@
         <v>342</v>
       </c>
       <c r="D336">
-        <v>1901120</v>
+        <v>1183579</v>
       </c>
       <c r="E336">
-        <v>1.9011199999999999</v>
+        <v>1.1835789999999999</v>
       </c>
       <c r="F336">
-        <v>433</v>
+        <v>310</v>
       </c>
       <c r="G336">
-        <v>1288021</v>
+        <v>1331499</v>
       </c>
       <c r="H336">
-        <v>1.2880210000000001</v>
+        <v>1.331499</v>
       </c>
       <c r="I336">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="J336">
-        <v>2.27760478034001E-4</v>
+        <v>2.6191745544657349E-4</v>
       </c>
       <c r="K336">
-        <v>227.76047803400101</v>
+        <v>261.91745544657351</v>
       </c>
       <c r="L336">
-        <v>2.4223207540870841E-4</v>
+        <v>2.0127690670439859E-4</v>
       </c>
       <c r="M336">
-        <v>242.2320754087084</v>
+        <v>201.27690670439858</v>
       </c>
       <c r="N336">
-        <v>3189141</v>
+        <v>2515078</v>
       </c>
       <c r="O336">
-        <v>3.1891410000000002</v>
+        <v>2.5150779999999999</v>
       </c>
       <c r="P336">
-        <v>745</v>
+        <v>578</v>
       </c>
       <c r="Q336">
-        <v>2.33605224729794E-4</v>
+        <v>2.2981394612811213E-4</v>
       </c>
       <c r="R336">
-        <v>233.605224729794</v>
+        <v>229.81394612811215</v>
       </c>
       <c r="S336">
-        <v>1823142</v>
+        <v>990110</v>
       </c>
       <c r="T336">
-        <v>1.823142</v>
+        <v>0.99011000000000005</v>
       </c>
       <c r="U336">
-        <v>457</v>
+        <v>309</v>
       </c>
       <c r="V336">
-        <v>1054085</v>
+        <v>1098253</v>
       </c>
       <c r="W336">
-        <v>1.0540849999999999</v>
+        <v>1.0982529999999999</v>
       </c>
       <c r="X336">
-        <v>268</v>
+        <v>232</v>
       </c>
       <c r="Y336">
-        <v>2.5066615765530057E-4</v>
+        <v>3.1208653583945218E-4</v>
       </c>
       <c r="Z336">
-        <v>250.66615765530057</v>
+        <v>312.08653583945215</v>
       </c>
       <c r="AA336">
-        <v>2.5424894576813064E-4</v>
+        <v>2.1124458571931967E-4</v>
       </c>
       <c r="AB336">
-        <v>254.24894576813068</v>
+        <v>211.2445857193197</v>
       </c>
       <c r="AC336">
-        <v>2877227</v>
+        <v>2088363</v>
       </c>
       <c r="AD336">
-        <v>2.877227</v>
+        <v>2.0883630000000002</v>
       </c>
       <c r="AE336">
-        <v>725</v>
+        <v>541</v>
       </c>
       <c r="AF336">
-        <v>2.5197872812954974E-4</v>
+        <v>2.5905458007061035E-4</v>
       </c>
       <c r="AG336">
-        <v>251.97872812954975</v>
+        <v>259.05458007061031</v>
       </c>
       <c r="AH336">
-        <v>2.3921331784465077E-4</v>
+        <v>2.8700199564301286E-4</v>
       </c>
       <c r="AI336" s="1">
-        <v>1.6196761387907436E-5</v>
+        <v>3.547489695169758E-5</v>
       </c>
       <c r="AJ336">
-        <v>239.21331784465079</v>
+        <v>287.00199564301283</v>
       </c>
       <c r="AK336" s="1">
-        <v>16.196761387907426</v>
+        <v>35.474896951697552</v>
       </c>
       <c r="AL336">
-        <v>2.4824051058841952E-4</v>
+        <v>2.0626074621185912E-4</v>
       </c>
       <c r="AM336" s="1">
-        <v>8.4972105197870836E-6</v>
+        <v>7.0482134241415419E-6</v>
       </c>
       <c r="AN336">
-        <v>248.24051058841954</v>
+        <v>206.26074621185916</v>
       </c>
       <c r="AO336">
-        <v>8.4972105197871226</v>
+        <v>7.0482134241415677</v>
       </c>
       <c r="AP336">
-        <v>2.4279197642967189E-4</v>
+        <v>2.4443426309936122E-4</v>
       </c>
       <c r="AQ336">
-        <v>1.299202884812137E-5</v>
+        <v>2.0676250546934026E-5</v>
       </c>
       <c r="AR336">
-        <v>242.79197642967188</v>
+        <v>244.43426309936123</v>
       </c>
       <c r="AS336">
-        <v>12.992028848121375</v>
+        <v>20.676250546933982</v>
       </c>
     </row>
     <row r="337" spans="1:45" x14ac:dyDescent="0.3">
@@ -48128,130 +48122,130 @@
         <v>343</v>
       </c>
       <c r="D337">
-        <v>1667530</v>
+        <v>1255363</v>
       </c>
       <c r="E337">
-        <v>1.66753</v>
+        <v>1.255363</v>
       </c>
       <c r="F337">
-        <v>485</v>
+        <v>333</v>
       </c>
       <c r="G337">
-        <v>1100610</v>
+        <v>1275664</v>
       </c>
       <c r="H337">
-        <v>1.1006100000000001</v>
+        <v>1.2756639999999999</v>
       </c>
       <c r="I337">
-        <v>335</v>
+        <v>165</v>
       </c>
       <c r="J337">
-        <v>2.9084934004185831E-4</v>
+        <v>2.6526192025732795E-4</v>
       </c>
       <c r="K337">
-        <v>290.84934004185834</v>
+        <v>265.26192025732797</v>
       </c>
       <c r="L337">
-        <v>3.0437666385004679E-4</v>
+        <v>1.2934440416912291E-4</v>
       </c>
       <c r="M337">
-        <v>304.37666385004678</v>
+        <v>129.34440416912292</v>
       </c>
       <c r="N337">
-        <v>2768140</v>
+        <v>2531027</v>
       </c>
       <c r="O337">
-        <v>2.7681399999999998</v>
+        <v>2.5310269999999999</v>
       </c>
       <c r="P337">
-        <v>820</v>
+        <v>498</v>
       </c>
       <c r="Q337">
-        <v>2.9622779194693911E-4</v>
+        <v>1.9675807488422683E-4</v>
       </c>
       <c r="R337">
-        <v>296.22779194693913</v>
+        <v>196.75807488422686</v>
       </c>
       <c r="S337">
-        <v>1337699</v>
+        <v>1135569</v>
       </c>
       <c r="T337">
-        <v>1.337699</v>
+        <v>1.1355690000000001</v>
       </c>
       <c r="U337">
-        <v>446</v>
+        <v>301</v>
       </c>
       <c r="V337">
-        <v>973835</v>
+        <v>975340</v>
       </c>
       <c r="W337">
-        <v>0.97383500000000001</v>
+        <v>0.97533999999999998</v>
       </c>
       <c r="X337">
-        <v>337</v>
+        <v>157</v>
       </c>
       <c r="Y337">
-        <v>3.3340833775012164E-4</v>
+        <v>2.6506535490137542E-4</v>
       </c>
       <c r="Z337">
-        <v>333.40833775012169</v>
+        <v>265.06535490137543</v>
       </c>
       <c r="AA337">
-        <v>3.4605451642218653E-4</v>
+        <v>1.6096950806898108E-4</v>
       </c>
       <c r="AB337">
-        <v>346.05451642218651</v>
+        <v>160.96950806898107</v>
       </c>
       <c r="AC337">
-        <v>2311534</v>
+        <v>2110909</v>
       </c>
       <c r="AD337">
-        <v>2.311534</v>
+        <v>2.1109089999999999</v>
       </c>
       <c r="AE337">
-        <v>783</v>
+        <v>458</v>
       </c>
       <c r="AF337">
-        <v>3.3873609473189666E-4</v>
+        <v>2.1696814026563911E-4</v>
       </c>
       <c r="AG337">
-        <v>338.73609473189669</v>
+        <v>216.96814026563914</v>
       </c>
       <c r="AH337">
-        <v>3.1212883889598995E-4</v>
+        <v>2.6516363757935168E-4</v>
       </c>
       <c r="AI337" s="1">
-        <v>3.0093755880015736E-5</v>
+        <v>1.3899269614038371E-7</v>
       </c>
       <c r="AJ337">
-        <v>312.12883889599004</v>
+        <v>265.1636375793517</v>
       </c>
       <c r="AK337" s="1">
-        <v>30.093755880015749</v>
+        <v>0.13899269614039103</v>
       </c>
       <c r="AL337">
-        <v>3.2521559013611663E-4</v>
+        <v>1.45156956119052E-4</v>
       </c>
       <c r="AM337" s="1">
-        <v>2.9470692179053197E-5</v>
+        <v>2.236232542331884E-5</v>
       </c>
       <c r="AN337">
-        <v>325.21559013611665</v>
+        <v>145.15695611905198</v>
       </c>
       <c r="AO337">
-        <v>29.470692179053191</v>
+        <v>22.36232542331906</v>
       </c>
       <c r="AP337">
-        <v>3.1748194333941786E-4</v>
+        <v>2.0686310757493296E-4</v>
       </c>
       <c r="AQ337">
-        <v>3.005790915597449E-5</v>
+        <v>1.429067427942011E-5</v>
       </c>
       <c r="AR337">
-        <v>317.48194333941791</v>
+        <v>206.863107574933</v>
       </c>
       <c r="AS337">
-        <v>30.057909155974485</v>
+        <v>14.290674279420111</v>
       </c>
     </row>
     <row r="338" spans="1:45" x14ac:dyDescent="0.3">
@@ -48265,130 +48259,130 @@
         <v>344</v>
       </c>
       <c r="D338">
-        <v>1183579</v>
+        <v>1256172</v>
       </c>
       <c r="E338">
-        <v>1.1835789999999999</v>
+        <v>1.2561720000000001</v>
       </c>
       <c r="F338">
-        <v>310</v>
+        <v>512</v>
       </c>
       <c r="G338">
-        <v>1331499</v>
+        <v>1052491</v>
       </c>
       <c r="H338">
-        <v>1.331499</v>
+        <v>1.0524910000000001</v>
       </c>
       <c r="I338">
-        <v>268</v>
+        <v>393</v>
       </c>
       <c r="J338">
-        <v>2.6191745544657349E-4</v>
+        <v>4.0758749597984991E-4</v>
       </c>
       <c r="K338">
-        <v>261.91745544657351</v>
+        <v>407.58749597984985</v>
       </c>
       <c r="L338">
-        <v>2.0127690670439859E-4</v>
+        <v>3.7339986755231163E-4</v>
       </c>
       <c r="M338">
-        <v>201.27690670439858</v>
+        <v>373.3998675523116</v>
       </c>
       <c r="N338">
-        <v>2515078</v>
+        <v>2308663</v>
       </c>
       <c r="O338">
-        <v>2.5150779999999999</v>
+        <v>2.3086630000000001</v>
       </c>
       <c r="P338">
-        <v>578</v>
+        <v>905</v>
       </c>
       <c r="Q338">
-        <v>2.2981394612811213E-4</v>
+        <v>3.9200177765226019E-4</v>
       </c>
       <c r="R338">
-        <v>229.81394612811215</v>
+        <v>392.00177765226016</v>
       </c>
       <c r="S338">
-        <v>990110</v>
+        <v>968040</v>
       </c>
       <c r="T338">
-        <v>0.99011000000000005</v>
+        <v>0.96804000000000001</v>
       </c>
       <c r="U338">
-        <v>309</v>
+        <v>470</v>
       </c>
       <c r="V338">
-        <v>1098253</v>
+        <v>1002385</v>
       </c>
       <c r="W338">
-        <v>1.0982529999999999</v>
+        <v>1.0023850000000001</v>
       </c>
       <c r="X338">
-        <v>232</v>
+        <v>408</v>
       </c>
       <c r="Y338">
-        <v>3.1208653583945218E-4</v>
+        <v>4.8551712739143012E-4</v>
       </c>
       <c r="Z338">
-        <v>312.08653583945215</v>
+        <v>485.51712739143011</v>
       </c>
       <c r="AA338">
-        <v>2.1124458571931967E-4</v>
+        <v>4.0702923527387183E-4</v>
       </c>
       <c r="AB338">
-        <v>211.2445857193197</v>
+        <v>407.02923527387179</v>
       </c>
       <c r="AC338">
-        <v>2088363</v>
+        <v>1970425</v>
       </c>
       <c r="AD338">
-        <v>2.0883630000000002</v>
+        <v>1.9704250000000001</v>
       </c>
       <c r="AE338">
-        <v>541</v>
+        <v>878</v>
       </c>
       <c r="AF338">
-        <v>2.5905458007061035E-4</v>
+        <v>4.4558914954895518E-4</v>
       </c>
       <c r="AG338">
-        <v>259.05458007061031</v>
+        <v>445.58914954895516</v>
       </c>
       <c r="AH338">
-        <v>2.8700199564301286E-4</v>
+        <v>4.4655231168563999E-4</v>
       </c>
       <c r="AI338" s="1">
-        <v>3.547489695169758E-5</v>
+        <v>5.5104570826496551E-5</v>
       </c>
       <c r="AJ338">
-        <v>287.00199564301283</v>
+        <v>446.55231168564001</v>
       </c>
       <c r="AK338" s="1">
-        <v>35.474896951697552</v>
+        <v>55.104570826496584</v>
       </c>
       <c r="AL338">
-        <v>2.0626074621185912E-4</v>
+        <v>3.9021455141309173E-4</v>
       </c>
       <c r="AM338" s="1">
-        <v>7.0482134241415419E-6</v>
+        <v>2.3779553962931218E-5</v>
       </c>
       <c r="AN338">
-        <v>206.26074621185916</v>
+        <v>390.21455141309173</v>
       </c>
       <c r="AO338">
-        <v>7.0482134241415677</v>
+        <v>23.779553962931203</v>
       </c>
       <c r="AP338">
-        <v>2.4443426309936122E-4</v>
+        <v>4.1879546360060768E-4</v>
       </c>
       <c r="AQ338">
-        <v>2.0676250546934026E-5</v>
+        <v>3.7891994054118445E-5</v>
       </c>
       <c r="AR338">
-        <v>244.43426309936123</v>
+        <v>418.79546360060766</v>
       </c>
       <c r="AS338">
-        <v>20.676250546933982</v>
+        <v>37.891994054118463</v>
       </c>
     </row>
     <row r="339" spans="1:45" x14ac:dyDescent="0.3">
@@ -48402,130 +48396,130 @@
         <v>345</v>
       </c>
       <c r="D339">
-        <v>1255363</v>
+        <v>1434584</v>
       </c>
       <c r="E339">
-        <v>1.255363</v>
+        <v>1.4345840000000001</v>
       </c>
       <c r="F339">
-        <v>333</v>
+        <v>465</v>
       </c>
       <c r="G339">
-        <v>1275664</v>
+        <v>1598244</v>
       </c>
       <c r="H339">
-        <v>1.2756639999999999</v>
+        <v>1.598244</v>
       </c>
       <c r="I339">
-        <v>165</v>
+        <v>362</v>
       </c>
       <c r="J339">
-        <v>2.6526192025732795E-4</v>
+        <v>3.2413577734033004E-4</v>
       </c>
       <c r="K339">
-        <v>265.26192025732797</v>
+        <v>324.13577734032998</v>
       </c>
       <c r="L339">
-        <v>1.2934440416912291E-4</v>
+        <v>2.2649858219395786E-4</v>
       </c>
       <c r="M339">
-        <v>129.34440416912292</v>
+        <v>226.49858219395787</v>
       </c>
       <c r="N339">
-        <v>2531027</v>
+        <v>3032828</v>
       </c>
       <c r="O339">
-        <v>2.5310269999999999</v>
+        <v>3.0328280000000003</v>
       </c>
       <c r="P339">
-        <v>498</v>
+        <v>827</v>
       </c>
       <c r="Q339">
-        <v>1.9675807488422683E-4</v>
+        <v>2.7268278979223351E-4</v>
       </c>
       <c r="R339">
-        <v>196.75807488422686</v>
+        <v>272.68278979223351</v>
       </c>
       <c r="S339">
-        <v>1135569</v>
+        <v>1098989</v>
       </c>
       <c r="T339">
-        <v>1.1355690000000001</v>
+        <v>1.098989</v>
       </c>
       <c r="U339">
-        <v>301</v>
+        <v>394</v>
       </c>
       <c r="V339">
-        <v>975340</v>
+        <v>1223271</v>
       </c>
       <c r="W339">
-        <v>0.97533999999999998</v>
+        <v>1.223271</v>
       </c>
       <c r="X339">
-        <v>157</v>
+        <v>357</v>
       </c>
       <c r="Y339">
-        <v>2.6506535490137542E-4</v>
+        <v>3.5851132267929886E-4</v>
       </c>
       <c r="Z339">
-        <v>265.06535490137543</v>
+        <v>358.51132267929887</v>
       </c>
       <c r="AA339">
-        <v>1.6096950806898108E-4</v>
+        <v>2.9184048342517725E-4</v>
       </c>
       <c r="AB339">
-        <v>160.96950806898107</v>
+        <v>291.84048342517724</v>
       </c>
       <c r="AC339">
-        <v>2110909</v>
+        <v>2322260</v>
       </c>
       <c r="AD339">
-        <v>2.1109089999999999</v>
+        <v>2.32226</v>
       </c>
       <c r="AE339">
-        <v>458</v>
+        <v>751</v>
       </c>
       <c r="AF339">
-        <v>2.1696814026563911E-4</v>
+        <v>3.2339186826625785E-4</v>
       </c>
       <c r="AG339">
-        <v>216.96814026563914</v>
+        <v>323.39186826625786</v>
       </c>
       <c r="AH339">
-        <v>2.6516363757935168E-4</v>
+        <v>3.4132355000981442E-4</v>
       </c>
       <c r="AI339" s="1">
-        <v>1.3899269614038371E-7</v>
+        <v>2.4307181216170467E-5</v>
       </c>
       <c r="AJ339">
-        <v>265.1636375793517</v>
+        <v>341.32355000981443</v>
       </c>
       <c r="AK339" s="1">
-        <v>0.13899269614039103</v>
+        <v>24.30718121617052</v>
       </c>
       <c r="AL339">
-        <v>1.45156956119052E-4</v>
+        <v>2.5916953280956758E-4</v>
       </c>
       <c r="AM339" s="1">
-        <v>2.236232542331884E-5</v>
+        <v>4.6203701456216847E-5</v>
       </c>
       <c r="AN339">
-        <v>145.15695611905198</v>
+        <v>259.16953280956756</v>
       </c>
       <c r="AO339">
-        <v>22.36232542331906</v>
+        <v>46.203701456216983</v>
       </c>
       <c r="AP339">
-        <v>2.0686310757493296E-4</v>
+        <v>2.9803732902924571E-4</v>
       </c>
       <c r="AQ339">
-        <v>1.429067427942011E-5</v>
+        <v>3.5856733256703393E-5</v>
       </c>
       <c r="AR339">
-        <v>206.863107574933</v>
+        <v>298.03732902924571</v>
       </c>
       <c r="AS339">
-        <v>14.290674279420111</v>
+        <v>35.856733256703407</v>
       </c>
     </row>
     <row r="340" spans="1:45" x14ac:dyDescent="0.3">
@@ -48539,130 +48533,130 @@
         <v>346</v>
       </c>
       <c r="D340">
-        <v>1256172</v>
+        <v>1594034</v>
       </c>
       <c r="E340">
-        <v>1.2561720000000001</v>
+        <v>1.594034</v>
       </c>
       <c r="F340">
-        <v>512</v>
+        <v>428</v>
       </c>
       <c r="G340">
-        <v>1052491</v>
+        <v>1368401</v>
       </c>
       <c r="H340">
-        <v>1.0524910000000001</v>
+        <v>1.368401</v>
       </c>
       <c r="I340">
-        <v>393</v>
+        <v>227</v>
       </c>
       <c r="J340">
-        <v>4.0758749597984991E-4</v>
+        <v>2.6850117375162635E-4</v>
       </c>
       <c r="K340">
-        <v>407.58749597984985</v>
+        <v>268.50117375162637</v>
       </c>
       <c r="L340">
-        <v>3.7339986755231163E-4</v>
+        <v>1.6588704626787032E-4</v>
       </c>
       <c r="M340">
-        <v>373.3998675523116</v>
+        <v>165.88704626787032</v>
       </c>
       <c r="N340">
-        <v>2308663</v>
+        <v>2962435</v>
       </c>
       <c r="O340">
-        <v>2.3086630000000001</v>
+        <v>2.9624350000000002</v>
       </c>
       <c r="P340">
-        <v>905</v>
+        <v>655</v>
       </c>
       <c r="Q340">
-        <v>3.9200177765226019E-4</v>
+        <v>2.2110189759437759E-4</v>
       </c>
       <c r="R340">
-        <v>392.00177765226016</v>
+        <v>221.10189759437759</v>
       </c>
       <c r="S340">
-        <v>968040</v>
+        <v>1096963</v>
       </c>
       <c r="T340">
-        <v>0.96804000000000001</v>
+        <v>1.0969629999999999</v>
       </c>
       <c r="U340">
-        <v>470</v>
+        <v>356</v>
       </c>
       <c r="V340">
-        <v>1002385</v>
+        <v>1366286</v>
       </c>
       <c r="W340">
-        <v>1.0023850000000001</v>
+        <v>1.3662859999999999</v>
       </c>
       <c r="X340">
-        <v>408</v>
+        <v>259</v>
       </c>
       <c r="Y340">
-        <v>4.8551712739143012E-4</v>
+        <v>3.2453236800147314E-4</v>
       </c>
       <c r="Z340">
-        <v>485.51712739143011</v>
+        <v>324.53236800147317</v>
       </c>
       <c r="AA340">
-        <v>4.0702923527387183E-4</v>
+        <v>1.8956499590861651E-4</v>
       </c>
       <c r="AB340">
-        <v>407.02923527387179</v>
+        <v>189.56499590861651</v>
       </c>
       <c r="AC340">
-        <v>1970425</v>
+        <v>2463249</v>
       </c>
       <c r="AD340">
-        <v>1.9704250000000001</v>
+        <v>2.4632489999999998</v>
       </c>
       <c r="AE340">
-        <v>878</v>
+        <v>615</v>
       </c>
       <c r="AF340">
-        <v>4.4558914954895518E-4</v>
+        <v>2.4967025258104236E-4</v>
       </c>
       <c r="AG340">
-        <v>445.58914954895516</v>
+        <v>249.67025258104238</v>
       </c>
       <c r="AH340">
-        <v>4.4655231168563999E-4</v>
+        <v>2.9651677087654975E-4</v>
       </c>
       <c r="AI340" s="1">
-        <v>5.5104570826496551E-5</v>
+        <v>3.9620037412047354E-5</v>
       </c>
       <c r="AJ340">
-        <v>446.55231168564001</v>
+        <v>296.5167708765498</v>
       </c>
       <c r="AK340" s="1">
-        <v>55.104570826496584</v>
+        <v>39.620037412047367</v>
       </c>
       <c r="AL340">
-        <v>3.9021455141309173E-4</v>
+        <v>1.7772602108824341E-4</v>
       </c>
       <c r="AM340" s="1">
-        <v>2.3779553962931218E-5</v>
+        <v>1.6742838755565209E-5</v>
       </c>
       <c r="AN340">
-        <v>390.21455141309173</v>
+        <v>177.72602108824341</v>
       </c>
       <c r="AO340">
-        <v>23.779553962931203</v>
+        <v>16.742838755565209</v>
       </c>
       <c r="AP340">
-        <v>4.1879546360060768E-4</v>
+        <v>2.3538607508770997E-4</v>
       </c>
       <c r="AQ340">
-        <v>3.7891994054118445E-5</v>
+        <v>2.0200877538415177E-5</v>
       </c>
       <c r="AR340">
-        <v>418.79546360060766</v>
+        <v>235.38607508770997</v>
       </c>
       <c r="AS340">
-        <v>37.891994054118463</v>
+        <v>20.200877538415192</v>
       </c>
     </row>
     <row r="341" spans="1:45" x14ac:dyDescent="0.3">
@@ -48676,130 +48670,130 @@
         <v>347</v>
       </c>
       <c r="D341">
-        <v>1434584</v>
+        <v>1264333</v>
       </c>
       <c r="E341">
-        <v>1.4345840000000001</v>
+        <v>1.2643329999999999</v>
       </c>
       <c r="F341">
-        <v>465</v>
+        <v>343</v>
       </c>
       <c r="G341">
-        <v>1598244</v>
+        <v>872183</v>
       </c>
       <c r="H341">
-        <v>1.598244</v>
+        <v>0.87218300000000004</v>
       </c>
       <c r="I341">
-        <v>362</v>
+        <v>324</v>
       </c>
       <c r="J341">
-        <v>3.2413577734033004E-4</v>
+        <v>2.7128928850231706E-4</v>
       </c>
       <c r="K341">
-        <v>324.13577734032998</v>
+        <v>271.28928850231705</v>
       </c>
       <c r="L341">
-        <v>2.2649858219395786E-4</v>
+        <v>3.7148167299752463E-4</v>
       </c>
       <c r="M341">
-        <v>226.49858219395787</v>
+        <v>371.48167299752458</v>
       </c>
       <c r="N341">
-        <v>3032828</v>
+        <v>2136516</v>
       </c>
       <c r="O341">
-        <v>3.0328280000000003</v>
+        <v>2.1365159999999999</v>
       </c>
       <c r="P341">
-        <v>827</v>
+        <v>667</v>
       </c>
       <c r="Q341">
-        <v>2.7268278979223351E-4</v>
+        <v>3.1219050079662401E-4</v>
       </c>
       <c r="R341">
-        <v>272.68278979223351</v>
+        <v>312.19050079662406</v>
       </c>
       <c r="S341">
-        <v>1098989</v>
+        <v>1008411</v>
       </c>
       <c r="T341">
-        <v>1.098989</v>
+        <v>1.0084109999999999</v>
       </c>
       <c r="U341">
-        <v>394</v>
+        <v>310</v>
       </c>
       <c r="V341">
-        <v>1223271</v>
+        <v>863906</v>
       </c>
       <c r="W341">
-        <v>1.223271</v>
+        <v>0.86390599999999995</v>
       </c>
       <c r="X341">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Y341">
-        <v>3.5851132267929886E-4</v>
+        <v>3.0741433800305631E-4</v>
       </c>
       <c r="Z341">
-        <v>358.51132267929887</v>
+        <v>307.41433800305629</v>
       </c>
       <c r="AA341">
-        <v>2.9184048342517725E-4</v>
+        <v>4.1555447004650969E-4</v>
       </c>
       <c r="AB341">
-        <v>291.84048342517724</v>
+        <v>415.55447004650972</v>
       </c>
       <c r="AC341">
-        <v>2322260</v>
+        <v>1872317</v>
       </c>
       <c r="AD341">
-        <v>2.32226</v>
+        <v>1.8723169999999998</v>
       </c>
       <c r="AE341">
-        <v>751</v>
+        <v>669</v>
       </c>
       <c r="AF341">
-        <v>3.2339186826625785E-4</v>
+        <v>3.5731128863328163E-4</v>
       </c>
       <c r="AG341">
-        <v>323.39186826625786</v>
+        <v>357.31128863328166</v>
       </c>
       <c r="AH341">
-        <v>3.4132355000981442E-4</v>
+        <v>2.8935181325268668E-4</v>
       </c>
       <c r="AI341" s="1">
-        <v>2.4307181216170467E-5</v>
+        <v>2.5544267472672427E-5</v>
       </c>
       <c r="AJ341">
-        <v>341.32355000981443</v>
+        <v>289.35181325268667</v>
       </c>
       <c r="AK341" s="1">
-        <v>24.30718121617052</v>
+        <v>25.544267472672416</v>
       </c>
       <c r="AL341">
-        <v>2.5916953280956758E-4</v>
+        <v>3.9351807152201719E-4</v>
       </c>
       <c r="AM341" s="1">
-        <v>4.6203701456216847E-5</v>
+        <v>3.1164173659195797E-5</v>
       </c>
       <c r="AN341">
-        <v>259.16953280956756</v>
+        <v>393.51807152201718</v>
       </c>
       <c r="AO341">
-        <v>46.203701456216983</v>
+        <v>31.16417365919585</v>
       </c>
       <c r="AP341">
-        <v>2.9803732902924571E-4</v>
+        <v>3.3475089471495282E-4</v>
       </c>
       <c r="AQ341">
-        <v>3.5856733256703393E-5</v>
+        <v>3.1905215051780095E-5</v>
       </c>
       <c r="AR341">
-        <v>298.03732902924571</v>
+        <v>334.75089471495289</v>
       </c>
       <c r="AS341">
-        <v>35.856733256703407</v>
+        <v>31.905215051780083</v>
       </c>
     </row>
     <row r="342" spans="1:45" x14ac:dyDescent="0.3">
@@ -48813,130 +48807,130 @@
         <v>348</v>
       </c>
       <c r="D342">
-        <v>1594034</v>
+        <v>1901167</v>
       </c>
       <c r="E342">
-        <v>1.594034</v>
+        <v>1.9011670000000001</v>
       </c>
       <c r="F342">
-        <v>428</v>
+        <v>652</v>
       </c>
       <c r="G342">
-        <v>1368401</v>
+        <v>1189868</v>
       </c>
       <c r="H342">
-        <v>1.368401</v>
+        <v>1.1898679999999999</v>
       </c>
       <c r="I342">
-        <v>227</v>
+        <v>243</v>
       </c>
       <c r="J342">
-        <v>2.6850117375162635E-4</v>
+        <v>3.4294725292412502E-4</v>
       </c>
       <c r="K342">
-        <v>268.50117375162637</v>
+        <v>342.947252924125</v>
       </c>
       <c r="L342">
-        <v>1.6588704626787032E-4</v>
+        <v>2.0422433412781922E-4</v>
       </c>
       <c r="M342">
-        <v>165.88704626787032</v>
+        <v>204.22433412781922</v>
       </c>
       <c r="N342">
-        <v>2962435</v>
+        <v>3091035</v>
       </c>
       <c r="O342">
-        <v>2.9624350000000002</v>
+        <v>3.0910349999999998</v>
       </c>
       <c r="P342">
-        <v>655</v>
+        <v>895</v>
       </c>
       <c r="Q342">
-        <v>2.2110189759437759E-4</v>
+        <v>2.8954702874603493E-4</v>
       </c>
       <c r="R342">
-        <v>221.10189759437759</v>
+        <v>289.54702874603493</v>
       </c>
       <c r="S342">
-        <v>1096963</v>
+        <v>1359961</v>
       </c>
       <c r="T342">
-        <v>1.0969629999999999</v>
+        <v>1.359961</v>
       </c>
       <c r="U342">
-        <v>356</v>
+        <v>488</v>
       </c>
       <c r="V342">
-        <v>1366286</v>
+        <v>855923</v>
       </c>
       <c r="W342">
-        <v>1.3662859999999999</v>
+        <v>0.85592299999999999</v>
       </c>
       <c r="X342">
-        <v>259</v>
+        <v>181</v>
       </c>
       <c r="Y342">
-        <v>3.2453236800147314E-4</v>
+        <v>3.5883381949923564E-4</v>
       </c>
       <c r="Z342">
-        <v>324.53236800147317</v>
+        <v>358.83381949923563</v>
       </c>
       <c r="AA342">
-        <v>1.8956499590861651E-4</v>
+        <v>2.1146762033500676E-4</v>
       </c>
       <c r="AB342">
-        <v>189.56499590861651</v>
+        <v>211.46762033500679</v>
       </c>
       <c r="AC342">
-        <v>2463249</v>
+        <v>2215884</v>
       </c>
       <c r="AD342">
-        <v>2.4632489999999998</v>
+        <v>2.215884</v>
       </c>
       <c r="AE342">
-        <v>615</v>
+        <v>669</v>
       </c>
       <c r="AF342">
-        <v>2.4967025258104236E-4</v>
+        <v>3.0191111087042463E-4</v>
       </c>
       <c r="AG342">
-        <v>249.67025258104238</v>
+        <v>301.91111087042464</v>
       </c>
       <c r="AH342">
-        <v>2.9651677087654975E-4</v>
+        <v>3.5089053621168033E-4</v>
       </c>
       <c r="AI342" s="1">
-        <v>3.9620037412047354E-5</v>
+        <v>1.1233498955032262E-5</v>
       </c>
       <c r="AJ342">
-        <v>296.5167708765498</v>
+        <v>350.89053621168034</v>
       </c>
       <c r="AK342" s="1">
-        <v>39.620037412047367</v>
+        <v>11.233498955032275</v>
       </c>
       <c r="AL342">
-        <v>1.7772602108824341E-4</v>
+        <v>2.0784597723141299E-4</v>
       </c>
       <c r="AM342" s="1">
-        <v>1.6742838755565209E-5</v>
+        <v>5.1217767951773022E-6</v>
       </c>
       <c r="AN342">
-        <v>177.72602108824341</v>
+        <v>207.845977231413</v>
       </c>
       <c r="AO342">
-        <v>16.742838755565209</v>
+        <v>5.1217767951773157</v>
       </c>
       <c r="AP342">
-        <v>2.3538607508770997E-4</v>
+        <v>2.9572906980822978E-4</v>
       </c>
       <c r="AQ342">
-        <v>2.0200877538415177E-5</v>
+        <v>8.7427263133033346E-6</v>
       </c>
       <c r="AR342">
-        <v>235.38607508770997</v>
+        <v>295.72906980822978</v>
       </c>
       <c r="AS342">
-        <v>20.200877538415192</v>
+        <v>8.7427263133033382</v>
       </c>
     </row>
     <row r="343" spans="1:45" x14ac:dyDescent="0.3">
@@ -48950,403 +48944,129 @@
         <v>349</v>
       </c>
       <c r="D343">
-        <v>1264333</v>
+        <v>1499217</v>
       </c>
       <c r="E343">
-        <v>1.2643329999999999</v>
+        <v>1.499217</v>
       </c>
       <c r="F343">
-        <v>343</v>
+        <v>519</v>
       </c>
       <c r="G343">
-        <v>872183</v>
+        <v>1468622</v>
       </c>
       <c r="H343">
-        <v>0.87218300000000004</v>
+        <v>1.4686220000000001</v>
       </c>
       <c r="I343">
-        <v>324</v>
+        <v>345</v>
       </c>
       <c r="J343">
-        <v>2.7128928850231706E-4</v>
+        <v>3.4618070632870356E-4</v>
       </c>
       <c r="K343">
-        <v>271.28928850231705</v>
+        <v>346.18070632870359</v>
       </c>
       <c r="L343">
-        <v>3.7148167299752463E-4</v>
+        <v>2.3491408953427091E-4</v>
       </c>
       <c r="M343">
-        <v>371.48167299752458</v>
+        <v>234.91408953427089</v>
       </c>
       <c r="N343">
-        <v>2136516</v>
+        <v>2967839</v>
       </c>
       <c r="O343">
-        <v>2.1365159999999999</v>
+        <v>2.9678390000000001</v>
       </c>
       <c r="P343">
-        <v>667</v>
+        <v>864</v>
       </c>
       <c r="Q343">
-        <v>3.1219050079662401E-4</v>
+        <v>2.911209132301314E-4</v>
       </c>
       <c r="R343">
-        <v>312.19050079662406</v>
+        <v>291.12091323013141</v>
       </c>
       <c r="S343">
-        <v>1008411</v>
+        <v>1209194</v>
       </c>
       <c r="T343">
-        <v>1.0084109999999999</v>
+        <v>1.2091940000000001</v>
       </c>
       <c r="U343">
-        <v>310</v>
+        <v>474</v>
       </c>
       <c r="V343">
-        <v>863906</v>
+        <v>1010648</v>
       </c>
       <c r="W343">
-        <v>0.86390599999999995</v>
+        <v>1.010648</v>
       </c>
       <c r="X343">
-        <v>359</v>
+        <v>280</v>
       </c>
       <c r="Y343">
-        <v>3.0741433800305631E-4</v>
+        <v>3.9199665231550931E-4</v>
       </c>
       <c r="Z343">
-        <v>307.41433800305629</v>
+        <v>391.99665231550932</v>
       </c>
       <c r="AA343">
-        <v>4.1555447004650969E-4</v>
+        <v>2.7704997189921716E-4</v>
       </c>
       <c r="AB343">
-        <v>415.55447004650972</v>
+        <v>277.04997189921716</v>
       </c>
       <c r="AC343">
-        <v>1872317</v>
+        <v>2219842</v>
       </c>
       <c r="AD343">
-        <v>1.8723169999999998</v>
+        <v>2.2198419999999999</v>
       </c>
       <c r="AE343">
-        <v>669</v>
+        <v>754</v>
       </c>
       <c r="AF343">
-        <v>3.5731128863328163E-4</v>
+        <v>3.3966381391108017E-4</v>
       </c>
       <c r="AG343">
-        <v>357.31128863328166</v>
+        <v>339.66381391108018</v>
       </c>
       <c r="AH343">
-        <v>2.8935181325268668E-4</v>
+        <v>3.6908867932210643E-4</v>
       </c>
       <c r="AI343" s="1">
-        <v>2.5544267472672427E-5</v>
+        <v>3.2396766093746938E-5</v>
       </c>
       <c r="AJ343">
-        <v>289.35181325268667</v>
+        <v>369.08867932210649</v>
       </c>
       <c r="AK343" s="1">
-        <v>25.544267472672416</v>
+        <v>32.396766093746919</v>
       </c>
       <c r="AL343">
-        <v>3.9351807152201719E-4</v>
+        <v>2.5598203071674401E-4</v>
       </c>
       <c r="AM343" s="1">
-        <v>3.1164173659195797E-5</v>
+        <v>2.9794568151532151E-5</v>
       </c>
       <c r="AN343">
-        <v>393.51807152201718</v>
+        <v>255.98203071674402</v>
       </c>
       <c r="AO343">
-        <v>31.16417365919585</v>
+        <v>29.794568151532168</v>
       </c>
       <c r="AP343">
-        <v>3.3475089471495282E-4</v>
+        <v>3.1539236357060576E-4</v>
       </c>
       <c r="AQ343">
-        <v>3.1905215051780095E-5</v>
+        <v>3.4325014249963948E-5</v>
       </c>
       <c r="AR343">
-        <v>334.75089471495289</v>
+        <v>315.39236357060577</v>
       </c>
       <c r="AS343">
-        <v>31.905215051780083</v>
-      </c>
-    </row>
-    <row r="344" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A344" t="s">
-        <v>7</v>
-      </c>
-      <c r="B344">
-        <v>2016</v>
-      </c>
-      <c r="C344" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="D344">
-        <v>1901167</v>
-      </c>
-      <c r="E344">
-        <v>1.9011670000000001</v>
-      </c>
-      <c r="F344">
-        <v>652</v>
-      </c>
-      <c r="G344">
-        <v>1189868</v>
-      </c>
-      <c r="H344">
-        <v>1.1898679999999999</v>
-      </c>
-      <c r="I344">
-        <v>243</v>
-      </c>
-      <c r="J344">
-        <v>3.4294725292412502E-4</v>
-      </c>
-      <c r="K344">
-        <v>342.947252924125</v>
-      </c>
-      <c r="L344">
-        <v>2.0422433412781922E-4</v>
-      </c>
-      <c r="M344">
-        <v>204.22433412781922</v>
-      </c>
-      <c r="N344">
-        <v>3091035</v>
-      </c>
-      <c r="O344">
-        <v>3.0910349999999998</v>
-      </c>
-      <c r="P344">
-        <v>895</v>
-      </c>
-      <c r="Q344">
-        <v>2.8954702874603493E-4</v>
-      </c>
-      <c r="R344">
-        <v>289.54702874603493</v>
-      </c>
-      <c r="S344">
-        <v>1359961</v>
-      </c>
-      <c r="T344">
-        <v>1.359961</v>
-      </c>
-      <c r="U344">
-        <v>488</v>
-      </c>
-      <c r="V344">
-        <v>855923</v>
-      </c>
-      <c r="W344">
-        <v>0.85592299999999999</v>
-      </c>
-      <c r="X344">
-        <v>181</v>
-      </c>
-      <c r="Y344">
-        <v>3.5883381949923564E-4</v>
-      </c>
-      <c r="Z344">
-        <v>358.83381949923563</v>
-      </c>
-      <c r="AA344">
-        <v>2.1146762033500676E-4</v>
-      </c>
-      <c r="AB344">
-        <v>211.46762033500679</v>
-      </c>
-      <c r="AC344">
-        <v>2215884</v>
-      </c>
-      <c r="AD344">
-        <v>2.215884</v>
-      </c>
-      <c r="AE344">
-        <v>669</v>
-      </c>
-      <c r="AF344">
-        <v>3.0191111087042463E-4</v>
-      </c>
-      <c r="AG344">
-        <v>301.91111087042464</v>
-      </c>
-      <c r="AH344">
-        <v>3.5089053621168033E-4</v>
-      </c>
-      <c r="AI344" s="1">
-        <v>1.1233498955032262E-5</v>
-      </c>
-      <c r="AJ344">
-        <v>350.89053621168034</v>
-      </c>
-      <c r="AK344" s="1">
-        <v>11.233498955032275</v>
-      </c>
-      <c r="AL344">
-        <v>2.0784597723141299E-4</v>
-      </c>
-      <c r="AM344" s="1">
-        <v>5.1217767951773022E-6</v>
-      </c>
-      <c r="AN344">
-        <v>207.845977231413</v>
-      </c>
-      <c r="AO344">
-        <v>5.1217767951773157</v>
-      </c>
-      <c r="AP344">
-        <v>2.9572906980822978E-4</v>
-      </c>
-      <c r="AQ344">
-        <v>8.7427263133033346E-6</v>
-      </c>
-      <c r="AR344">
-        <v>295.72906980822978</v>
-      </c>
-      <c r="AS344">
-        <v>8.7427263133033382</v>
-      </c>
-    </row>
-    <row r="345" spans="1:45" x14ac:dyDescent="0.3">
-      <c r="A345" t="s">
-        <v>7</v>
-      </c>
-      <c r="B345">
-        <v>2016</v>
-      </c>
-      <c r="C345" s="3" t="s">
-        <v>351</v>
-      </c>
-      <c r="D345">
-        <v>1499217</v>
-      </c>
-      <c r="E345">
-        <v>1.499217</v>
-      </c>
-      <c r="F345">
-        <v>519</v>
-      </c>
-      <c r="G345">
-        <v>1468622</v>
-      </c>
-      <c r="H345">
-        <v>1.4686220000000001</v>
-      </c>
-      <c r="I345">
-        <v>345</v>
-      </c>
-      <c r="J345">
-        <v>3.4618070632870356E-4</v>
-      </c>
-      <c r="K345">
-        <v>346.18070632870359</v>
-      </c>
-      <c r="L345">
-        <v>2.3491408953427091E-4</v>
-      </c>
-      <c r="M345">
-        <v>234.91408953427089</v>
-      </c>
-      <c r="N345">
-        <v>2967839</v>
-      </c>
-      <c r="O345">
-        <v>2.9678390000000001</v>
-      </c>
-      <c r="P345">
-        <v>864</v>
-      </c>
-      <c r="Q345">
-        <v>2.911209132301314E-4</v>
-      </c>
-      <c r="R345">
-        <v>291.12091323013141</v>
-      </c>
-      <c r="S345">
-        <v>1209194</v>
-      </c>
-      <c r="T345">
-        <v>1.2091940000000001</v>
-      </c>
-      <c r="U345">
-        <v>474</v>
-      </c>
-      <c r="V345">
-        <v>1010648</v>
-      </c>
-      <c r="W345">
-        <v>1.010648</v>
-      </c>
-      <c r="X345">
-        <v>280</v>
-      </c>
-      <c r="Y345">
-        <v>3.9199665231550931E-4</v>
-      </c>
-      <c r="Z345">
-        <v>391.99665231550932</v>
-      </c>
-      <c r="AA345">
-        <v>2.7704997189921716E-4</v>
-      </c>
-      <c r="AB345">
-        <v>277.04997189921716</v>
-      </c>
-      <c r="AC345">
-        <v>2219842</v>
-      </c>
-      <c r="AD345">
-        <v>2.2198419999999999</v>
-      </c>
-      <c r="AE345">
-        <v>754</v>
-      </c>
-      <c r="AF345">
-        <v>3.3966381391108017E-4</v>
-      </c>
-      <c r="AG345">
-        <v>339.66381391108018</v>
-      </c>
-      <c r="AH345">
-        <v>3.6908867932210643E-4</v>
-      </c>
-      <c r="AI345" s="1">
-        <v>3.2396766093746938E-5</v>
-      </c>
-      <c r="AJ345">
-        <v>369.08867932210649</v>
-      </c>
-      <c r="AK345" s="1">
-        <v>32.396766093746919</v>
-      </c>
-      <c r="AL345">
-        <v>2.5598203071674401E-4</v>
-      </c>
-      <c r="AM345" s="1">
-        <v>2.9794568151532151E-5</v>
-      </c>
-      <c r="AN345">
-        <v>255.98203071674402</v>
-      </c>
-      <c r="AO345">
-        <v>29.794568151532168</v>
-      </c>
-      <c r="AP345">
-        <v>3.1539236357060576E-4</v>
-      </c>
-      <c r="AQ345">
-        <v>3.4325014249963948E-5</v>
-      </c>
-      <c r="AR345">
-        <v>315.39236357060577</v>
-      </c>
-      <c r="AS345">
         <v>34.325014249963957</v>
       </c>
     </row>
